--- a/Programacion de la Ejecucion de Proyectos/PROYECTADO ORFEI AGOSTO DICIEMBRE.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/PROYECTADO ORFEI AGOSTO DICIEMBRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0CA7E18-6A9D-4C75-8914-0842FB92D5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6680BAF0-23AD-4030-9B19-579D60FBA408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RES X FUN" sheetId="8" r:id="rId1"/>
@@ -3849,285 +3849,6 @@
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="19" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="20" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="20" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="20" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="15" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4184,12 +3905,6 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="13" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4203,6 +3918,243 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="13" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="19" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="20" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="20" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="20" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="15" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4221,11 +4173,59 @@
     <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15097,15 +15097,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="400" t="s">
+      <c r="A1" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
+      <c r="B1" s="427"/>
+      <c r="C1" s="427"/>
+      <c r="D1" s="427"/>
+      <c r="E1" s="427"/>
+      <c r="F1" s="427"/>
+      <c r="G1" s="427"/>
     </row>
     <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="175"/>
@@ -15116,15 +15116,15 @@
       <c r="F2" s="175"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="399" t="s">
+      <c r="A3" s="426" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="399"/>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
-      <c r="G3" s="399"/>
+      <c r="B3" s="426"/>
+      <c r="C3" s="426"/>
+      <c r="D3" s="426"/>
+      <c r="E3" s="426"/>
+      <c r="F3" s="426"/>
+      <c r="G3" s="426"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -15664,11 +15664,11 @@
       <c r="A17" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="401"/>
-      <c r="C17" s="401"/>
-      <c r="D17" s="401"/>
-      <c r="E17" s="401"/>
-      <c r="F17" s="402"/>
+      <c r="B17" s="428"/>
+      <c r="C17" s="428"/>
+      <c r="D17" s="428"/>
+      <c r="E17" s="428"/>
+      <c r="F17" s="429"/>
       <c r="G17" s="185"/>
       <c r="H17" s="129"/>
       <c r="I17" s="129"/>
@@ -16280,21 +16280,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="150" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="447" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="421"/>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
-      <c r="M1" s="421"/>
+      <c r="B1" s="448"/>
+      <c r="C1" s="448"/>
+      <c r="D1" s="448"/>
+      <c r="E1" s="448"/>
+      <c r="F1" s="448"/>
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="448"/>
+      <c r="K1" s="448"/>
+      <c r="L1" s="448"/>
+      <c r="M1" s="448"/>
       <c r="N1" s="355"/>
       <c r="O1" s="355"/>
       <c r="P1" s="355"/>
@@ -16303,19 +16303,19 @@
       <c r="S1" s="355"/>
     </row>
     <row r="2" spans="1:19" s="150" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="420"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
-      <c r="M2" s="421"/>
+      <c r="A2" s="447"/>
+      <c r="B2" s="448"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="448"/>
+      <c r="J2" s="448"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="448"/>
+      <c r="M2" s="448"/>
       <c r="N2" s="355"/>
       <c r="O2" s="355"/>
       <c r="P2" s="355"/>
@@ -16343,13 +16343,13 @@
       <c r="G3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="485" t="s">
+      <c r="H3" s="520" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="486"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="486"/>
-      <c r="L3" s="486"/>
+      <c r="I3" s="521"/>
+      <c r="J3" s="521"/>
+      <c r="K3" s="521"/>
+      <c r="L3" s="521"/>
       <c r="M3" s="363"/>
       <c r="N3" s="363"/>
       <c r="O3" s="363"/>
@@ -16359,15 +16359,15 @@
       <c r="S3" s="363"/>
     </row>
     <row r="4" spans="1:19" s="138" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="484" t="s">
+      <c r="A4" s="519" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="484"/>
-      <c r="C4" s="484"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="484"/>
-      <c r="F4" s="484"/>
-      <c r="G4" s="484"/>
+      <c r="B4" s="519"/>
+      <c r="C4" s="519"/>
+      <c r="D4" s="519"/>
+      <c r="E4" s="519"/>
+      <c r="F4" s="519"/>
+      <c r="G4" s="519"/>
       <c r="H4" s="174" t="s">
         <v>112</v>
       </c>
@@ -18248,11 +18248,11 @@
       <c r="S44" s="95"/>
     </row>
     <row r="45" spans="1:19" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="426" t="s">
+      <c r="A45" s="449" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="427"/>
-      <c r="C45" s="428"/>
+      <c r="B45" s="450"/>
+      <c r="C45" s="451"/>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
       <c r="F45" s="61"/>
@@ -18382,11 +18382,11 @@
       <c r="S47" s="95"/>
     </row>
     <row r="48" spans="1:19" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="426" t="s">
+      <c r="A48" s="449" t="s">
         <v>289</v>
       </c>
-      <c r="B48" s="427"/>
-      <c r="C48" s="428"/>
+      <c r="B48" s="450"/>
+      <c r="C48" s="451"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
       <c r="F48" s="61"/>
@@ -18539,14 +18539,14 @@
       <c r="S51" s="21"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="424" t="s">
+      <c r="A52" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="425"/>
-      <c r="C52" s="425"/>
-      <c r="D52" s="425"/>
-      <c r="E52" s="425"/>
-      <c r="F52" s="425"/>
+      <c r="B52" s="453"/>
+      <c r="C52" s="453"/>
+      <c r="D52" s="453"/>
+      <c r="E52" s="453"/>
+      <c r="F52" s="453"/>
       <c r="G52" s="96">
         <f>SUM(H52:S52)</f>
         <v>188377.58999999997</v>
@@ -19190,16 +19190,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="150" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="447" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
+      <c r="B1" s="448"/>
+      <c r="C1" s="448"/>
+      <c r="D1" s="448"/>
+      <c r="E1" s="448"/>
+      <c r="F1" s="448"/>
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
       <c r="I1" s="355"/>
       <c r="J1" s="355"/>
       <c r="K1" s="355"/>
@@ -19213,14 +19213,14 @@
       <c r="S1" s="355"/>
     </row>
     <row r="2" spans="1:19" s="150" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="420"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
+      <c r="A2" s="447"/>
+      <c r="B2" s="448"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="448"/>
       <c r="I2" s="355"/>
       <c r="J2" s="355"/>
       <c r="K2" s="355"/>
@@ -19253,27 +19253,27 @@
       <c r="G3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="487" t="s">
+      <c r="H3" s="522" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="488"/>
-      <c r="M3" s="488"/>
-      <c r="N3" s="488"/>
-      <c r="O3" s="488"/>
-      <c r="P3" s="488"/>
-      <c r="Q3" s="488"/>
-      <c r="R3" s="488"/>
-      <c r="S3" s="488"/>
+      <c r="I3" s="523"/>
+      <c r="J3" s="523"/>
+      <c r="K3" s="523"/>
+      <c r="L3" s="523"/>
+      <c r="M3" s="523"/>
+      <c r="N3" s="523"/>
+      <c r="O3" s="523"/>
+      <c r="P3" s="523"/>
+      <c r="Q3" s="523"/>
+      <c r="R3" s="523"/>
+      <c r="S3" s="523"/>
     </row>
     <row r="4" spans="1:19" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="489" t="s">
+      <c r="A4" s="524" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="490"/>
-      <c r="C4" s="491"/>
+      <c r="B4" s="525"/>
+      <c r="C4" s="526"/>
       <c r="D4" s="259"/>
       <c r="E4" s="259"/>
       <c r="F4" s="260"/>
@@ -19446,14 +19446,14 @@
       <c r="S7" s="95"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="424" t="s">
+      <c r="A8" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="425"/>
-      <c r="C8" s="425"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="425"/>
+      <c r="B8" s="453"/>
+      <c r="C8" s="453"/>
+      <c r="D8" s="453"/>
+      <c r="E8" s="453"/>
+      <c r="F8" s="453"/>
       <c r="G8" s="96">
         <f>SUM(H8:S8)</f>
         <v>0</v>
@@ -19551,21 +19551,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:252" s="137" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="430" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="418"/>
-      <c r="D1" s="418"/>
-      <c r="E1" s="418"/>
-      <c r="F1" s="418"/>
-      <c r="G1" s="418"/>
-      <c r="H1" s="418"/>
-      <c r="I1" s="418"/>
-      <c r="J1" s="418"/>
-      <c r="K1" s="418"/>
-      <c r="L1" s="418"/>
-      <c r="M1" s="418"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="430"/>
       <c r="N1" s="356"/>
       <c r="O1" s="356"/>
       <c r="P1" s="356"/>
@@ -19807,19 +19807,19 @@
       <c r="IR1" s="136"/>
     </row>
     <row r="2" spans="1:252" s="137" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="418"/>
-      <c r="B2" s="418"/>
-      <c r="C2" s="418"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="418"/>
-      <c r="I2" s="418"/>
-      <c r="J2" s="418"/>
-      <c r="K2" s="418"/>
-      <c r="L2" s="418"/>
-      <c r="M2" s="418"/>
+      <c r="A2" s="430"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
+      <c r="K2" s="430"/>
+      <c r="L2" s="430"/>
+      <c r="M2" s="430"/>
       <c r="N2" s="356"/>
       <c r="O2" s="356"/>
       <c r="P2" s="356"/>
@@ -20061,84 +20061,84 @@
       <c r="IR2" s="136"/>
     </row>
     <row r="3" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="406" t="s">
+      <c r="A3" s="439" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="408" t="s">
+      <c r="B3" s="431" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="408" t="s">
+      <c r="C3" s="431" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="408" t="s">
+      <c r="D3" s="431" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="410" t="s">
+      <c r="E3" s="433" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="408" t="s">
+      <c r="F3" s="431" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="408" t="s">
+      <c r="G3" s="431" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="415" t="s">
+      <c r="H3" s="435" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="415" t="s">
+      <c r="I3" s="435" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="408" t="s">
+      <c r="J3" s="431" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="408" t="s">
+      <c r="K3" s="431" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="408" t="s">
+      <c r="L3" s="431" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="408" t="s">
+      <c r="M3" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="N3" s="408" t="s">
+      <c r="N3" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="408" t="s">
+      <c r="O3" s="431" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="408" t="s">
+      <c r="P3" s="431" t="s">
         <v>230</v>
       </c>
-      <c r="Q3" s="408" t="s">
+      <c r="Q3" s="431" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="408" t="s">
+      <c r="R3" s="431" t="s">
         <v>254</v>
       </c>
-      <c r="S3" s="408" t="s">
+      <c r="S3" s="431" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="407"/>
-      <c r="B4" s="409"/>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="411"/>
-      <c r="F4" s="409"/>
-      <c r="G4" s="409"/>
-      <c r="H4" s="416"/>
-      <c r="I4" s="416"/>
-      <c r="J4" s="409"/>
-      <c r="K4" s="409"/>
-      <c r="L4" s="409"/>
-      <c r="M4" s="409"/>
-      <c r="N4" s="409"/>
-      <c r="O4" s="409"/>
-      <c r="P4" s="409"/>
-      <c r="Q4" s="409"/>
-      <c r="R4" s="409"/>
-      <c r="S4" s="409"/>
+      <c r="A4" s="440"/>
+      <c r="B4" s="432"/>
+      <c r="C4" s="432"/>
+      <c r="D4" s="432"/>
+      <c r="E4" s="434"/>
+      <c r="F4" s="432"/>
+      <c r="G4" s="432"/>
+      <c r="H4" s="436"/>
+      <c r="I4" s="436"/>
+      <c r="J4" s="432"/>
+      <c r="K4" s="432"/>
+      <c r="L4" s="432"/>
+      <c r="M4" s="432"/>
+      <c r="N4" s="432"/>
+      <c r="O4" s="432"/>
+      <c r="P4" s="432"/>
+      <c r="Q4" s="432"/>
+      <c r="R4" s="432"/>
+      <c r="S4" s="432"/>
     </row>
     <row r="5" spans="1:252" s="131" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="236" t="s">
@@ -20772,11 +20772,11 @@
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="1:252" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="403" t="s">
+      <c r="A20" s="441" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="404"/>
-      <c r="C20" s="405"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="196"/>
       <c r="E20" s="196"/>
       <c r="F20" s="196"/>
@@ -20834,21 +20834,21 @@
       </c>
     </row>
     <row r="21" spans="1:252" s="137" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="418" t="s">
+      <c r="A21" s="430" t="s">
         <v>300</v>
       </c>
-      <c r="B21" s="418"/>
-      <c r="C21" s="418"/>
-      <c r="D21" s="418"/>
-      <c r="E21" s="418"/>
-      <c r="F21" s="418"/>
-      <c r="G21" s="418"/>
-      <c r="H21" s="418"/>
-      <c r="I21" s="418"/>
-      <c r="J21" s="418"/>
-      <c r="K21" s="418"/>
-      <c r="L21" s="418"/>
-      <c r="M21" s="418"/>
+      <c r="B21" s="430"/>
+      <c r="C21" s="430"/>
+      <c r="D21" s="430"/>
+      <c r="E21" s="430"/>
+      <c r="F21" s="430"/>
+      <c r="G21" s="430"/>
+      <c r="H21" s="430"/>
+      <c r="I21" s="430"/>
+      <c r="J21" s="430"/>
+      <c r="K21" s="430"/>
+      <c r="L21" s="430"/>
+      <c r="M21" s="430"/>
       <c r="N21" s="356"/>
       <c r="O21" s="356"/>
       <c r="P21" s="356"/>
@@ -21090,19 +21090,19 @@
       <c r="IR21" s="136"/>
     </row>
     <row r="22" spans="1:252" s="137" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="418"/>
-      <c r="B22" s="418"/>
-      <c r="C22" s="418"/>
-      <c r="D22" s="418"/>
-      <c r="E22" s="418"/>
-      <c r="F22" s="418"/>
-      <c r="G22" s="418"/>
-      <c r="H22" s="418"/>
-      <c r="I22" s="418"/>
-      <c r="J22" s="418"/>
-      <c r="K22" s="418"/>
-      <c r="L22" s="418"/>
-      <c r="M22" s="418"/>
+      <c r="A22" s="430"/>
+      <c r="B22" s="430"/>
+      <c r="C22" s="430"/>
+      <c r="D22" s="430"/>
+      <c r="E22" s="430"/>
+      <c r="F22" s="430"/>
+      <c r="G22" s="430"/>
+      <c r="H22" s="430"/>
+      <c r="I22" s="430"/>
+      <c r="J22" s="430"/>
+      <c r="K22" s="430"/>
+      <c r="L22" s="430"/>
+      <c r="M22" s="430"/>
       <c r="N22" s="356"/>
       <c r="O22" s="356"/>
       <c r="P22" s="356"/>
@@ -21344,84 +21344,84 @@
       <c r="IR22" s="136"/>
     </row>
     <row r="23" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="406" t="s">
+      <c r="A23" s="439" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="408" t="s">
+      <c r="B23" s="431" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="408" t="s">
+      <c r="C23" s="431" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="408" t="s">
+      <c r="D23" s="431" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="410" t="s">
+      <c r="E23" s="433" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="408" t="s">
+      <c r="F23" s="431" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="408" t="s">
+      <c r="G23" s="431" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="415" t="s">
+      <c r="H23" s="435" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="415" t="s">
+      <c r="I23" s="435" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="408" t="s">
+      <c r="J23" s="431" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="408" t="s">
+      <c r="K23" s="431" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="408" t="s">
+      <c r="L23" s="431" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="408" t="s">
+      <c r="M23" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="408" t="s">
+      <c r="N23" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="408" t="s">
+      <c r="O23" s="431" t="s">
         <v>94</v>
       </c>
-      <c r="P23" s="408" t="s">
+      <c r="P23" s="431" t="s">
         <v>230</v>
       </c>
-      <c r="Q23" s="408" t="s">
+      <c r="Q23" s="431" t="s">
         <v>103</v>
       </c>
-      <c r="R23" s="408" t="s">
+      <c r="R23" s="431" t="s">
         <v>254</v>
       </c>
-      <c r="S23" s="408" t="s">
+      <c r="S23" s="431" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="407"/>
-      <c r="B24" s="409"/>
-      <c r="C24" s="409"/>
-      <c r="D24" s="409"/>
-      <c r="E24" s="411"/>
-      <c r="F24" s="409"/>
-      <c r="G24" s="409"/>
-      <c r="H24" s="416"/>
-      <c r="I24" s="416"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="409"/>
-      <c r="L24" s="409"/>
-      <c r="M24" s="409"/>
-      <c r="N24" s="409"/>
-      <c r="O24" s="409"/>
-      <c r="P24" s="409"/>
-      <c r="Q24" s="409"/>
-      <c r="R24" s="409"/>
-      <c r="S24" s="409"/>
+      <c r="A24" s="440"/>
+      <c r="B24" s="432"/>
+      <c r="C24" s="432"/>
+      <c r="D24" s="432"/>
+      <c r="E24" s="434"/>
+      <c r="F24" s="432"/>
+      <c r="G24" s="432"/>
+      <c r="H24" s="436"/>
+      <c r="I24" s="436"/>
+      <c r="J24" s="432"/>
+      <c r="K24" s="432"/>
+      <c r="L24" s="432"/>
+      <c r="M24" s="432"/>
+      <c r="N24" s="432"/>
+      <c r="O24" s="432"/>
+      <c r="P24" s="432"/>
+      <c r="Q24" s="432"/>
+      <c r="R24" s="432"/>
+      <c r="S24" s="432"/>
     </row>
     <row r="25" spans="1:252" s="131" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="236" t="s">
@@ -22016,11 +22016,11 @@
       <c r="I38" s="40"/>
     </row>
     <row r="39" spans="1:252" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="412" t="s">
+      <c r="A39" s="444" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="413"/>
-      <c r="C39" s="414"/>
+      <c r="B39" s="445"/>
+      <c r="C39" s="446"/>
       <c r="D39" s="232"/>
       <c r="E39" s="232"/>
       <c r="F39" s="232"/>
@@ -22078,21 +22078,21 @@
       </c>
     </row>
     <row r="40" spans="1:252" s="137" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="419" t="s">
+      <c r="A40" s="437" t="s">
         <v>301</v>
       </c>
-      <c r="B40" s="419"/>
-      <c r="C40" s="419"/>
-      <c r="D40" s="419"/>
-      <c r="E40" s="419"/>
-      <c r="F40" s="419"/>
-      <c r="G40" s="419"/>
-      <c r="H40" s="419"/>
-      <c r="I40" s="419"/>
-      <c r="J40" s="419"/>
-      <c r="K40" s="419"/>
-      <c r="L40" s="419"/>
-      <c r="M40" s="419"/>
+      <c r="B40" s="437"/>
+      <c r="C40" s="437"/>
+      <c r="D40" s="437"/>
+      <c r="E40" s="437"/>
+      <c r="F40" s="437"/>
+      <c r="G40" s="437"/>
+      <c r="H40" s="437"/>
+      <c r="I40" s="437"/>
+      <c r="J40" s="437"/>
+      <c r="K40" s="437"/>
+      <c r="L40" s="437"/>
+      <c r="M40" s="437"/>
       <c r="N40" s="357"/>
       <c r="O40" s="357"/>
       <c r="P40" s="357"/>
@@ -22334,19 +22334,19 @@
       <c r="IR40" s="136"/>
     </row>
     <row r="41" spans="1:252" s="137" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="419"/>
-      <c r="B41" s="419"/>
-      <c r="C41" s="419"/>
-      <c r="D41" s="419"/>
-      <c r="E41" s="419"/>
-      <c r="F41" s="419"/>
-      <c r="G41" s="419"/>
-      <c r="H41" s="419"/>
-      <c r="I41" s="419"/>
-      <c r="J41" s="419"/>
-      <c r="K41" s="419"/>
-      <c r="L41" s="419"/>
-      <c r="M41" s="419"/>
+      <c r="A41" s="437"/>
+      <c r="B41" s="437"/>
+      <c r="C41" s="437"/>
+      <c r="D41" s="437"/>
+      <c r="E41" s="437"/>
+      <c r="F41" s="437"/>
+      <c r="G41" s="437"/>
+      <c r="H41" s="437"/>
+      <c r="I41" s="437"/>
+      <c r="J41" s="437"/>
+      <c r="K41" s="437"/>
+      <c r="L41" s="437"/>
+      <c r="M41" s="437"/>
       <c r="N41" s="357"/>
       <c r="O41" s="357"/>
       <c r="P41" s="357"/>
@@ -22588,84 +22588,84 @@
       <c r="IR41" s="136"/>
     </row>
     <row r="42" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="406" t="s">
+      <c r="A42" s="439" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="408" t="s">
+      <c r="B42" s="431" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="408" t="s">
+      <c r="C42" s="431" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="408" t="s">
+      <c r="D42" s="431" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="410" t="s">
+      <c r="E42" s="433" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="408" t="s">
+      <c r="F42" s="431" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="408" t="s">
+      <c r="G42" s="431" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="415" t="s">
+      <c r="H42" s="435" t="s">
         <v>110</v>
       </c>
-      <c r="I42" s="415" t="s">
+      <c r="I42" s="435" t="s">
         <v>99</v>
       </c>
-      <c r="J42" s="408" t="s">
+      <c r="J42" s="431" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="408" t="s">
+      <c r="K42" s="431" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="408" t="s">
+      <c r="L42" s="431" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="408" t="s">
+      <c r="M42" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="408" t="s">
+      <c r="N42" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="408" t="s">
+      <c r="O42" s="431" t="s">
         <v>94</v>
       </c>
-      <c r="P42" s="408" t="s">
+      <c r="P42" s="431" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="408" t="s">
+      <c r="Q42" s="431" t="s">
         <v>103</v>
       </c>
-      <c r="R42" s="408" t="s">
+      <c r="R42" s="431" t="s">
         <v>254</v>
       </c>
-      <c r="S42" s="408" t="s">
+      <c r="S42" s="431" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="407"/>
-      <c r="B43" s="409"/>
-      <c r="C43" s="409"/>
-      <c r="D43" s="409"/>
-      <c r="E43" s="411"/>
-      <c r="F43" s="409"/>
-      <c r="G43" s="409"/>
-      <c r="H43" s="416"/>
-      <c r="I43" s="416"/>
-      <c r="J43" s="409"/>
-      <c r="K43" s="409"/>
-      <c r="L43" s="409"/>
-      <c r="M43" s="409"/>
-      <c r="N43" s="409"/>
-      <c r="O43" s="409"/>
-      <c r="P43" s="409"/>
-      <c r="Q43" s="409"/>
-      <c r="R43" s="409"/>
-      <c r="S43" s="409"/>
+      <c r="A43" s="440"/>
+      <c r="B43" s="432"/>
+      <c r="C43" s="432"/>
+      <c r="D43" s="432"/>
+      <c r="E43" s="434"/>
+      <c r="F43" s="432"/>
+      <c r="G43" s="432"/>
+      <c r="H43" s="436"/>
+      <c r="I43" s="436"/>
+      <c r="J43" s="432"/>
+      <c r="K43" s="432"/>
+      <c r="L43" s="432"/>
+      <c r="M43" s="432"/>
+      <c r="N43" s="432"/>
+      <c r="O43" s="432"/>
+      <c r="P43" s="432"/>
+      <c r="Q43" s="432"/>
+      <c r="R43" s="432"/>
+      <c r="S43" s="432"/>
     </row>
     <row r="44" spans="1:252" s="131" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="236" t="s">
@@ -23509,11 +23509,11 @@
       <c r="S62" s="43"/>
     </row>
     <row r="63" spans="1:252" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="403" t="s">
+      <c r="A63" s="441" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="404"/>
-      <c r="C63" s="405"/>
+      <c r="B63" s="442"/>
+      <c r="C63" s="443"/>
       <c r="D63" s="196"/>
       <c r="E63" s="196"/>
       <c r="F63" s="196"/>
@@ -23571,21 +23571,21 @@
       </c>
     </row>
     <row r="64" spans="1:252" s="137" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="419" t="s">
+      <c r="A64" s="437" t="s">
         <v>302</v>
       </c>
-      <c r="B64" s="419"/>
-      <c r="C64" s="419"/>
-      <c r="D64" s="419"/>
-      <c r="E64" s="419"/>
-      <c r="F64" s="419"/>
-      <c r="G64" s="419"/>
-      <c r="H64" s="419"/>
-      <c r="I64" s="419"/>
-      <c r="J64" s="419"/>
-      <c r="K64" s="419"/>
-      <c r="L64" s="419"/>
-      <c r="M64" s="419"/>
+      <c r="B64" s="437"/>
+      <c r="C64" s="437"/>
+      <c r="D64" s="437"/>
+      <c r="E64" s="437"/>
+      <c r="F64" s="437"/>
+      <c r="G64" s="437"/>
+      <c r="H64" s="437"/>
+      <c r="I64" s="437"/>
+      <c r="J64" s="437"/>
+      <c r="K64" s="437"/>
+      <c r="L64" s="437"/>
+      <c r="M64" s="437"/>
       <c r="N64" s="357"/>
       <c r="O64" s="357"/>
       <c r="P64" s="357"/>
@@ -23827,19 +23827,19 @@
       <c r="IR64" s="136"/>
     </row>
     <row r="65" spans="1:252" s="137" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="419"/>
-      <c r="B65" s="419"/>
-      <c r="C65" s="419"/>
-      <c r="D65" s="419"/>
-      <c r="E65" s="419"/>
-      <c r="F65" s="419"/>
-      <c r="G65" s="419"/>
-      <c r="H65" s="419"/>
-      <c r="I65" s="419"/>
-      <c r="J65" s="419"/>
-      <c r="K65" s="419"/>
-      <c r="L65" s="419"/>
-      <c r="M65" s="419"/>
+      <c r="A65" s="437"/>
+      <c r="B65" s="437"/>
+      <c r="C65" s="437"/>
+      <c r="D65" s="437"/>
+      <c r="E65" s="437"/>
+      <c r="F65" s="437"/>
+      <c r="G65" s="437"/>
+      <c r="H65" s="437"/>
+      <c r="I65" s="437"/>
+      <c r="J65" s="437"/>
+      <c r="K65" s="437"/>
+      <c r="L65" s="437"/>
+      <c r="M65" s="437"/>
       <c r="N65" s="357"/>
       <c r="O65" s="357"/>
       <c r="P65" s="357"/>
@@ -24081,84 +24081,84 @@
       <c r="IR65" s="136"/>
     </row>
     <row r="66" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="406" t="s">
+      <c r="A66" s="439" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="408" t="s">
+      <c r="B66" s="431" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="408" t="s">
+      <c r="C66" s="431" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="408" t="s">
+      <c r="D66" s="431" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="410" t="s">
+      <c r="E66" s="433" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="408" t="s">
+      <c r="F66" s="431" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="408" t="s">
+      <c r="G66" s="431" t="s">
         <v>92</v>
       </c>
-      <c r="H66" s="415" t="s">
+      <c r="H66" s="435" t="s">
         <v>110</v>
       </c>
-      <c r="I66" s="415" t="s">
+      <c r="I66" s="435" t="s">
         <v>99</v>
       </c>
-      <c r="J66" s="408" t="s">
+      <c r="J66" s="431" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="408" t="s">
+      <c r="K66" s="431" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="408" t="s">
+      <c r="L66" s="431" t="s">
         <v>9</v>
       </c>
-      <c r="M66" s="408" t="s">
+      <c r="M66" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="N66" s="408" t="s">
+      <c r="N66" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="O66" s="408" t="s">
+      <c r="O66" s="431" t="s">
         <v>94</v>
       </c>
-      <c r="P66" s="408" t="s">
+      <c r="P66" s="431" t="s">
         <v>230</v>
       </c>
-      <c r="Q66" s="408" t="s">
+      <c r="Q66" s="431" t="s">
         <v>103</v>
       </c>
-      <c r="R66" s="408" t="s">
+      <c r="R66" s="431" t="s">
         <v>254</v>
       </c>
-      <c r="S66" s="408" t="s">
+      <c r="S66" s="431" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="407"/>
-      <c r="B67" s="409"/>
-      <c r="C67" s="409"/>
-      <c r="D67" s="409"/>
-      <c r="E67" s="411"/>
-      <c r="F67" s="409"/>
-      <c r="G67" s="409"/>
-      <c r="H67" s="416"/>
-      <c r="I67" s="416"/>
-      <c r="J67" s="409"/>
-      <c r="K67" s="409"/>
-      <c r="L67" s="409"/>
-      <c r="M67" s="409"/>
-      <c r="N67" s="409"/>
-      <c r="O67" s="409"/>
-      <c r="P67" s="409"/>
-      <c r="Q67" s="409"/>
-      <c r="R67" s="409"/>
-      <c r="S67" s="409"/>
+      <c r="A67" s="440"/>
+      <c r="B67" s="432"/>
+      <c r="C67" s="432"/>
+      <c r="D67" s="432"/>
+      <c r="E67" s="434"/>
+      <c r="F67" s="432"/>
+      <c r="G67" s="432"/>
+      <c r="H67" s="436"/>
+      <c r="I67" s="436"/>
+      <c r="J67" s="432"/>
+      <c r="K67" s="432"/>
+      <c r="L67" s="432"/>
+      <c r="M67" s="432"/>
+      <c r="N67" s="432"/>
+      <c r="O67" s="432"/>
+      <c r="P67" s="432"/>
+      <c r="Q67" s="432"/>
+      <c r="R67" s="432"/>
+      <c r="S67" s="432"/>
     </row>
     <row r="68" spans="1:252" s="131" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="236" t="s">
@@ -24774,11 +24774,11 @@
       <c r="S82" s="43"/>
     </row>
     <row r="83" spans="1:19" s="147" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="403" t="s">
+      <c r="A83" s="441" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="404"/>
-      <c r="C83" s="405"/>
+      <c r="B83" s="442"/>
+      <c r="C83" s="443"/>
       <c r="D83" s="196"/>
       <c r="E83" s="196"/>
       <c r="F83" s="196"/>
@@ -24836,14 +24836,14 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="417" t="s">
+      <c r="A84" s="438" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="417"/>
-      <c r="C84" s="417"/>
-      <c r="D84" s="417"/>
-      <c r="E84" s="417"/>
-      <c r="F84" s="417"/>
+      <c r="B84" s="438"/>
+      <c r="C84" s="438"/>
+      <c r="D84" s="438"/>
+      <c r="E84" s="438"/>
+      <c r="F84" s="438"/>
       <c r="G84" s="195">
         <f>SUM(H84:S84)</f>
         <v>72946.222222222001</v>
@@ -24904,23 +24904,58 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A21:M22"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
@@ -24937,58 +24972,23 @@
     <mergeCell ref="P42:P43"/>
     <mergeCell ref="A40:M41"/>
     <mergeCell ref="A64:M65"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A21:M22"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="1.01" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
@@ -25592,34 +25592,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="447" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="421"/>
-      <c r="J1" s="421"/>
-      <c r="K1" s="421"/>
-      <c r="L1" s="421"/>
+      <c r="B1" s="448"/>
+      <c r="C1" s="448"/>
+      <c r="D1" s="448"/>
+      <c r="E1" s="448"/>
+      <c r="F1" s="448"/>
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="448"/>
+      <c r="K1" s="448"/>
+      <c r="L1" s="448"/>
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="420"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
+      <c r="A2" s="447"/>
+      <c r="B2" s="448"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="448"/>
+      <c r="J2" s="448"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="448"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
@@ -25641,19 +25641,19 @@
       <c r="G3" s="330" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="422" t="s">
+      <c r="H3" s="456" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="423"/>
-      <c r="J3" s="423"/>
-      <c r="K3" s="423"/>
-      <c r="L3" s="423"/>
+      <c r="I3" s="457"/>
+      <c r="J3" s="457"/>
+      <c r="K3" s="457"/>
+      <c r="L3" s="457"/>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="426" t="s">
+      <c r="A4" s="449" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="428"/>
+      <c r="B4" s="451"/>
       <c r="C4" s="59"/>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -25858,10 +25858,10 @@
       <c r="L11" s="337"/>
     </row>
     <row r="12" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="426" t="s">
+      <c r="A12" s="449" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="427"/>
+      <c r="B12" s="450"/>
       <c r="C12" s="88"/>
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
@@ -25907,10 +25907,10 @@
       <c r="L13" s="188"/>
     </row>
     <row r="14" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="426" t="s">
+      <c r="A14" s="449" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="427"/>
+      <c r="B14" s="450"/>
       <c r="C14" s="88"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60"/>
@@ -25996,10 +25996,10 @@
       <c r="L18" s="188"/>
     </row>
     <row r="19" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="426" t="s">
+      <c r="A19" s="449" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="427"/>
+      <c r="B19" s="450"/>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
@@ -26043,10 +26043,10 @@
       <c r="L20" s="188"/>
     </row>
     <row r="21" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="426" t="s">
+      <c r="A21" s="449" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="427"/>
+      <c r="B21" s="450"/>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
@@ -26090,10 +26090,10 @@
       <c r="L22" s="188"/>
     </row>
     <row r="23" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="429" t="s">
+      <c r="A23" s="454" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="430"/>
+      <c r="B23" s="455"/>
       <c r="C23" s="88"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -26139,14 +26139,14 @@
       <c r="L24" s="188"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="424" t="s">
+      <c r="A25" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="425"/>
-      <c r="C25" s="425"/>
-      <c r="D25" s="425"/>
-      <c r="E25" s="425"/>
-      <c r="F25" s="425"/>
+      <c r="B25" s="453"/>
+      <c r="C25" s="453"/>
+      <c r="D25" s="453"/>
+      <c r="E25" s="453"/>
+      <c r="F25" s="453"/>
       <c r="G25" s="345">
         <f>SUM(H25:L25)</f>
         <v>4905</v>
@@ -26201,15 +26201,15 @@
       <c r="L27" s="347"/>
     </row>
     <row r="28" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="420" t="s">
+      <c r="A28" s="447" t="s">
         <v>236</v>
       </c>
-      <c r="B28" s="421"/>
-      <c r="C28" s="421"/>
-      <c r="D28" s="421"/>
-      <c r="E28" s="421"/>
-      <c r="F28" s="421"/>
-      <c r="G28" s="421"/>
+      <c r="B28" s="448"/>
+      <c r="C28" s="448"/>
+      <c r="D28" s="448"/>
+      <c r="E28" s="448"/>
+      <c r="F28" s="448"/>
+      <c r="G28" s="448"/>
       <c r="H28" s="355"/>
       <c r="I28" s="355"/>
       <c r="J28" s="355"/>
@@ -26217,13 +26217,13 @@
       <c r="L28" s="355"/>
     </row>
     <row r="29" spans="1:12" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="420"/>
-      <c r="B29" s="421"/>
-      <c r="C29" s="421"/>
-      <c r="D29" s="421"/>
-      <c r="E29" s="421"/>
-      <c r="F29" s="421"/>
-      <c r="G29" s="421"/>
+      <c r="A29" s="447"/>
+      <c r="B29" s="448"/>
+      <c r="C29" s="448"/>
+      <c r="D29" s="448"/>
+      <c r="E29" s="448"/>
+      <c r="F29" s="448"/>
+      <c r="G29" s="448"/>
       <c r="H29" s="355"/>
       <c r="I29" s="355"/>
       <c r="J29" s="355"/>
@@ -26257,10 +26257,10 @@
       <c r="L30" s="358"/>
     </row>
     <row r="31" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="426" t="s">
+      <c r="A31" s="449" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="428"/>
+      <c r="B31" s="451"/>
       <c r="C31" s="88"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
@@ -26533,10 +26533,10 @@
       <c r="L39" s="338"/>
     </row>
     <row r="40" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="426" t="s">
+      <c r="A40" s="449" t="s">
         <v>218</v>
       </c>
-      <c r="B40" s="427"/>
+      <c r="B40" s="450"/>
       <c r="C40" s="88"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
@@ -26593,10 +26593,10 @@
       <c r="L41" s="188"/>
     </row>
     <row r="42" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="426" t="s">
+      <c r="A42" s="449" t="s">
         <v>217</v>
       </c>
-      <c r="B42" s="427"/>
+      <c r="B42" s="450"/>
       <c r="C42" s="88"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
@@ -26653,10 +26653,10 @@
       <c r="L43" s="188"/>
     </row>
     <row r="44" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="426" t="s">
+      <c r="A44" s="449" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="427"/>
+      <c r="B44" s="450"/>
       <c r="C44" s="88"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
@@ -26713,10 +26713,10 @@
       <c r="L45" s="266"/>
     </row>
     <row r="46" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="426" t="s">
+      <c r="A46" s="449" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="427"/>
+      <c r="B46" s="450"/>
       <c r="C46" s="88"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
@@ -26775,14 +26775,14 @@
       <c r="L47" s="339"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="424" t="s">
+      <c r="A48" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="425"/>
-      <c r="C48" s="425"/>
-      <c r="D48" s="425"/>
-      <c r="E48" s="425"/>
-      <c r="F48" s="425"/>
+      <c r="B48" s="453"/>
+      <c r="C48" s="453"/>
+      <c r="D48" s="453"/>
+      <c r="E48" s="453"/>
+      <c r="F48" s="453"/>
       <c r="G48" s="345">
         <f>SUM(H48:L48)</f>
         <v>9810</v>
@@ -26823,15 +26823,15 @@
       <c r="L49" s="347"/>
     </row>
     <row r="50" spans="1:12" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="420" t="s">
+      <c r="A50" s="447" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="421"/>
-      <c r="C50" s="421"/>
-      <c r="D50" s="421"/>
-      <c r="E50" s="421"/>
-      <c r="F50" s="421"/>
-      <c r="G50" s="421"/>
+      <c r="B50" s="448"/>
+      <c r="C50" s="448"/>
+      <c r="D50" s="448"/>
+      <c r="E50" s="448"/>
+      <c r="F50" s="448"/>
+      <c r="G50" s="448"/>
       <c r="H50" s="355"/>
       <c r="I50" s="355"/>
       <c r="J50" s="355"/>
@@ -26865,10 +26865,10 @@
       <c r="L51" s="358"/>
     </row>
     <row r="52" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="426" t="s">
+      <c r="A52" s="449" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="428"/>
+      <c r="B52" s="451"/>
       <c r="C52" s="88"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
@@ -27083,10 +27083,10 @@
       <c r="L58" s="338"/>
     </row>
     <row r="59" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="426" t="s">
+      <c r="A59" s="449" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="427"/>
+      <c r="B59" s="450"/>
       <c r="C59" s="88"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
@@ -27143,10 +27143,10 @@
       <c r="L60" s="188"/>
     </row>
     <row r="61" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="426" t="s">
+      <c r="A61" s="449" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="427"/>
+      <c r="B61" s="450"/>
       <c r="C61" s="88"/>
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
@@ -27203,10 +27203,10 @@
       <c r="L62" s="188"/>
     </row>
     <row r="63" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="426" t="s">
+      <c r="A63" s="449" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="427"/>
+      <c r="B63" s="450"/>
       <c r="C63" s="88"/>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
@@ -27263,10 +27263,10 @@
       <c r="L64" s="266"/>
     </row>
     <row r="65" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="426" t="s">
+      <c r="A65" s="449" t="s">
         <v>242</v>
       </c>
-      <c r="B65" s="427"/>
+      <c r="B65" s="450"/>
       <c r="C65" s="88"/>
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
@@ -27323,14 +27323,14 @@
       <c r="L66" s="339"/>
     </row>
     <row r="67" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="424" t="s">
+      <c r="A67" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="425"/>
-      <c r="C67" s="425"/>
-      <c r="D67" s="425"/>
-      <c r="E67" s="425"/>
-      <c r="F67" s="425"/>
+      <c r="B67" s="453"/>
+      <c r="C67" s="453"/>
+      <c r="D67" s="453"/>
+      <c r="E67" s="453"/>
+      <c r="F67" s="453"/>
       <c r="G67" s="345">
         <f>SUM(H67:L67)</f>
         <v>9810</v>
@@ -27357,14 +27357,14 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="27" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="417" t="s">
+      <c r="A68" s="438" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="417"/>
-      <c r="C68" s="417"/>
-      <c r="D68" s="417"/>
-      <c r="E68" s="417"/>
-      <c r="F68" s="417"/>
+      <c r="B68" s="438"/>
+      <c r="C68" s="438"/>
+      <c r="D68" s="438"/>
+      <c r="E68" s="438"/>
+      <c r="F68" s="438"/>
       <c r="G68" s="195">
         <f>SUM(H68:L68)</f>
         <v>24525</v>
@@ -27393,14 +27393,6 @@
     <row r="69" spans="1:12" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A28:G29"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="A67:F67"/>
@@ -27417,6 +27409,14 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:G29"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.84" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -27454,20 +27454,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="431" t="s">
+      <c r="A1" s="458" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="432"/>
-      <c r="F1" s="432"/>
-      <c r="G1" s="432"/>
-      <c r="H1" s="432"/>
-      <c r="I1" s="432"/>
-      <c r="J1" s="432"/>
-      <c r="K1" s="432"/>
-      <c r="L1" s="433"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="460"/>
       <c r="M1" s="385"/>
       <c r="N1" s="367">
         <v>220040.2</v>
@@ -27525,15 +27525,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="440" t="s">
+      <c r="A3" s="467" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="440"/>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
+      <c r="B3" s="467"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="467"/>
+      <c r="E3" s="467"/>
+      <c r="F3" s="467"/>
+      <c r="G3" s="467"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="99"/>
@@ -28291,14 +28291,14 @@
       <c r="M28" s="390"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="441" t="s">
+      <c r="A29" s="468" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="442"/>
-      <c r="C29" s="442"/>
-      <c r="D29" s="442"/>
-      <c r="E29" s="442"/>
-      <c r="F29" s="443"/>
+      <c r="B29" s="469"/>
+      <c r="C29" s="469"/>
+      <c r="D29" s="469"/>
+      <c r="E29" s="469"/>
+      <c r="F29" s="470"/>
       <c r="G29" s="113">
         <f>SUM(H29:L29)</f>
         <v>24405</v>
@@ -28326,20 +28326,20 @@
       <c r="M29" s="391"/>
     </row>
     <row r="30" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="431" t="s">
+      <c r="A30" s="458" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="432"/>
-      <c r="C30" s="432"/>
-      <c r="D30" s="432"/>
-      <c r="E30" s="432"/>
-      <c r="F30" s="432"/>
-      <c r="G30" s="432"/>
-      <c r="H30" s="432"/>
-      <c r="I30" s="432"/>
-      <c r="J30" s="432"/>
-      <c r="K30" s="432"/>
-      <c r="L30" s="432"/>
+      <c r="B30" s="459"/>
+      <c r="C30" s="459"/>
+      <c r="D30" s="459"/>
+      <c r="E30" s="459"/>
+      <c r="F30" s="459"/>
+      <c r="G30" s="459"/>
+      <c r="H30" s="459"/>
+      <c r="I30" s="459"/>
+      <c r="J30" s="459"/>
+      <c r="K30" s="459"/>
+      <c r="L30" s="459"/>
       <c r="M30" s="373"/>
       <c r="N30" s="366" t="s">
         <v>358</v>
@@ -28398,15 +28398,15 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="440" t="s">
+      <c r="A32" s="467" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="440"/>
-      <c r="C32" s="440"/>
-      <c r="D32" s="440"/>
-      <c r="E32" s="440"/>
-      <c r="F32" s="440"/>
-      <c r="G32" s="440"/>
+      <c r="B32" s="467"/>
+      <c r="C32" s="467"/>
+      <c r="D32" s="467"/>
+      <c r="E32" s="467"/>
+      <c r="F32" s="467"/>
+      <c r="G32" s="467"/>
       <c r="H32" s="99"/>
       <c r="I32" s="99"/>
       <c r="J32" s="99"/>
@@ -29229,14 +29229,14 @@
       <c r="M59" s="390"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="441" t="s">
+      <c r="A60" s="468" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="442"/>
-      <c r="C60" s="442"/>
-      <c r="D60" s="442"/>
-      <c r="E60" s="442"/>
-      <c r="F60" s="443"/>
+      <c r="B60" s="469"/>
+      <c r="C60" s="469"/>
+      <c r="D60" s="469"/>
+      <c r="E60" s="469"/>
+      <c r="F60" s="470"/>
       <c r="G60" s="113">
         <f>SUM(H60:L60)</f>
         <v>43905</v>
@@ -29279,20 +29279,20 @@
       <c r="M61" s="248"/>
     </row>
     <row r="62" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="431" t="s">
+      <c r="A62" s="458" t="s">
         <v>263</v>
       </c>
-      <c r="B62" s="432"/>
-      <c r="C62" s="432"/>
-      <c r="D62" s="432"/>
-      <c r="E62" s="432"/>
-      <c r="F62" s="432"/>
-      <c r="G62" s="432"/>
-      <c r="H62" s="432"/>
-      <c r="I62" s="432"/>
-      <c r="J62" s="432"/>
-      <c r="K62" s="432"/>
-      <c r="L62" s="432"/>
+      <c r="B62" s="459"/>
+      <c r="C62" s="459"/>
+      <c r="D62" s="459"/>
+      <c r="E62" s="459"/>
+      <c r="F62" s="459"/>
+      <c r="G62" s="459"/>
+      <c r="H62" s="459"/>
+      <c r="I62" s="459"/>
+      <c r="J62" s="459"/>
+      <c r="K62" s="459"/>
+      <c r="L62" s="459"/>
       <c r="M62" s="373"/>
     </row>
     <row r="63" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29335,15 +29335,15 @@
       <c r="M63" s="373"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="440" t="s">
+      <c r="A64" s="467" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="440"/>
-      <c r="C64" s="440"/>
-      <c r="D64" s="440"/>
-      <c r="E64" s="440"/>
-      <c r="F64" s="440"/>
-      <c r="G64" s="440"/>
+      <c r="B64" s="467"/>
+      <c r="C64" s="467"/>
+      <c r="D64" s="467"/>
+      <c r="E64" s="467"/>
+      <c r="F64" s="467"/>
+      <c r="G64" s="467"/>
       <c r="H64" s="99"/>
       <c r="I64" s="99"/>
       <c r="J64" s="99"/>
@@ -29951,14 +29951,14 @@
       <c r="M84" s="390"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="441" t="s">
+      <c r="A85" s="468" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="442"/>
-      <c r="C85" s="442"/>
-      <c r="D85" s="442"/>
-      <c r="E85" s="442"/>
-      <c r="F85" s="443"/>
+      <c r="B85" s="469"/>
+      <c r="C85" s="469"/>
+      <c r="D85" s="469"/>
+      <c r="E85" s="469"/>
+      <c r="F85" s="470"/>
       <c r="G85" s="113">
         <f>SUM(H85:L85)</f>
         <v>42905</v>
@@ -29986,14 +29986,14 @@
       <c r="M85" s="391"/>
     </row>
     <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="439" t="s">
+      <c r="A86" s="466" t="s">
         <v>245</v>
       </c>
-      <c r="B86" s="439"/>
-      <c r="C86" s="439"/>
-      <c r="D86" s="439"/>
-      <c r="E86" s="439"/>
-      <c r="F86" s="439"/>
+      <c r="B86" s="466"/>
+      <c r="C86" s="466"/>
+      <c r="D86" s="466"/>
+      <c r="E86" s="466"/>
+      <c r="F86" s="466"/>
       <c r="G86" s="255">
         <f>SUM(H86:L86)</f>
         <v>111215</v>
@@ -30021,15 +30021,15 @@
       <c r="M86" s="394"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="437" t="s">
+      <c r="A87" s="464" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="438"/>
-      <c r="C87" s="438"/>
-      <c r="D87" s="438"/>
-      <c r="E87" s="438"/>
-      <c r="F87" s="438"/>
-      <c r="G87" s="438"/>
+      <c r="B87" s="465"/>
+      <c r="C87" s="465"/>
+      <c r="D87" s="465"/>
+      <c r="E87" s="465"/>
+      <c r="F87" s="465"/>
+      <c r="G87" s="465"/>
     </row>
     <row r="88" spans="1:13" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -30724,29 +30724,29 @@
       <c r="G121" s="12"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="434" t="s">
+      <c r="A122" s="461" t="s">
         <v>66</v>
       </c>
-      <c r="B122" s="435"/>
-      <c r="C122" s="435"/>
-      <c r="D122" s="435"/>
-      <c r="E122" s="435"/>
-      <c r="F122" s="436"/>
+      <c r="B122" s="462"/>
+      <c r="C122" s="462"/>
+      <c r="D122" s="462"/>
+      <c r="E122" s="462"/>
+      <c r="F122" s="463"/>
       <c r="G122" s="20">
         <f>SUM(G90:G120)</f>
         <v>222979.7</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="437" t="s">
+      <c r="A124" s="464" t="s">
         <v>97</v>
       </c>
-      <c r="B124" s="438"/>
-      <c r="C124" s="438"/>
-      <c r="D124" s="438"/>
-      <c r="E124" s="438"/>
-      <c r="F124" s="438"/>
-      <c r="G124" s="438"/>
+      <c r="B124" s="465"/>
+      <c r="C124" s="465"/>
+      <c r="D124" s="465"/>
+      <c r="E124" s="465"/>
+      <c r="F124" s="465"/>
+      <c r="G124" s="465"/>
     </row>
     <row r="125" spans="1:7" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -31416,14 +31416,14 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="434" t="s">
+      <c r="A157" s="461" t="s">
         <v>66</v>
       </c>
-      <c r="B157" s="435"/>
-      <c r="C157" s="435"/>
-      <c r="D157" s="435"/>
-      <c r="E157" s="435"/>
-      <c r="F157" s="436"/>
+      <c r="B157" s="462"/>
+      <c r="C157" s="462"/>
+      <c r="D157" s="462"/>
+      <c r="E157" s="462"/>
+      <c r="F157" s="463"/>
       <c r="G157" s="20">
         <f>SUM(G127:G156)</f>
         <v>220039.7</v>
@@ -31462,8 +31462,8 @@
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A60" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31480,39 +31480,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="477" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="448"/>
-      <c r="C1" s="448"/>
-      <c r="D1" s="448"/>
-      <c r="E1" s="448"/>
-      <c r="F1" s="448"/>
-      <c r="G1" s="448"/>
-      <c r="H1" s="448"/>
-      <c r="I1" s="448"/>
-      <c r="J1" s="448"/>
-      <c r="K1" s="448"/>
-      <c r="L1" s="448"/>
-      <c r="M1" s="493"/>
+      <c r="B1" s="477"/>
+      <c r="C1" s="477"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="400"/>
       <c r="N1" s="116">
         <v>101031.5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="449"/>
-      <c r="B2" s="449"/>
-      <c r="C2" s="449"/>
-      <c r="D2" s="449"/>
-      <c r="E2" s="449"/>
-      <c r="F2" s="449"/>
-      <c r="G2" s="449"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="449"/>
-      <c r="J2" s="449"/>
-      <c r="K2" s="449"/>
-      <c r="L2" s="449"/>
-      <c r="M2" s="493" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="478"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="478"/>
+      <c r="I2" s="478"/>
+      <c r="J2" s="478"/>
+      <c r="K2" s="478"/>
+      <c r="L2" s="478"/>
+      <c r="M2" s="400" t="s">
         <v>400</v>
       </c>
     </row>
@@ -31551,7 +31551,7 @@
       <c r="L3" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="494"/>
+      <c r="M3" s="401"/>
       <c r="N3" s="116" t="e">
         <f>+N1-#REF!</f>
         <v>#REF!</v>
@@ -31562,15 +31562,15 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="446" t="s">
+      <c r="A4" s="473" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="447"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="447"/>
-      <c r="E4" s="447"/>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="474"/>
+      <c r="D4" s="474"/>
+      <c r="E4" s="474"/>
+      <c r="F4" s="474"/>
+      <c r="G4" s="474"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="118">
@@ -31606,7 +31606,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="495"/>
+      <c r="M5" s="402"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
@@ -31675,7 +31675,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="495"/>
+      <c r="M7" s="402"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
@@ -31732,7 +31732,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="495"/>
+      <c r="M9" s="402"/>
     </row>
     <row r="10" spans="1:15" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
@@ -31751,7 +31751,7 @@
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
-      <c r="M10" s="496"/>
+      <c r="M10" s="403"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="118" t="s">
@@ -31785,10 +31785,10 @@
         <f>SUM(L12:L12)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="495"/>
+      <c r="M11" s="402"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="501">
+      <c r="A12" s="408">
         <v>1</v>
       </c>
       <c r="B12" s="92" t="s">
@@ -31815,7 +31815,7 @@
       <c r="M12" s="269"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="501">
+      <c r="A13" s="408">
         <v>2</v>
       </c>
       <c r="B13" s="92" t="s">
@@ -31836,7 +31836,7 @@
       <c r="M13" s="269"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="501">
+      <c r="A14" s="408">
         <v>3</v>
       </c>
       <c r="B14" s="92" t="s">
@@ -31853,7 +31853,7 @@
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="500"/>
+      <c r="H14" s="407"/>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
@@ -31863,10 +31863,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="501">
+      <c r="A15" s="408">
         <v>4</v>
       </c>
-      <c r="B15" s="492" t="s">
+      <c r="B15" s="399" t="s">
         <v>388</v>
       </c>
       <c r="C15" s="92"/>
@@ -31882,10 +31882,10 @@
       <c r="M15" s="269"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="501">
+      <c r="A16" s="408">
         <v>5</v>
       </c>
-      <c r="B16" s="492" t="s">
+      <c r="B16" s="399" t="s">
         <v>389</v>
       </c>
       <c r="C16" s="92"/>
@@ -31901,7 +31901,7 @@
       <c r="M16" s="269"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="501">
+      <c r="A17" s="408">
         <v>6</v>
       </c>
       <c r="B17" s="92" t="s">
@@ -31914,7 +31914,7 @@
       <c r="E17" s="211"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="500"/>
+      <c r="H17" s="407"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -31924,7 +31924,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="501">
+      <c r="A18" s="408">
         <v>7</v>
       </c>
       <c r="B18" s="92" t="s">
@@ -31953,7 +31953,7 @@
       <c r="M18" s="269"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="501">
+      <c r="A19" s="408">
         <v>8</v>
       </c>
       <c r="B19" s="92" t="s">
@@ -31982,10 +31982,10 @@
       <c r="M19" s="269"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="501">
+      <c r="A20" s="408">
         <v>9</v>
       </c>
-      <c r="B20" s="492"/>
+      <c r="B20" s="399"/>
       <c r="C20" s="92"/>
       <c r="D20" s="40"/>
       <c r="E20" s="211"/>
@@ -32030,7 +32030,7 @@
         <f>SUM(L22:L22)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="497"/>
+      <c r="M21" s="404"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="187" t="s">
@@ -32094,7 +32094,7 @@
         <f>SUM(L24:L24)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="497"/>
+      <c r="M23" s="404"/>
     </row>
     <row r="24" spans="1:14" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="91">
@@ -32113,69 +32113,69 @@
       <c r="J24" s="95"/>
       <c r="K24" s="95"/>
       <c r="L24" s="95"/>
-      <c r="M24" s="496"/>
+      <c r="M24" s="403"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="503" t="s">
+      <c r="A25" s="410" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="504" t="s">
+      <c r="B25" s="411" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="504"/>
-      <c r="D25" s="505"/>
-      <c r="E25" s="503"/>
-      <c r="F25" s="504"/>
-      <c r="G25" s="504"/>
-      <c r="H25" s="505">
+      <c r="C25" s="411"/>
+      <c r="D25" s="412"/>
+      <c r="E25" s="410"/>
+      <c r="F25" s="411"/>
+      <c r="G25" s="411"/>
+      <c r="H25" s="412">
         <f t="shared" ref="H25:I25" si="4">SUM(H27)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="505">
+      <c r="I25" s="412">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J25" s="505">
+      <c r="J25" s="412">
         <f>SUM(J27)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="505">
+      <c r="K25" s="412">
         <f>SUM(K27)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="505">
+      <c r="L25" s="412">
         <f>SUM(L27)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="497"/>
-    </row>
-    <row r="26" spans="1:14" s="502" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="509">
+      <c r="M25" s="404"/>
+    </row>
+    <row r="26" spans="1:14" s="409" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="416">
         <v>1</v>
       </c>
       <c r="B26" s="266" t="s">
         <v>432</v>
       </c>
       <c r="C26" s="266"/>
-      <c r="D26" s="510" t="s">
+      <c r="D26" s="417" t="s">
         <v>431</v>
       </c>
-      <c r="E26" s="509">
+      <c r="E26" s="416">
         <v>1</v>
       </c>
       <c r="F26" s="266">
         <v>3600</v>
       </c>
       <c r="G26" s="266"/>
-      <c r="H26" s="510"/>
-      <c r="I26" s="510"/>
-      <c r="J26" s="510"/>
-      <c r="K26" s="510"/>
-      <c r="L26" s="510"/>
-      <c r="M26" s="510"/>
+      <c r="H26" s="417"/>
+      <c r="I26" s="417"/>
+      <c r="J26" s="417"/>
+      <c r="K26" s="417"/>
+      <c r="L26" s="417"/>
+      <c r="M26" s="417"/>
     </row>
     <row r="27" spans="1:14" s="267" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="509">
+      <c r="A27" s="416">
         <v>2</v>
       </c>
       <c r="B27" s="243" t="s">
@@ -32205,7 +32205,7 @@
       <c r="M27" s="43"/>
     </row>
     <row r="28" spans="1:14" s="267" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="509">
+      <c r="A28" s="416">
         <v>3</v>
       </c>
       <c r="B28" s="243" t="s">
@@ -32224,39 +32224,39 @@
       <c r="M28" s="43"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="506"/>
-      <c r="B29" s="507" t="s">
+      <c r="A29" s="413"/>
+      <c r="B29" s="414" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="507"/>
-      <c r="D29" s="508"/>
-      <c r="E29" s="506"/>
-      <c r="F29" s="507"/>
-      <c r="G29" s="507">
+      <c r="C29" s="414"/>
+      <c r="D29" s="415"/>
+      <c r="E29" s="413"/>
+      <c r="F29" s="414"/>
+      <c r="G29" s="414">
         <f>SUM(H29:L29)</f>
         <v>9810</v>
       </c>
-      <c r="H29" s="507">
+      <c r="H29" s="414">
         <f>+H25+H21+H7+H5+H9+H11</f>
         <v>4905</v>
       </c>
-      <c r="I29" s="507">
+      <c r="I29" s="414">
         <f>+I25+I21+I7+I5+I9+I11+I23</f>
         <v>4905</v>
       </c>
-      <c r="J29" s="507">
+      <c r="J29" s="414">
         <f>+J25+J21+J7+J5+J9+J11+J23</f>
         <v>0</v>
       </c>
-      <c r="K29" s="507">
+      <c r="K29" s="414">
         <f>+K25+K21+K7+K5+K9+K11+K23</f>
         <v>0</v>
       </c>
-      <c r="L29" s="507">
+      <c r="L29" s="414">
         <f>+L25+L21+L7+L5+L9+L11+L23</f>
         <v>0</v>
       </c>
-      <c r="M29" s="495"/>
+      <c r="M29" s="402"/>
       <c r="N29" s="116">
         <v>10771.5</v>
       </c>
@@ -32274,42 +32274,42 @@
       <c r="J30" s="376"/>
       <c r="K30" s="376"/>
       <c r="L30" s="376"/>
-      <c r="M30" s="498"/>
+      <c r="M30" s="405"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="512" t="s">
+      <c r="A31" s="471" t="s">
         <v>363</v>
       </c>
-      <c r="B31" s="512"/>
-      <c r="C31" s="512"/>
-      <c r="D31" s="512"/>
-      <c r="E31" s="512"/>
-      <c r="F31" s="512"/>
-      <c r="G31" s="512"/>
-      <c r="H31" s="512"/>
-      <c r="I31" s="512"/>
-      <c r="J31" s="512"/>
-      <c r="K31" s="512"/>
-      <c r="L31" s="512"/>
-      <c r="M31" s="493"/>
+      <c r="B31" s="471"/>
+      <c r="C31" s="471"/>
+      <c r="D31" s="471"/>
+      <c r="E31" s="471"/>
+      <c r="F31" s="471"/>
+      <c r="G31" s="471"/>
+      <c r="H31" s="471"/>
+      <c r="I31" s="471"/>
+      <c r="J31" s="471"/>
+      <c r="K31" s="471"/>
+      <c r="L31" s="471"/>
+      <c r="M31" s="400"/>
       <c r="N31" s="116">
         <v>101031.5</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="513"/>
-      <c r="B32" s="513"/>
-      <c r="C32" s="513"/>
-      <c r="D32" s="513"/>
-      <c r="E32" s="513"/>
-      <c r="F32" s="513"/>
-      <c r="G32" s="513"/>
-      <c r="H32" s="513"/>
-      <c r="I32" s="513"/>
-      <c r="J32" s="513"/>
-      <c r="K32" s="513"/>
-      <c r="L32" s="513"/>
-      <c r="M32" s="493"/>
+      <c r="A32" s="472"/>
+      <c r="B32" s="472"/>
+      <c r="C32" s="472"/>
+      <c r="D32" s="472"/>
+      <c r="E32" s="472"/>
+      <c r="F32" s="472"/>
+      <c r="G32" s="472"/>
+      <c r="H32" s="472"/>
+      <c r="I32" s="472"/>
+      <c r="J32" s="472"/>
+      <c r="K32" s="472"/>
+      <c r="L32" s="472"/>
+      <c r="M32" s="400"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="117" t="s">
@@ -32346,7 +32346,7 @@
       <c r="L33" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="M33" s="494"/>
+      <c r="M33" s="401"/>
       <c r="N33" s="116" t="e">
         <f>+N31-#REF!</f>
         <v>#REF!</v>
@@ -32357,15 +32357,15 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="446" t="s">
+      <c r="A34" s="473" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="447"/>
-      <c r="C34" s="447"/>
-      <c r="D34" s="447"/>
-      <c r="E34" s="447"/>
-      <c r="F34" s="447"/>
-      <c r="G34" s="447"/>
+      <c r="B34" s="474"/>
+      <c r="C34" s="474"/>
+      <c r="D34" s="474"/>
+      <c r="E34" s="474"/>
+      <c r="F34" s="474"/>
+      <c r="G34" s="474"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="118">
@@ -32401,7 +32401,7 @@
         <f t="shared" si="5"/>
         <v>4905</v>
       </c>
-      <c r="M35" s="495"/>
+      <c r="M35" s="402"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
@@ -32472,7 +32472,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M37" s="495"/>
+      <c r="M37" s="402"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
@@ -32529,7 +32529,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M39" s="495"/>
+      <c r="M39" s="402"/>
     </row>
     <row r="40" spans="1:15" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91" t="s">
@@ -32548,7 +32548,7 @@
       <c r="J40" s="95"/>
       <c r="K40" s="95"/>
       <c r="L40" s="95"/>
-      <c r="M40" s="496"/>
+      <c r="M40" s="403"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="118" t="s">
@@ -32582,7 +32582,7 @@
         <f>SUM(L43:L43)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="495"/>
+      <c r="M41" s="402"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="187" t="s">
@@ -32749,7 +32749,7 @@
         <f>SUM(L50:L50)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="497"/>
+      <c r="M49" s="404"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="187" t="s">
@@ -32813,7 +32813,7 @@
         <f>SUM(L52:L52)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="497"/>
+      <c r="M51" s="404"/>
     </row>
     <row r="52" spans="1:14" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="91">
@@ -32832,7 +32832,7 @@
       <c r="J52" s="95"/>
       <c r="K52" s="95"/>
       <c r="L52" s="95"/>
-      <c r="M52" s="496"/>
+      <c r="M52" s="403"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="118" t="s">
@@ -32866,7 +32866,7 @@
         <f>SUM(L54)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="497"/>
+      <c r="M53" s="404"/>
     </row>
     <row r="54" spans="1:14" s="267" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="104">
@@ -32931,20 +32931,20 @@
         <f>+L53+L49+L37+L35+L39+L41+L51</f>
         <v>4905</v>
       </c>
-      <c r="M55" s="495"/>
+      <c r="M55" s="402"/>
       <c r="N55" s="116">
         <v>10771.5</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="444" t="s">
+      <c r="A56" s="475" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="445"/>
-      <c r="C56" s="445"/>
-      <c r="D56" s="445"/>
-      <c r="E56" s="445"/>
-      <c r="F56" s="445"/>
+      <c r="B56" s="476"/>
+      <c r="C56" s="476"/>
+      <c r="D56" s="476"/>
+      <c r="E56" s="476"/>
+      <c r="F56" s="476"/>
       <c r="G56" s="193">
         <f>SUM(H56:L56)</f>
         <v>9810</v>
@@ -32969,39 +32969,39 @@
         <f>+L29</f>
         <v>0</v>
       </c>
-      <c r="M56" s="499"/>
+      <c r="M56" s="406"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="512" t="s">
+      <c r="A57" s="471" t="s">
         <v>433</v>
       </c>
-      <c r="B57" s="512"/>
-      <c r="C57" s="512"/>
-      <c r="D57" s="512"/>
-      <c r="E57" s="512"/>
-      <c r="F57" s="512"/>
-      <c r="G57" s="512"/>
-      <c r="H57" s="512"/>
-      <c r="I57" s="512"/>
-      <c r="J57" s="512"/>
-      <c r="K57" s="512"/>
-      <c r="L57" s="512"/>
-      <c r="M57" s="493"/>
+      <c r="B57" s="471"/>
+      <c r="C57" s="471"/>
+      <c r="D57" s="471"/>
+      <c r="E57" s="471"/>
+      <c r="F57" s="471"/>
+      <c r="G57" s="471"/>
+      <c r="H57" s="471"/>
+      <c r="I57" s="471"/>
+      <c r="J57" s="471"/>
+      <c r="K57" s="471"/>
+      <c r="L57" s="471"/>
+      <c r="M57" s="400"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="513"/>
-      <c r="B58" s="513"/>
-      <c r="C58" s="513"/>
-      <c r="D58" s="513"/>
-      <c r="E58" s="513"/>
-      <c r="F58" s="513"/>
-      <c r="G58" s="513"/>
-      <c r="H58" s="513"/>
-      <c r="I58" s="513"/>
-      <c r="J58" s="513"/>
-      <c r="K58" s="513"/>
-      <c r="L58" s="513"/>
-      <c r="M58" s="493"/>
+      <c r="A58" s="472"/>
+      <c r="B58" s="472"/>
+      <c r="C58" s="472"/>
+      <c r="D58" s="472"/>
+      <c r="E58" s="472"/>
+      <c r="F58" s="472"/>
+      <c r="G58" s="472"/>
+      <c r="H58" s="472"/>
+      <c r="I58" s="472"/>
+      <c r="J58" s="472"/>
+      <c r="K58" s="472"/>
+      <c r="L58" s="472"/>
+      <c r="M58" s="400"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="117" t="s">
@@ -33038,18 +33038,18 @@
       <c r="L59" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="M59" s="494"/>
+      <c r="M59" s="401"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="446" t="s">
+      <c r="A60" s="473" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="447"/>
-      <c r="C60" s="447"/>
-      <c r="D60" s="447"/>
-      <c r="E60" s="447"/>
-      <c r="F60" s="447"/>
-      <c r="G60" s="447"/>
+      <c r="B60" s="474"/>
+      <c r="C60" s="474"/>
+      <c r="D60" s="474"/>
+      <c r="E60" s="474"/>
+      <c r="F60" s="474"/>
+      <c r="G60" s="474"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="118">
@@ -33085,7 +33085,7 @@
         <f t="shared" si="10"/>
         <v>4905</v>
       </c>
-      <c r="M61" s="495"/>
+      <c r="M61" s="402"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
@@ -33156,7 +33156,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M63" s="495"/>
+      <c r="M63" s="402"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
@@ -33213,7 +33213,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M65" s="495"/>
+      <c r="M65" s="402"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="91" t="s">
@@ -33232,7 +33232,7 @@
       <c r="J66" s="95"/>
       <c r="K66" s="95"/>
       <c r="L66" s="95"/>
-      <c r="M66" s="496"/>
+      <c r="M66" s="403"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="118" t="s">
@@ -33266,10 +33266,10 @@
         <f>SUM(L69:L69)</f>
         <v>0</v>
       </c>
-      <c r="M67" s="495"/>
+      <c r="M67" s="402"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="501">
+      <c r="A68" s="408">
         <v>1</v>
       </c>
       <c r="B68" s="92" t="s">
@@ -33292,13 +33292,13 @@
       <c r="M68" s="269"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="501">
+      <c r="A69" s="408">
         <v>2</v>
       </c>
       <c r="B69" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="514" t="s">
+      <c r="C69" s="419" t="s">
         <v>435</v>
       </c>
       <c r="D69" s="40" t="s">
@@ -33315,7 +33315,7 @@
       <c r="M69" s="269"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="501">
+      <c r="A70" s="408">
         <v>3</v>
       </c>
       <c r="B70" s="92" t="s">
@@ -33338,13 +33338,13 @@
       <c r="M70" s="269"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="501">
+      <c r="A71" s="408">
         <v>4</v>
       </c>
       <c r="B71" s="92" t="s">
         <v>436</v>
       </c>
-      <c r="C71" s="514" t="s">
+      <c r="C71" s="419" t="s">
         <v>438</v>
       </c>
       <c r="D71" s="40" t="s">
@@ -33369,7 +33369,7 @@
       <c r="M71" s="269"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="501">
+      <c r="A72" s="408">
         <v>5</v>
       </c>
       <c r="B72" s="92" t="s">
@@ -33392,7 +33392,7 @@
       <c r="M72" s="269"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="501">
+      <c r="A73" s="408">
         <v>6</v>
       </c>
       <c r="B73" s="92" t="s">
@@ -33415,7 +33415,7 @@
       <c r="M73" s="269"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="501">
+      <c r="A74" s="408">
         <v>7</v>
       </c>
       <c r="B74" s="92" t="s">
@@ -33438,7 +33438,7 @@
       <c r="M74" s="269"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="501">
+      <c r="A75" s="408">
         <v>8</v>
       </c>
       <c r="B75" s="92" t="s">
@@ -33498,7 +33498,7 @@
         <f>SUM(L77:L77)</f>
         <v>0</v>
       </c>
-      <c r="M76" s="497"/>
+      <c r="M76" s="404"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="187" t="s">
@@ -33562,7 +33562,7 @@
         <f>SUM(L79:L79)</f>
         <v>0</v>
       </c>
-      <c r="M78" s="497"/>
+      <c r="M78" s="404"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="91">
@@ -33590,7 +33590,7 @@
       <c r="J79" s="95"/>
       <c r="K79" s="95"/>
       <c r="L79" s="95"/>
-      <c r="M79" s="496"/>
+      <c r="M79" s="403"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="91">
@@ -33613,10 +33613,10 @@
       <c r="J80" s="95"/>
       <c r="K80" s="95"/>
       <c r="L80" s="95"/>
-      <c r="M80" s="496"/>
+      <c r="M80" s="403"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="515">
+      <c r="A81" s="420">
         <v>7</v>
       </c>
       <c r="B81" s="119" t="s">
@@ -33647,7 +33647,7 @@
         <f>SUM(L82)</f>
         <v>0</v>
       </c>
-      <c r="M81" s="497"/>
+      <c r="M81" s="404"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="104">
@@ -33712,17 +33712,17 @@
         <f>+L81+L76+L63+L61+L65+L67+L78</f>
         <v>4905</v>
       </c>
-      <c r="M83" s="495"/>
+      <c r="M83" s="402"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="444" t="s">
+      <c r="A84" s="475" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="445"/>
-      <c r="C84" s="445"/>
-      <c r="D84" s="445"/>
-      <c r="E84" s="445"/>
-      <c r="F84" s="445"/>
+      <c r="B84" s="476"/>
+      <c r="C84" s="476"/>
+      <c r="D84" s="476"/>
+      <c r="E84" s="476"/>
+      <c r="F84" s="476"/>
       <c r="G84" s="193">
         <f>SUM(H84:L84)</f>
         <v>14715</v>
@@ -33747,7 +33747,7 @@
         <f>+L55</f>
         <v>4905</v>
       </c>
-      <c r="M84" s="499"/>
+      <c r="M84" s="406"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="122"/>
@@ -33759,14 +33759,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A31:L32"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A57:L58"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A84:F84"/>
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A31:L32"/>
-    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="1.07" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35434,20 +35434,20 @@
       <c r="IF1" s="273"/>
     </row>
     <row r="2" spans="1:240" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="450" t="s">
+      <c r="A2" s="479" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="450"/>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
-      <c r="K2" s="450"/>
-      <c r="L2" s="450"/>
+      <c r="B2" s="479"/>
+      <c r="C2" s="479"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="479"/>
+      <c r="J2" s="479"/>
+      <c r="K2" s="479"/>
+      <c r="L2" s="479"/>
       <c r="M2" s="370">
         <v>100289.05630166666</v>
       </c>
@@ -35681,18 +35681,18 @@
       <c r="IF2" s="271"/>
     </row>
     <row r="3" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A3" s="450"/>
-      <c r="B3" s="450"/>
-      <c r="C3" s="450"/>
-      <c r="D3" s="450"/>
-      <c r="E3" s="450"/>
-      <c r="F3" s="450"/>
-      <c r="G3" s="450"/>
-      <c r="H3" s="450"/>
-      <c r="I3" s="450"/>
-      <c r="J3" s="450"/>
-      <c r="K3" s="450"/>
-      <c r="L3" s="450"/>
+      <c r="A3" s="479"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
       <c r="N3" s="370" t="s">
         <v>361</v>
       </c>
@@ -35924,20 +35924,20 @@
     </row>
     <row r="4" spans="1:240" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="309"/>
-      <c r="B4" s="452" t="s">
+      <c r="B4" s="481" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="452" t="s">
+      <c r="C4" s="481" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="452" t="s">
+      <c r="D4" s="481" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="455" t="s">
+      <c r="E4" s="484" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="458"/>
-      <c r="G4" s="458"/>
+      <c r="F4" s="487"/>
+      <c r="G4" s="487"/>
       <c r="H4" s="364"/>
       <c r="I4" s="364"/>
       <c r="J4" s="364"/>
@@ -36176,10 +36176,10 @@
       <c r="A5" s="310" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="453"/>
-      <c r="C5" s="453"/>
-      <c r="D5" s="453"/>
-      <c r="E5" s="456"/>
+      <c r="B5" s="482"/>
+      <c r="C5" s="482"/>
+      <c r="D5" s="482"/>
+      <c r="E5" s="485"/>
       <c r="F5" s="311" t="s">
         <v>86</v>
       </c>
@@ -36432,10 +36432,10 @@
     </row>
     <row r="6" spans="1:240" x14ac:dyDescent="0.25">
       <c r="A6" s="312"/>
-      <c r="B6" s="454"/>
-      <c r="C6" s="454"/>
-      <c r="D6" s="454"/>
-      <c r="E6" s="457"/>
+      <c r="B6" s="483"/>
+      <c r="C6" s="483"/>
+      <c r="D6" s="483"/>
+      <c r="E6" s="486"/>
       <c r="F6" s="311" t="s">
         <v>88</v>
       </c>
@@ -36687,11 +36687,11 @@
       <c r="IF6" s="273"/>
     </row>
     <row r="7" spans="1:240" x14ac:dyDescent="0.25">
-      <c r="A7" s="459" t="s">
+      <c r="A7" s="488" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="459"/>
-      <c r="C7" s="459"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="488"/>
       <c r="D7" s="274"/>
       <c r="E7" s="275"/>
       <c r="F7" s="276"/>
@@ -38351,7 +38351,7 @@
       <c r="IF17" s="273"/>
     </row>
     <row r="18" spans="1:240" s="294" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="525">
+      <c r="A18" s="424">
         <v>1</v>
       </c>
       <c r="B18" s="290" t="s">
@@ -38385,7 +38385,7 @@
       <c r="S18" s="372"/>
     </row>
     <row r="19" spans="1:240" s="294" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="525">
+      <c r="A19" s="424">
         <v>2</v>
       </c>
       <c r="B19" s="380" t="s">
@@ -38412,13 +38412,13 @@
       <c r="S19" s="372"/>
     </row>
     <row r="20" spans="1:240" s="294" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="525">
+      <c r="A20" s="424">
         <v>3</v>
       </c>
       <c r="B20" s="380" t="s">
         <v>460</v>
       </c>
-      <c r="C20" s="526"/>
+      <c r="C20" s="425"/>
       <c r="D20" s="317"/>
       <c r="E20" s="317"/>
       <c r="F20" s="382"/>
@@ -38437,13 +38437,13 @@
       <c r="S20" s="372"/>
     </row>
     <row r="21" spans="1:240" s="294" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="525">
+      <c r="A21" s="424">
         <v>4</v>
       </c>
       <c r="B21" s="380" t="s">
         <v>457</v>
       </c>
-      <c r="C21" s="526"/>
+      <c r="C21" s="425"/>
       <c r="D21" s="317"/>
       <c r="E21" s="317"/>
       <c r="F21" s="382"/>
@@ -38462,7 +38462,7 @@
       <c r="S21" s="372"/>
     </row>
     <row r="22" spans="1:240" s="294" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="525">
+      <c r="A22" s="424">
         <v>5</v>
       </c>
       <c r="B22" s="380" t="s">
@@ -38497,13 +38497,13 @@
       <c r="S22" s="372"/>
     </row>
     <row r="23" spans="1:240" s="294" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="525">
+      <c r="A23" s="424">
         <v>6</v>
       </c>
       <c r="B23" s="380" t="s">
         <v>459</v>
       </c>
-      <c r="C23" s="526"/>
+      <c r="C23" s="425"/>
       <c r="D23" s="317" t="s">
         <v>1</v>
       </c>
@@ -38530,13 +38530,13 @@
       <c r="S23" s="372"/>
     </row>
     <row r="24" spans="1:240" s="294" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="525">
+      <c r="A24" s="424">
         <v>7</v>
       </c>
       <c r="B24" s="380" t="s">
         <v>461</v>
       </c>
-      <c r="C24" s="526"/>
+      <c r="C24" s="425"/>
       <c r="D24" s="317" t="s">
         <v>1</v>
       </c>
@@ -38568,10 +38568,10 @@
       <c r="A25" s="279">
         <v>4</v>
       </c>
-      <c r="B25" s="460" t="s">
+      <c r="B25" s="489" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="461"/>
+      <c r="C25" s="490"/>
       <c r="D25" s="281"/>
       <c r="E25" s="281"/>
       <c r="F25" s="282"/>
@@ -38909,10 +38909,10 @@
       <c r="A29" s="279">
         <v>5</v>
       </c>
-      <c r="B29" s="462" t="s">
+      <c r="B29" s="491" t="s">
         <v>247</v>
       </c>
-      <c r="C29" s="463"/>
+      <c r="C29" s="492"/>
       <c r="D29" s="281"/>
       <c r="E29" s="281"/>
       <c r="F29" s="282"/>
@@ -39323,14 +39323,14 @@
       <c r="L35" s="299"/>
     </row>
     <row r="36" spans="1:240" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="464" t="s">
+      <c r="A36" s="493" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="465"/>
-      <c r="C36" s="465"/>
-      <c r="D36" s="465"/>
-      <c r="E36" s="465"/>
-      <c r="F36" s="465"/>
+      <c r="B36" s="494"/>
+      <c r="C36" s="494"/>
+      <c r="D36" s="494"/>
+      <c r="E36" s="494"/>
+      <c r="F36" s="494"/>
       <c r="G36" s="306">
         <f>SUM(H36:L36)</f>
         <v>0</v>
@@ -39585,14 +39585,14 @@
       <c r="IF36" s="273"/>
     </row>
     <row r="37" spans="1:240" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="451" t="s">
+      <c r="A37" s="480" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="451"/>
-      <c r="C37" s="451"/>
-      <c r="D37" s="451"/>
-      <c r="E37" s="451"/>
-      <c r="F37" s="451"/>
+      <c r="B37" s="480"/>
+      <c r="C37" s="480"/>
+      <c r="D37" s="480"/>
+      <c r="E37" s="480"/>
+      <c r="F37" s="480"/>
       <c r="G37" s="326">
         <f>SUM(H37:L37)</f>
         <v>0</v>
@@ -39646,7 +39646,7 @@
   </sheetPr>
   <dimension ref="A1:II34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="C19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -39664,15 +39664,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:243" s="137" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="469" t="s">
+      <c r="A1" s="497" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="469"/>
-      <c r="C1" s="469"/>
-      <c r="D1" s="469"/>
-      <c r="E1" s="469"/>
-      <c r="F1" s="469"/>
-      <c r="G1" s="469"/>
+      <c r="B1" s="497"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="497"/>
+      <c r="F1" s="497"/>
+      <c r="G1" s="497"/>
       <c r="H1" s="359"/>
       <c r="I1" s="359"/>
       <c r="J1" s="359"/>
@@ -39911,13 +39911,13 @@
       <c r="II1" s="136"/>
     </row>
     <row r="2" spans="1:243" s="137" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="470"/>
-      <c r="B2" s="470"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="470"/>
-      <c r="E2" s="470"/>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
+      <c r="A2" s="498"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="498"/>
+      <c r="F2" s="498"/>
+      <c r="G2" s="498"/>
       <c r="H2" s="360"/>
       <c r="I2" s="360"/>
       <c r="J2" s="360"/>
@@ -40156,56 +40156,56 @@
       <c r="II2" s="136"/>
     </row>
     <row r="3" spans="1:243" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="406" t="s">
+      <c r="A3" s="439" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="408" t="s">
+      <c r="B3" s="431" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="408" t="s">
+      <c r="C3" s="431" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="408" t="s">
+      <c r="D3" s="431" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="472" t="s">
+      <c r="E3" s="501" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="408" t="s">
+      <c r="F3" s="431" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="408" t="s">
+      <c r="G3" s="431" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="408" t="s">
+      <c r="H3" s="431" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="408" t="s">
+      <c r="I3" s="431" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="408" t="s">
+      <c r="J3" s="431" t="s">
         <v>240</v>
       </c>
-      <c r="K3" s="408" t="s">
+      <c r="K3" s="431" t="s">
         <v>256</v>
       </c>
-      <c r="L3" s="408" t="s">
+      <c r="L3" s="431" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="471"/>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="466"/>
-      <c r="G4" s="466"/>
-      <c r="H4" s="466"/>
-      <c r="I4" s="466"/>
-      <c r="J4" s="466"/>
-      <c r="K4" s="466"/>
-      <c r="L4" s="466"/>
+      <c r="A4" s="499"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="502"/>
+      <c r="F4" s="500"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="500"/>
+      <c r="I4" s="500"/>
+      <c r="J4" s="500"/>
+      <c r="K4" s="500"/>
+      <c r="L4" s="500"/>
     </row>
     <row r="5" spans="1:243" s="217" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="252" t="s">
@@ -40486,8 +40486,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:243" s="502" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="517">
+    <row r="15" spans="1:243" s="409" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="422">
         <v>1</v>
       </c>
       <c r="B15" s="266" t="s">
@@ -40496,32 +40496,32 @@
       <c r="C15" s="266" t="s">
         <v>446</v>
       </c>
-      <c r="D15" s="510" t="s">
+      <c r="D15" s="417" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="511" t="s">
+      <c r="E15" s="418" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="510">
+      <c r="F15" s="417">
         <v>4000</v>
       </c>
-      <c r="G15" s="510"/>
-      <c r="H15" s="516">
+      <c r="G15" s="417"/>
+      <c r="H15" s="421">
         <v>4000</v>
       </c>
-      <c r="I15" s="516">
+      <c r="I15" s="421">
         <v>4000</v>
       </c>
-      <c r="J15" s="516">
+      <c r="J15" s="421">
         <v>4000</v>
       </c>
-      <c r="K15" s="516">
+      <c r="K15" s="421">
         <v>4000</v>
       </c>
-      <c r="L15" s="516"/>
+      <c r="L15" s="421"/>
     </row>
     <row r="16" spans="1:243" x14ac:dyDescent="0.25">
-      <c r="A16" s="518">
+      <c r="A16" s="423">
         <v>2</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -40555,7 +40555,7 @@
       <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="517">
+      <c r="A17" s="422">
         <v>3</v>
       </c>
       <c r="B17" s="39" t="s">
@@ -40583,10 +40583,10 @@
       <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="519">
+      <c r="A18" s="503">
         <v>4</v>
       </c>
-      <c r="B18" s="522" t="s">
+      <c r="B18" s="506" t="s">
         <v>443</v>
       </c>
       <c r="C18" s="39" t="s">
@@ -40607,8 +40607,8 @@
       <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="520"/>
-      <c r="B19" s="523"/>
+      <c r="A19" s="504"/>
+      <c r="B19" s="507"/>
       <c r="C19" s="39" t="s">
         <v>449</v>
       </c>
@@ -40635,8 +40635,8 @@
       <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="521"/>
-      <c r="B20" s="524"/>
+      <c r="A20" s="505"/>
+      <c r="B20" s="508"/>
       <c r="C20" s="39" t="s">
         <v>451</v>
       </c>
@@ -40655,7 +40655,7 @@
       <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="517">
+      <c r="A21" s="422">
         <v>5</v>
       </c>
       <c r="B21" s="39" t="s">
@@ -40677,7 +40677,7 @@
       <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="518">
+      <c r="A22" s="423">
         <v>6</v>
       </c>
       <c r="B22" s="39" t="s">
@@ -40699,7 +40699,7 @@
       <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="517">
+      <c r="A23" s="422">
         <v>7</v>
       </c>
       <c r="B23" s="39"/>
@@ -40715,7 +40715,7 @@
       <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="518">
+      <c r="A24" s="423">
         <v>8</v>
       </c>
       <c r="B24" s="43"/>
@@ -40764,7 +40764,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="518">
+      <c r="A26" s="423">
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
@@ -40790,7 +40790,7 @@
       <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="518">
+      <c r="A27" s="423">
         <v>2</v>
       </c>
       <c r="B27" s="43" t="s">
@@ -40817,7 +40817,7 @@
       <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="518"/>
+      <c r="A28" s="423"/>
       <c r="B28" s="43" t="s">
         <v>454</v>
       </c>
@@ -40842,7 +40842,7 @@
       <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="518">
+      <c r="A29" s="423">
         <v>3</v>
       </c>
       <c r="B29" s="116" t="s">
@@ -40871,7 +40871,7 @@
       <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="518">
+      <c r="A30" s="423">
         <v>4</v>
       </c>
       <c r="B30" s="116" t="s">
@@ -40988,14 +40988,14 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="467" t="s">
+      <c r="A34" s="495" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="468"/>
-      <c r="C34" s="468"/>
-      <c r="D34" s="468"/>
-      <c r="E34" s="468"/>
-      <c r="F34" s="468"/>
+      <c r="B34" s="496"/>
+      <c r="C34" s="496"/>
+      <c r="D34" s="496"/>
+      <c r="E34" s="496"/>
+      <c r="F34" s="496"/>
       <c r="G34" s="212">
         <f>SUM(H34:L34)</f>
         <v>10000</v>
@@ -41023,6 +41023,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:A4"/>
@@ -41034,11 +41039,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41640,21 +41640,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="150" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="474" t="s">
+      <c r="A1" s="509" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="475"/>
-      <c r="C1" s="475"/>
-      <c r="D1" s="475"/>
-      <c r="E1" s="475"/>
-      <c r="F1" s="475"/>
-      <c r="G1" s="475"/>
-      <c r="H1" s="475"/>
-      <c r="I1" s="475"/>
-      <c r="J1" s="475"/>
-      <c r="K1" s="475"/>
-      <c r="L1" s="475"/>
-      <c r="M1" s="475"/>
+      <c r="B1" s="510"/>
+      <c r="C1" s="510"/>
+      <c r="D1" s="510"/>
+      <c r="E1" s="510"/>
+      <c r="F1" s="510"/>
+      <c r="G1" s="510"/>
+      <c r="H1" s="510"/>
+      <c r="I1" s="510"/>
+      <c r="J1" s="510"/>
+      <c r="K1" s="510"/>
+      <c r="L1" s="510"/>
+      <c r="M1" s="510"/>
       <c r="N1" s="361"/>
       <c r="O1" s="361"/>
       <c r="P1" s="361"/>
@@ -41663,19 +41663,19 @@
       <c r="S1" s="361"/>
     </row>
     <row r="2" spans="1:19" s="150" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="420"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
-      <c r="M2" s="421"/>
+      <c r="A2" s="447"/>
+      <c r="B2" s="448"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="448"/>
+      <c r="J2" s="448"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="448"/>
+      <c r="M2" s="448"/>
       <c r="N2" s="355"/>
       <c r="O2" s="355"/>
       <c r="P2" s="355"/>
@@ -41701,14 +41701,14 @@
       <c r="G3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="422" t="s">
+      <c r="H3" s="456" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="423"/>
-      <c r="J3" s="423"/>
-      <c r="K3" s="423"/>
-      <c r="L3" s="423"/>
-      <c r="M3" s="423"/>
+      <c r="I3" s="457"/>
+      <c r="J3" s="457"/>
+      <c r="K3" s="457"/>
+      <c r="L3" s="457"/>
+      <c r="M3" s="457"/>
       <c r="N3" s="358"/>
       <c r="O3" s="358"/>
       <c r="P3" s="358"/>
@@ -41717,10 +41717,10 @@
       <c r="S3" s="358"/>
     </row>
     <row r="4" spans="1:19" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="477" t="s">
+      <c r="A4" s="512" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="478"/>
+      <c r="B4" s="513"/>
       <c r="C4" s="88"/>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -42192,10 +42192,10 @@
       <c r="A14" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="479" t="s">
+      <c r="B14" s="514" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="480"/>
+      <c r="C14" s="515"/>
       <c r="D14" s="82"/>
       <c r="E14" s="83"/>
       <c r="F14" s="84"/>
@@ -42280,10 +42280,10 @@
       <c r="A16" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="479" t="s">
+      <c r="B16" s="514" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="480"/>
+      <c r="C16" s="515"/>
       <c r="D16" s="82"/>
       <c r="E16" s="83"/>
       <c r="F16" s="84"/>
@@ -42365,14 +42365,14 @@
       <c r="S17" s="245"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="424" t="s">
+      <c r="A18" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="425"/>
-      <c r="C18" s="425"/>
-      <c r="D18" s="425"/>
-      <c r="E18" s="425"/>
-      <c r="F18" s="425"/>
+      <c r="B18" s="453"/>
+      <c r="C18" s="453"/>
+      <c r="D18" s="453"/>
+      <c r="E18" s="453"/>
+      <c r="F18" s="453"/>
       <c r="G18" s="96">
         <f>SUM(H18:S18)</f>
         <v>24979.67</v>
@@ -42427,14 +42427,14 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="476" t="s">
+      <c r="A19" s="511" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="476"/>
-      <c r="C19" s="476"/>
-      <c r="D19" s="476"/>
-      <c r="E19" s="476"/>
-      <c r="F19" s="476"/>
+      <c r="B19" s="511"/>
+      <c r="C19" s="511"/>
+      <c r="D19" s="511"/>
+      <c r="E19" s="511"/>
+      <c r="F19" s="511"/>
       <c r="G19" s="249">
         <f>SUM(H19:S19)</f>
         <v>24979.67</v>
@@ -42531,20 +42531,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="116" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="518" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="483"/>
-      <c r="C1" s="483"/>
-      <c r="D1" s="483"/>
-      <c r="E1" s="483"/>
-      <c r="F1" s="483"/>
-      <c r="G1" s="483"/>
-      <c r="H1" s="483"/>
-      <c r="I1" s="483"/>
-      <c r="J1" s="483"/>
-      <c r="K1" s="483"/>
-      <c r="L1" s="483"/>
+      <c r="B1" s="518"/>
+      <c r="C1" s="518"/>
+      <c r="D1" s="518"/>
+      <c r="E1" s="518"/>
+      <c r="F1" s="518"/>
+      <c r="G1" s="518"/>
+      <c r="H1" s="518"/>
+      <c r="I1" s="518"/>
+      <c r="J1" s="518"/>
+      <c r="K1" s="518"/>
+      <c r="L1" s="518"/>
       <c r="M1" s="362"/>
       <c r="N1" s="362"/>
       <c r="O1" s="362"/>
@@ -42554,18 +42554,18 @@
       <c r="S1" s="362"/>
     </row>
     <row r="2" spans="1:19" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="449"/>
-      <c r="B2" s="449"/>
-      <c r="C2" s="449"/>
-      <c r="D2" s="449"/>
-      <c r="E2" s="449"/>
-      <c r="F2" s="449"/>
-      <c r="G2" s="449"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="449"/>
-      <c r="J2" s="449"/>
-      <c r="K2" s="449"/>
-      <c r="L2" s="449"/>
+      <c r="A2" s="478"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="478"/>
+      <c r="I2" s="478"/>
+      <c r="J2" s="478"/>
+      <c r="K2" s="478"/>
+      <c r="L2" s="478"/>
       <c r="M2" s="362"/>
       <c r="N2" s="362"/>
       <c r="O2" s="362"/>
@@ -42632,22 +42632,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="481" t="s">
+      <c r="A4" s="516" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="482"/>
-      <c r="E4" s="482"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="482"/>
-      <c r="I4" s="482"/>
-      <c r="J4" s="482"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="482"/>
-      <c r="M4" s="482"/>
-      <c r="N4" s="482"/>
+      <c r="B4" s="517"/>
+      <c r="C4" s="517"/>
+      <c r="D4" s="517"/>
+      <c r="E4" s="517"/>
+      <c r="F4" s="517"/>
+      <c r="G4" s="517"/>
+      <c r="H4" s="517"/>
+      <c r="I4" s="517"/>
+      <c r="J4" s="517"/>
+      <c r="K4" s="517"/>
+      <c r="L4" s="517"/>
+      <c r="M4" s="517"/>
+      <c r="N4" s="517"/>
     </row>
     <row r="5" spans="1:19" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="118">

--- a/Programacion de la Ejecucion de Proyectos/PROYECTADO ORFEI AGOSTO DICIEMBRE.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/PROYECTADO ORFEI AGOSTO DICIEMBRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6680BAF0-23AD-4030-9B19-579D60FBA408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F9EF1-85B5-40E8-821D-876528C3D3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RES X FUN" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="_C0001">[1]SOCTA2!$A$2:$R$57</definedName>
     <definedName name="_C002">[1]SOCTA2!$A$96:$R$146</definedName>
     <definedName name="_Fill" hidden="1">'[2]JAPO-MAX'!$B$10:$B$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'F. RIEGO'!$A$5:$L$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'F. RIEGO'!$A$5:$L$29</definedName>
     <definedName name="_Key1" hidden="1">'[3]ALT-PREC'!$D$10:$D$15</definedName>
     <definedName name="_Key2" localSheetId="9" hidden="1">#REF!</definedName>
     <definedName name="_Key2" localSheetId="10" hidden="1">#REF!</definedName>
@@ -82,7 +82,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'F. AMB'!$A$1:$L$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'F. EDU'!$A$1:$M$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'F. PRODUCCION'!$A$1:$M$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'F. RIEGO'!$A$1:$L$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'F. RIEGO'!$A$1:$M$95</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'F. SALUD'!$A$1:$N$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'F. SOCIAL'!$A$1:$M$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'F. TRANSP'!$A$1:$L$34</definedName>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="478">
   <si>
     <t>N°</t>
   </si>
@@ -1652,6 +1652,48 @@
   </si>
   <si>
     <t>ESTUDIO GEOLOGICO Y GEOTECNICO</t>
+  </si>
+  <si>
+    <t>unid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIO JAVIER DURANT OCHOA</t>
+  </si>
+  <si>
+    <t>HIDROLOGIA</t>
+  </si>
+  <si>
+    <t>AMBIENTAL</t>
+  </si>
+  <si>
+    <t>DISEÑO HIDRAULICO</t>
+  </si>
+  <si>
+    <t>RIESGOS</t>
+  </si>
+  <si>
+    <t>COSTOS Y PRESUPUESTOS</t>
+  </si>
+  <si>
+    <t>FORMULACION DEL PERFIL</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>AFECTO A SU COORDINACION</t>
+  </si>
+  <si>
+    <t>ANGEL CAMPOS</t>
+  </si>
+  <si>
+    <t>ING. CESAR LA TORRE</t>
+  </si>
+  <si>
+    <t>JUAN DE DIOS</t>
+  </si>
+  <si>
+    <t>AGROLOGIA Y AGROECONOMIA</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +2019,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2135,6 +2177,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2734,7 +2806,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="527">
+  <cellXfs count="546">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3936,63 +4008,75 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4002,24 +4086,12 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4059,6 +4131,12 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="46" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4077,12 +4155,6 @@
     <xf numFmtId="49" fontId="16" fillId="19" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4131,6 +4203,9 @@
     <xf numFmtId="165" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="20" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4146,9 +4221,6 @@
     <xf numFmtId="164" fontId="16" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4226,6 +4298,51 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="27" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="20" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15240,23 +15357,23 @@
         <v>123</v>
       </c>
       <c r="B7" s="32">
-        <f>+'F. RIEGO'!H68</f>
+        <f>+'F. RIEGO'!H95</f>
         <v>4905</v>
       </c>
       <c r="C7" s="32">
-        <f>+'F. RIEGO'!I68</f>
+        <f>+'F. RIEGO'!I95</f>
         <v>4905</v>
       </c>
       <c r="D7" s="32">
-        <f>+'F. RIEGO'!J68</f>
+        <f>+'F. RIEGO'!J95</f>
         <v>4905</v>
       </c>
       <c r="E7" s="32">
-        <f>+'F. RIEGO'!K68</f>
+        <f>+'F. RIEGO'!K95</f>
         <v>4905</v>
       </c>
       <c r="F7" s="32">
-        <f>+'F. RIEGO'!L68</f>
+        <f>+'F. RIEGO'!L95</f>
         <v>4905</v>
       </c>
       <c r="G7" s="32">
@@ -18248,11 +18365,11 @@
       <c r="S44" s="95"/>
     </row>
     <row r="45" spans="1:19" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="449" t="s">
+      <c r="A45" s="453" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="450"/>
-      <c r="C45" s="451"/>
+      <c r="B45" s="454"/>
+      <c r="C45" s="455"/>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
       <c r="F45" s="61"/>
@@ -18382,11 +18499,11 @@
       <c r="S47" s="95"/>
     </row>
     <row r="48" spans="1:19" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="449" t="s">
+      <c r="A48" s="453" t="s">
         <v>289</v>
       </c>
-      <c r="B48" s="450"/>
-      <c r="C48" s="451"/>
+      <c r="B48" s="454"/>
+      <c r="C48" s="455"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
       <c r="F48" s="61"/>
@@ -18539,14 +18656,14 @@
       <c r="S51" s="21"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="452" t="s">
+      <c r="A52" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="453"/>
-      <c r="C52" s="453"/>
-      <c r="D52" s="453"/>
-      <c r="E52" s="453"/>
-      <c r="F52" s="453"/>
+      <c r="B52" s="452"/>
+      <c r="C52" s="452"/>
+      <c r="D52" s="452"/>
+      <c r="E52" s="452"/>
+      <c r="F52" s="452"/>
       <c r="G52" s="96">
         <f>SUM(H52:S52)</f>
         <v>188377.58999999997</v>
@@ -19446,14 +19563,14 @@
       <c r="S7" s="95"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="452" t="s">
+      <c r="A8" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="453"/>
-      <c r="C8" s="453"/>
-      <c r="D8" s="453"/>
-      <c r="E8" s="453"/>
-      <c r="F8" s="453"/>
+      <c r="B8" s="452"/>
+      <c r="C8" s="452"/>
+      <c r="D8" s="452"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="452"/>
       <c r="G8" s="96">
         <f>SUM(H8:S8)</f>
         <v>0</v>
@@ -19551,21 +19668,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:252" s="137" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="445" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
-      <c r="H1" s="430"/>
-      <c r="I1" s="430"/>
-      <c r="J1" s="430"/>
-      <c r="K1" s="430"/>
-      <c r="L1" s="430"/>
-      <c r="M1" s="430"/>
+      <c r="B1" s="445"/>
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="445"/>
+      <c r="F1" s="445"/>
+      <c r="G1" s="445"/>
+      <c r="H1" s="445"/>
+      <c r="I1" s="445"/>
+      <c r="J1" s="445"/>
+      <c r="K1" s="445"/>
+      <c r="L1" s="445"/>
+      <c r="M1" s="445"/>
       <c r="N1" s="356"/>
       <c r="O1" s="356"/>
       <c r="P1" s="356"/>
@@ -19807,19 +19924,19 @@
       <c r="IR1" s="136"/>
     </row>
     <row r="2" spans="1:252" s="137" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="430"/>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
-      <c r="K2" s="430"/>
-      <c r="L2" s="430"/>
-      <c r="M2" s="430"/>
+      <c r="A2" s="445"/>
+      <c r="B2" s="445"/>
+      <c r="C2" s="445"/>
+      <c r="D2" s="445"/>
+      <c r="E2" s="445"/>
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
+      <c r="L2" s="445"/>
+      <c r="M2" s="445"/>
       <c r="N2" s="356"/>
       <c r="O2" s="356"/>
       <c r="P2" s="356"/>
@@ -20061,84 +20178,84 @@
       <c r="IR2" s="136"/>
     </row>
     <row r="3" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="433" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="431" t="s">
+      <c r="B3" s="435" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="431" t="s">
+      <c r="C3" s="435" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="431" t="s">
+      <c r="D3" s="435" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="433" t="s">
+      <c r="E3" s="437" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="431" t="s">
+      <c r="F3" s="435" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="431" t="s">
+      <c r="G3" s="435" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="435" t="s">
+      <c r="H3" s="442" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="435" t="s">
+      <c r="I3" s="442" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="431" t="s">
+      <c r="J3" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="431" t="s">
+      <c r="K3" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="431" t="s">
+      <c r="L3" s="435" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="431" t="s">
+      <c r="M3" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="N3" s="431" t="s">
+      <c r="N3" s="435" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="431" t="s">
+      <c r="O3" s="435" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="431" t="s">
+      <c r="P3" s="435" t="s">
         <v>230</v>
       </c>
-      <c r="Q3" s="431" t="s">
+      <c r="Q3" s="435" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="431" t="s">
+      <c r="R3" s="435" t="s">
         <v>254</v>
       </c>
-      <c r="S3" s="431" t="s">
+      <c r="S3" s="435" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="440"/>
-      <c r="B4" s="432"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="434"/>
-      <c r="F4" s="432"/>
-      <c r="G4" s="432"/>
-      <c r="H4" s="436"/>
-      <c r="I4" s="436"/>
-      <c r="J4" s="432"/>
-      <c r="K4" s="432"/>
-      <c r="L4" s="432"/>
-      <c r="M4" s="432"/>
-      <c r="N4" s="432"/>
-      <c r="O4" s="432"/>
-      <c r="P4" s="432"/>
-      <c r="Q4" s="432"/>
-      <c r="R4" s="432"/>
-      <c r="S4" s="432"/>
+      <c r="A4" s="434"/>
+      <c r="B4" s="436"/>
+      <c r="C4" s="436"/>
+      <c r="D4" s="436"/>
+      <c r="E4" s="438"/>
+      <c r="F4" s="436"/>
+      <c r="G4" s="436"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
+      <c r="J4" s="436"/>
+      <c r="K4" s="436"/>
+      <c r="L4" s="436"/>
+      <c r="M4" s="436"/>
+      <c r="N4" s="436"/>
+      <c r="O4" s="436"/>
+      <c r="P4" s="436"/>
+      <c r="Q4" s="436"/>
+      <c r="R4" s="436"/>
+      <c r="S4" s="436"/>
     </row>
     <row r="5" spans="1:252" s="131" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="236" t="s">
@@ -20772,11 +20889,11 @@
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="1:252" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="441" t="s">
+      <c r="A20" s="430" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="442"/>
-      <c r="C20" s="443"/>
+      <c r="B20" s="431"/>
+      <c r="C20" s="432"/>
       <c r="D20" s="196"/>
       <c r="E20" s="196"/>
       <c r="F20" s="196"/>
@@ -20834,21 +20951,21 @@
       </c>
     </row>
     <row r="21" spans="1:252" s="137" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="430" t="s">
+      <c r="A21" s="445" t="s">
         <v>300</v>
       </c>
-      <c r="B21" s="430"/>
-      <c r="C21" s="430"/>
-      <c r="D21" s="430"/>
-      <c r="E21" s="430"/>
-      <c r="F21" s="430"/>
-      <c r="G21" s="430"/>
-      <c r="H21" s="430"/>
-      <c r="I21" s="430"/>
-      <c r="J21" s="430"/>
-      <c r="K21" s="430"/>
-      <c r="L21" s="430"/>
-      <c r="M21" s="430"/>
+      <c r="B21" s="445"/>
+      <c r="C21" s="445"/>
+      <c r="D21" s="445"/>
+      <c r="E21" s="445"/>
+      <c r="F21" s="445"/>
+      <c r="G21" s="445"/>
+      <c r="H21" s="445"/>
+      <c r="I21" s="445"/>
+      <c r="J21" s="445"/>
+      <c r="K21" s="445"/>
+      <c r="L21" s="445"/>
+      <c r="M21" s="445"/>
       <c r="N21" s="356"/>
       <c r="O21" s="356"/>
       <c r="P21" s="356"/>
@@ -21090,19 +21207,19 @@
       <c r="IR21" s="136"/>
     </row>
     <row r="22" spans="1:252" s="137" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="430"/>
-      <c r="B22" s="430"/>
-      <c r="C22" s="430"/>
-      <c r="D22" s="430"/>
-      <c r="E22" s="430"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="430"/>
-      <c r="H22" s="430"/>
-      <c r="I22" s="430"/>
-      <c r="J22" s="430"/>
-      <c r="K22" s="430"/>
-      <c r="L22" s="430"/>
-      <c r="M22" s="430"/>
+      <c r="A22" s="445"/>
+      <c r="B22" s="445"/>
+      <c r="C22" s="445"/>
+      <c r="D22" s="445"/>
+      <c r="E22" s="445"/>
+      <c r="F22" s="445"/>
+      <c r="G22" s="445"/>
+      <c r="H22" s="445"/>
+      <c r="I22" s="445"/>
+      <c r="J22" s="445"/>
+      <c r="K22" s="445"/>
+      <c r="L22" s="445"/>
+      <c r="M22" s="445"/>
       <c r="N22" s="356"/>
       <c r="O22" s="356"/>
       <c r="P22" s="356"/>
@@ -21344,84 +21461,84 @@
       <c r="IR22" s="136"/>
     </row>
     <row r="23" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="439" t="s">
+      <c r="A23" s="433" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="431" t="s">
+      <c r="B23" s="435" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="431" t="s">
+      <c r="C23" s="435" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="431" t="s">
+      <c r="D23" s="435" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="433" t="s">
+      <c r="E23" s="437" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="431" t="s">
+      <c r="F23" s="435" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="431" t="s">
+      <c r="G23" s="435" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="435" t="s">
+      <c r="H23" s="442" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="435" t="s">
+      <c r="I23" s="442" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="431" t="s">
+      <c r="J23" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="431" t="s">
+      <c r="K23" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="431" t="s">
+      <c r="L23" s="435" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="431" t="s">
+      <c r="M23" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="N23" s="431" t="s">
+      <c r="N23" s="435" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="431" t="s">
+      <c r="O23" s="435" t="s">
         <v>94</v>
       </c>
-      <c r="P23" s="431" t="s">
+      <c r="P23" s="435" t="s">
         <v>230</v>
       </c>
-      <c r="Q23" s="431" t="s">
+      <c r="Q23" s="435" t="s">
         <v>103</v>
       </c>
-      <c r="R23" s="431" t="s">
+      <c r="R23" s="435" t="s">
         <v>254</v>
       </c>
-      <c r="S23" s="431" t="s">
+      <c r="S23" s="435" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="440"/>
-      <c r="B24" s="432"/>
-      <c r="C24" s="432"/>
-      <c r="D24" s="432"/>
-      <c r="E24" s="434"/>
-      <c r="F24" s="432"/>
-      <c r="G24" s="432"/>
-      <c r="H24" s="436"/>
-      <c r="I24" s="436"/>
-      <c r="J24" s="432"/>
-      <c r="K24" s="432"/>
-      <c r="L24" s="432"/>
-      <c r="M24" s="432"/>
-      <c r="N24" s="432"/>
-      <c r="O24" s="432"/>
-      <c r="P24" s="432"/>
-      <c r="Q24" s="432"/>
-      <c r="R24" s="432"/>
-      <c r="S24" s="432"/>
+      <c r="A24" s="434"/>
+      <c r="B24" s="436"/>
+      <c r="C24" s="436"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="438"/>
+      <c r="F24" s="436"/>
+      <c r="G24" s="436"/>
+      <c r="H24" s="443"/>
+      <c r="I24" s="443"/>
+      <c r="J24" s="436"/>
+      <c r="K24" s="436"/>
+      <c r="L24" s="436"/>
+      <c r="M24" s="436"/>
+      <c r="N24" s="436"/>
+      <c r="O24" s="436"/>
+      <c r="P24" s="436"/>
+      <c r="Q24" s="436"/>
+      <c r="R24" s="436"/>
+      <c r="S24" s="436"/>
     </row>
     <row r="25" spans="1:252" s="131" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="236" t="s">
@@ -22016,11 +22133,11 @@
       <c r="I38" s="40"/>
     </row>
     <row r="39" spans="1:252" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="444" t="s">
+      <c r="A39" s="439" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="445"/>
-      <c r="C39" s="446"/>
+      <c r="B39" s="440"/>
+      <c r="C39" s="441"/>
       <c r="D39" s="232"/>
       <c r="E39" s="232"/>
       <c r="F39" s="232"/>
@@ -22078,21 +22195,21 @@
       </c>
     </row>
     <row r="40" spans="1:252" s="137" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="437" t="s">
+      <c r="A40" s="446" t="s">
         <v>301</v>
       </c>
-      <c r="B40" s="437"/>
-      <c r="C40" s="437"/>
-      <c r="D40" s="437"/>
-      <c r="E40" s="437"/>
-      <c r="F40" s="437"/>
-      <c r="G40" s="437"/>
-      <c r="H40" s="437"/>
-      <c r="I40" s="437"/>
-      <c r="J40" s="437"/>
-      <c r="K40" s="437"/>
-      <c r="L40" s="437"/>
-      <c r="M40" s="437"/>
+      <c r="B40" s="446"/>
+      <c r="C40" s="446"/>
+      <c r="D40" s="446"/>
+      <c r="E40" s="446"/>
+      <c r="F40" s="446"/>
+      <c r="G40" s="446"/>
+      <c r="H40" s="446"/>
+      <c r="I40" s="446"/>
+      <c r="J40" s="446"/>
+      <c r="K40" s="446"/>
+      <c r="L40" s="446"/>
+      <c r="M40" s="446"/>
       <c r="N40" s="357"/>
       <c r="O40" s="357"/>
       <c r="P40" s="357"/>
@@ -22334,19 +22451,19 @@
       <c r="IR40" s="136"/>
     </row>
     <row r="41" spans="1:252" s="137" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="437"/>
-      <c r="B41" s="437"/>
-      <c r="C41" s="437"/>
-      <c r="D41" s="437"/>
-      <c r="E41" s="437"/>
-      <c r="F41" s="437"/>
-      <c r="G41" s="437"/>
-      <c r="H41" s="437"/>
-      <c r="I41" s="437"/>
-      <c r="J41" s="437"/>
-      <c r="K41" s="437"/>
-      <c r="L41" s="437"/>
-      <c r="M41" s="437"/>
+      <c r="A41" s="446"/>
+      <c r="B41" s="446"/>
+      <c r="C41" s="446"/>
+      <c r="D41" s="446"/>
+      <c r="E41" s="446"/>
+      <c r="F41" s="446"/>
+      <c r="G41" s="446"/>
+      <c r="H41" s="446"/>
+      <c r="I41" s="446"/>
+      <c r="J41" s="446"/>
+      <c r="K41" s="446"/>
+      <c r="L41" s="446"/>
+      <c r="M41" s="446"/>
       <c r="N41" s="357"/>
       <c r="O41" s="357"/>
       <c r="P41" s="357"/>
@@ -22588,84 +22705,84 @@
       <c r="IR41" s="136"/>
     </row>
     <row r="42" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="439" t="s">
+      <c r="A42" s="433" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="431" t="s">
+      <c r="B42" s="435" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="431" t="s">
+      <c r="C42" s="435" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="431" t="s">
+      <c r="D42" s="435" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="433" t="s">
+      <c r="E42" s="437" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="431" t="s">
+      <c r="F42" s="435" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="431" t="s">
+      <c r="G42" s="435" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="435" t="s">
+      <c r="H42" s="442" t="s">
         <v>110</v>
       </c>
-      <c r="I42" s="435" t="s">
+      <c r="I42" s="442" t="s">
         <v>99</v>
       </c>
-      <c r="J42" s="431" t="s">
+      <c r="J42" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="431" t="s">
+      <c r="K42" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="431" t="s">
+      <c r="L42" s="435" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="431" t="s">
+      <c r="M42" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="431" t="s">
+      <c r="N42" s="435" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="431" t="s">
+      <c r="O42" s="435" t="s">
         <v>94</v>
       </c>
-      <c r="P42" s="431" t="s">
+      <c r="P42" s="435" t="s">
         <v>230</v>
       </c>
-      <c r="Q42" s="431" t="s">
+      <c r="Q42" s="435" t="s">
         <v>103</v>
       </c>
-      <c r="R42" s="431" t="s">
+      <c r="R42" s="435" t="s">
         <v>254</v>
       </c>
-      <c r="S42" s="431" t="s">
+      <c r="S42" s="435" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="440"/>
-      <c r="B43" s="432"/>
-      <c r="C43" s="432"/>
-      <c r="D43" s="432"/>
-      <c r="E43" s="434"/>
-      <c r="F43" s="432"/>
-      <c r="G43" s="432"/>
-      <c r="H43" s="436"/>
-      <c r="I43" s="436"/>
-      <c r="J43" s="432"/>
-      <c r="K43" s="432"/>
-      <c r="L43" s="432"/>
-      <c r="M43" s="432"/>
-      <c r="N43" s="432"/>
-      <c r="O43" s="432"/>
-      <c r="P43" s="432"/>
-      <c r="Q43" s="432"/>
-      <c r="R43" s="432"/>
-      <c r="S43" s="432"/>
+      <c r="A43" s="434"/>
+      <c r="B43" s="436"/>
+      <c r="C43" s="436"/>
+      <c r="D43" s="436"/>
+      <c r="E43" s="438"/>
+      <c r="F43" s="436"/>
+      <c r="G43" s="436"/>
+      <c r="H43" s="443"/>
+      <c r="I43" s="443"/>
+      <c r="J43" s="436"/>
+      <c r="K43" s="436"/>
+      <c r="L43" s="436"/>
+      <c r="M43" s="436"/>
+      <c r="N43" s="436"/>
+      <c r="O43" s="436"/>
+      <c r="P43" s="436"/>
+      <c r="Q43" s="436"/>
+      <c r="R43" s="436"/>
+      <c r="S43" s="436"/>
     </row>
     <row r="44" spans="1:252" s="131" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="236" t="s">
@@ -23509,11 +23626,11 @@
       <c r="S62" s="43"/>
     </row>
     <row r="63" spans="1:252" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="441" t="s">
+      <c r="A63" s="430" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="442"/>
-      <c r="C63" s="443"/>
+      <c r="B63" s="431"/>
+      <c r="C63" s="432"/>
       <c r="D63" s="196"/>
       <c r="E63" s="196"/>
       <c r="F63" s="196"/>
@@ -23571,21 +23688,21 @@
       </c>
     </row>
     <row r="64" spans="1:252" s="137" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="437" t="s">
+      <c r="A64" s="446" t="s">
         <v>302</v>
       </c>
-      <c r="B64" s="437"/>
-      <c r="C64" s="437"/>
-      <c r="D64" s="437"/>
-      <c r="E64" s="437"/>
-      <c r="F64" s="437"/>
-      <c r="G64" s="437"/>
-      <c r="H64" s="437"/>
-      <c r="I64" s="437"/>
-      <c r="J64" s="437"/>
-      <c r="K64" s="437"/>
-      <c r="L64" s="437"/>
-      <c r="M64" s="437"/>
+      <c r="B64" s="446"/>
+      <c r="C64" s="446"/>
+      <c r="D64" s="446"/>
+      <c r="E64" s="446"/>
+      <c r="F64" s="446"/>
+      <c r="G64" s="446"/>
+      <c r="H64" s="446"/>
+      <c r="I64" s="446"/>
+      <c r="J64" s="446"/>
+      <c r="K64" s="446"/>
+      <c r="L64" s="446"/>
+      <c r="M64" s="446"/>
       <c r="N64" s="357"/>
       <c r="O64" s="357"/>
       <c r="P64" s="357"/>
@@ -23827,19 +23944,19 @@
       <c r="IR64" s="136"/>
     </row>
     <row r="65" spans="1:252" s="137" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="437"/>
-      <c r="B65" s="437"/>
-      <c r="C65" s="437"/>
-      <c r="D65" s="437"/>
-      <c r="E65" s="437"/>
-      <c r="F65" s="437"/>
-      <c r="G65" s="437"/>
-      <c r="H65" s="437"/>
-      <c r="I65" s="437"/>
-      <c r="J65" s="437"/>
-      <c r="K65" s="437"/>
-      <c r="L65" s="437"/>
-      <c r="M65" s="437"/>
+      <c r="A65" s="446"/>
+      <c r="B65" s="446"/>
+      <c r="C65" s="446"/>
+      <c r="D65" s="446"/>
+      <c r="E65" s="446"/>
+      <c r="F65" s="446"/>
+      <c r="G65" s="446"/>
+      <c r="H65" s="446"/>
+      <c r="I65" s="446"/>
+      <c r="J65" s="446"/>
+      <c r="K65" s="446"/>
+      <c r="L65" s="446"/>
+      <c r="M65" s="446"/>
       <c r="N65" s="357"/>
       <c r="O65" s="357"/>
       <c r="P65" s="357"/>
@@ -24081,84 +24198,84 @@
       <c r="IR65" s="136"/>
     </row>
     <row r="66" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="439" t="s">
+      <c r="A66" s="433" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="431" t="s">
+      <c r="B66" s="435" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="431" t="s">
+      <c r="C66" s="435" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="431" t="s">
+      <c r="D66" s="435" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="433" t="s">
+      <c r="E66" s="437" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="431" t="s">
+      <c r="F66" s="435" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="431" t="s">
+      <c r="G66" s="435" t="s">
         <v>92</v>
       </c>
-      <c r="H66" s="435" t="s">
+      <c r="H66" s="442" t="s">
         <v>110</v>
       </c>
-      <c r="I66" s="435" t="s">
+      <c r="I66" s="442" t="s">
         <v>99</v>
       </c>
-      <c r="J66" s="431" t="s">
+      <c r="J66" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="431" t="s">
+      <c r="K66" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="431" t="s">
+      <c r="L66" s="435" t="s">
         <v>9</v>
       </c>
-      <c r="M66" s="431" t="s">
+      <c r="M66" s="435" t="s">
         <v>160</v>
       </c>
-      <c r="N66" s="431" t="s">
+      <c r="N66" s="435" t="s">
         <v>10</v>
       </c>
-      <c r="O66" s="431" t="s">
+      <c r="O66" s="435" t="s">
         <v>94</v>
       </c>
-      <c r="P66" s="431" t="s">
+      <c r="P66" s="435" t="s">
         <v>230</v>
       </c>
-      <c r="Q66" s="431" t="s">
+      <c r="Q66" s="435" t="s">
         <v>103</v>
       </c>
-      <c r="R66" s="431" t="s">
+      <c r="R66" s="435" t="s">
         <v>254</v>
       </c>
-      <c r="S66" s="431" t="s">
+      <c r="S66" s="435" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="440"/>
-      <c r="B67" s="432"/>
-      <c r="C67" s="432"/>
-      <c r="D67" s="432"/>
-      <c r="E67" s="434"/>
-      <c r="F67" s="432"/>
-      <c r="G67" s="432"/>
-      <c r="H67" s="436"/>
-      <c r="I67" s="436"/>
-      <c r="J67" s="432"/>
-      <c r="K67" s="432"/>
-      <c r="L67" s="432"/>
-      <c r="M67" s="432"/>
-      <c r="N67" s="432"/>
-      <c r="O67" s="432"/>
-      <c r="P67" s="432"/>
-      <c r="Q67" s="432"/>
-      <c r="R67" s="432"/>
-      <c r="S67" s="432"/>
+      <c r="A67" s="434"/>
+      <c r="B67" s="436"/>
+      <c r="C67" s="436"/>
+      <c r="D67" s="436"/>
+      <c r="E67" s="438"/>
+      <c r="F67" s="436"/>
+      <c r="G67" s="436"/>
+      <c r="H67" s="443"/>
+      <c r="I67" s="443"/>
+      <c r="J67" s="436"/>
+      <c r="K67" s="436"/>
+      <c r="L67" s="436"/>
+      <c r="M67" s="436"/>
+      <c r="N67" s="436"/>
+      <c r="O67" s="436"/>
+      <c r="P67" s="436"/>
+      <c r="Q67" s="436"/>
+      <c r="R67" s="436"/>
+      <c r="S67" s="436"/>
     </row>
     <row r="68" spans="1:252" s="131" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="236" t="s">
@@ -24774,11 +24891,11 @@
       <c r="S82" s="43"/>
     </row>
     <row r="83" spans="1:19" s="147" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="441" t="s">
+      <c r="A83" s="430" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="442"/>
-      <c r="C83" s="443"/>
+      <c r="B83" s="431"/>
+      <c r="C83" s="432"/>
       <c r="D83" s="196"/>
       <c r="E83" s="196"/>
       <c r="F83" s="196"/>
@@ -24836,14 +24953,14 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="438" t="s">
+      <c r="A84" s="444" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="438"/>
-      <c r="C84" s="438"/>
-      <c r="D84" s="438"/>
-      <c r="E84" s="438"/>
-      <c r="F84" s="438"/>
+      <c r="B84" s="444"/>
+      <c r="C84" s="444"/>
+      <c r="D84" s="444"/>
+      <c r="E84" s="444"/>
+      <c r="F84" s="444"/>
       <c r="G84" s="195">
         <f>SUM(H84:S84)</f>
         <v>72946.222222222001</v>
@@ -24904,42 +25021,39 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="A40:M41"/>
+    <mergeCell ref="A64:M65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="L23:L24"/>
@@ -24956,39 +25070,42 @@
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="A40:M41"/>
-    <mergeCell ref="A64:M65"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="1.01" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
@@ -25004,10 +25121,10 @@
   <sheetPr codeName="Hoja13">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C34" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25591,7 +25708,7 @@
     <col min="16137" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="447" t="s">
         <v>102</v>
       </c>
@@ -25607,7 +25724,7 @@
       <c r="K1" s="448"/>
       <c r="L1" s="448"/>
     </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="447"/>
       <c r="B2" s="448"/>
       <c r="C2" s="448"/>
@@ -25620,8 +25737,11 @@
       <c r="J2" s="448"/>
       <c r="K2" s="448"/>
       <c r="L2" s="448"/>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="M2" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
       <c r="B3" s="54" t="s">
         <v>71</v>
@@ -25641,19 +25761,19 @@
       <c r="G3" s="330" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="456" t="s">
+      <c r="H3" s="449" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="457"/>
-      <c r="J3" s="457"/>
-      <c r="K3" s="457"/>
-      <c r="L3" s="457"/>
-    </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="449" t="s">
+      <c r="I3" s="450"/>
+      <c r="J3" s="450"/>
+      <c r="K3" s="450"/>
+      <c r="L3" s="450"/>
+    </row>
+    <row r="4" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="453" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="451"/>
+      <c r="B4" s="455"/>
       <c r="C4" s="59"/>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -25675,7 +25795,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>5</v>
       </c>
@@ -25710,7 +25830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="71">
         <v>1</v>
       </c>
@@ -25718,7 +25838,7 @@
         <v>115</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>341</v>
+        <v>465</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>79</v>
@@ -25741,7 +25861,7 @@
       <c r="K6" s="335"/>
       <c r="L6" s="335"/>
     </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="71"/>
       <c r="B7" s="72"/>
       <c r="C7" s="73"/>
@@ -25755,7 +25875,7 @@
       <c r="K7" s="197"/>
       <c r="L7" s="197"/>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>80</v>
       </c>
@@ -25788,7 +25908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>1</v>
       </c>
@@ -25796,17 +25916,26 @@
         <v>126</v>
       </c>
       <c r="C9" s="48"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="D9" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" s="32">
+        <v>10</v>
+      </c>
+      <c r="F9" s="49">
+        <v>140</v>
+      </c>
+      <c r="G9" s="49">
+        <f>E9*F9</f>
+        <v>1400</v>
+      </c>
       <c r="H9" s="337"/>
       <c r="I9" s="337"/>
       <c r="J9" s="337"/>
       <c r="K9" s="337"/>
       <c r="L9" s="337"/>
     </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
         <v>186</v>
       </c>
@@ -25839,7 +25968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="216">
         <v>1</v>
       </c>
@@ -25857,18 +25986,18 @@
       <c r="K11" s="337"/>
       <c r="L11" s="337"/>
     </row>
-    <row r="12" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="449" t="s">
+    <row r="12" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="453" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="450"/>
+      <c r="B12" s="454"/>
       <c r="C12" s="88"/>
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
       <c r="F12" s="61"/>
       <c r="G12" s="341"/>
       <c r="H12" s="342">
-        <f t="shared" ref="H12:L12" si="3">SUM(H13:H13)</f>
+        <f t="shared" ref="H12:L12" si="3">SUM(H18:H18)</f>
         <v>0</v>
       </c>
       <c r="I12" s="342">
@@ -25888,101 +26017,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>1</v>
       </c>
-      <c r="B13" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="343"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="188"/>
-    </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="449" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="450"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="341"/>
-      <c r="H14" s="342">
-        <f>SUM(H18:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="342">
-        <f>SUM(I18:I18)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="342">
-        <f>SUM(J18:J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="342">
-        <f>SUM(K18:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="342">
-        <f>SUM(L18:L18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
+      <c r="B13" s="527" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="528"/>
+      <c r="E13" s="528"/>
+      <c r="F13" s="529">
+        <v>4000</v>
+      </c>
+      <c r="G13" s="530"/>
+      <c r="H13" s="531"/>
+      <c r="I13" s="531"/>
+      <c r="J13" s="531">
+        <v>4000</v>
+      </c>
+      <c r="K13" s="531"/>
+      <c r="L13" s="531"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="91">
+        <v>2</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="94">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="343"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188">
+        <v>4000</v>
+      </c>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="91">
+        <v>3</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="93">
+        <v>1</v>
+      </c>
+      <c r="F15" s="94">
+        <v>4000</v>
+      </c>
       <c r="G15" s="343"/>
       <c r="H15" s="188"/>
       <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
+      <c r="J15" s="188">
+        <v>4000</v>
+      </c>
       <c r="K15" s="188"/>
       <c r="L15" s="188"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="343"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="343"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+    <row r="16" spans="1:13" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="91">
+        <v>4</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="93">
+        <v>1</v>
+      </c>
+      <c r="F16" s="536">
+        <v>3000</v>
+      </c>
+      <c r="G16" s="530"/>
+      <c r="H16" s="531"/>
+      <c r="I16" s="531"/>
+      <c r="J16" s="531">
+        <v>3000</v>
+      </c>
+      <c r="K16" s="531"/>
+      <c r="L16" s="531"/>
+    </row>
+    <row r="17" spans="1:13" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91">
+        <v>5</v>
+      </c>
+      <c r="B17" s="535" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="535" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="528" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="528">
+        <v>2</v>
+      </c>
+      <c r="F17" s="529"/>
+      <c r="G17" s="530"/>
+      <c r="H17" s="531"/>
+      <c r="I17" s="531"/>
+      <c r="J17" s="531"/>
+      <c r="K17" s="531"/>
+      <c r="L17" s="531"/>
+      <c r="M17" s="229" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91">
+        <v>6</v>
+      </c>
       <c r="B18" s="92" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C18" s="92"/>
       <c r="D18" s="75"/>
@@ -25995,1434 +26164,2099 @@
       <c r="K18" s="188"/>
       <c r="L18" s="188"/>
     </row>
-    <row r="19" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="449" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="450"/>
-      <c r="C19" s="59"/>
+    <row r="19" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="453" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="454"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="61"/>
       <c r="G19" s="341"/>
       <c r="H19" s="342">
-        <f t="shared" ref="H19:L19" si="4">SUM(H20:H20)</f>
+        <f>SUM(H22:H22)</f>
         <v>0</v>
       </c>
       <c r="I19" s="342">
-        <f t="shared" si="4"/>
+        <f>SUM(I22:I22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="342">
-        <f t="shared" si="4"/>
+        <f>SUM(J22:J22)</f>
         <v>0</v>
       </c>
       <c r="K19" s="342">
-        <f t="shared" si="4"/>
+        <f>SUM(K22:K22)</f>
         <v>0</v>
       </c>
       <c r="L19" s="342">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
+        <f>SUM(L22:L22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91">
+        <v>1</v>
+      </c>
       <c r="B20" s="92" t="s">
-        <v>212</v>
+        <v>466</v>
       </c>
       <c r="C20" s="92"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
+      <c r="D20" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="93">
+        <v>1</v>
+      </c>
+      <c r="F20" s="532"/>
       <c r="G20" s="343"/>
-      <c r="H20" s="188"/>
+      <c r="H20" s="533"/>
       <c r="I20" s="188"/>
       <c r="J20" s="188"/>
       <c r="K20" s="188"/>
       <c r="L20" s="188"/>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="449" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="450"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="341"/>
-      <c r="H21" s="342">
-        <f t="shared" ref="H21:L21" si="5">SUM(H22:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91"/>
+      <c r="B21" s="92" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="93">
+        <v>1</v>
+      </c>
+      <c r="F21" s="94"/>
+      <c r="G21" s="343"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="533"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="188"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="91"/>
       <c r="B22" s="92" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C22" s="92"/>
-      <c r="D22" s="75"/>
+      <c r="D22" s="75" t="s">
+        <v>1</v>
+      </c>
       <c r="E22" s="93"/>
       <c r="F22" s="94"/>
-      <c r="G22" s="49"/>
+      <c r="G22" s="343"/>
       <c r="H22" s="188"/>
       <c r="I22" s="188"/>
       <c r="J22" s="188"/>
       <c r="K22" s="188"/>
       <c r="L22" s="188"/>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="454" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="455"/>
-      <c r="C23" s="88"/>
+    <row r="23" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="454"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
       <c r="F23" s="61"/>
       <c r="G23" s="341"/>
       <c r="H23" s="342">
-        <f t="shared" ref="H23:L23" si="6">SUM(H24:H24)</f>
+        <f t="shared" ref="H23:L23" si="4">SUM(H24:H24)</f>
         <v>0</v>
       </c>
       <c r="I23" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K23" s="342">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23" s="342">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
-        <v>1</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="91"/>
       <c r="B24" s="92" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C24" s="92"/>
       <c r="D24" s="75"/>
       <c r="E24" s="93"/>
       <c r="F24" s="94"/>
-      <c r="G24" s="49"/>
+      <c r="G24" s="343"/>
       <c r="H24" s="188"/>
       <c r="I24" s="188"/>
       <c r="J24" s="188"/>
       <c r="K24" s="188"/>
       <c r="L24" s="188"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="452" t="s">
+    <row r="25" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="453" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="454"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="341"/>
+      <c r="H25" s="342">
+        <f t="shared" ref="H25:L25" si="5">SUM(H26:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="342">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="342">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="342">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="342">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="91"/>
+      <c r="B26" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+    </row>
+    <row r="27" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="456" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="457"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="341"/>
+      <c r="H27" s="342">
+        <f t="shared" ref="H27:L27" si="6">SUM(H28:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="342">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="342">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="342">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="342">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="91">
+        <v>1</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="92"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="453"/>
-      <c r="C25" s="453"/>
-      <c r="D25" s="453"/>
-      <c r="E25" s="453"/>
-      <c r="F25" s="453"/>
-      <c r="G25" s="345">
-        <f>SUM(H25:L25)</f>
+      <c r="B29" s="452"/>
+      <c r="C29" s="452"/>
+      <c r="D29" s="452"/>
+      <c r="E29" s="452"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="345">
+        <f>SUM(H29:L29)</f>
         <v>4905</v>
       </c>
-      <c r="H25" s="202">
-        <f t="shared" ref="H25:L25" si="7">+H23+H21+H19+H10+H8+H5+H12+H14</f>
+      <c r="H29" s="202">
+        <f>+H27+H25+H23+H10+H8+H5+H12+H19</f>
         <v>4905</v>
       </c>
-      <c r="I25" s="202">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="202">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="202">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="202">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="230"/>
-      <c r="B26" s="230"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="346"/>
-      <c r="H26" s="347"/>
-      <c r="I26" s="347"/>
-      <c r="J26" s="347"/>
-      <c r="K26" s="347"/>
-      <c r="L26" s="347"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="230"/>
-      <c r="B27" s="230"/>
-      <c r="C27" s="230"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="230"/>
-      <c r="F27" s="230"/>
-      <c r="G27" s="346"/>
-      <c r="H27" s="347"/>
-      <c r="I27" s="347"/>
-      <c r="J27" s="347"/>
-      <c r="K27" s="347"/>
-      <c r="L27" s="347"/>
-    </row>
-    <row r="28" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="447" t="s">
+      <c r="I29" s="202">
+        <f>+I27+I25+I23+I10+I8+I5+I12+I19</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="202">
+        <f>+J27+J25+J23+J10+J8+J5+J12+J19</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="202">
+        <f>+K27+K25+K23+K10+K8+K5+K12+K19</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="202">
+        <f>+L27+L25+L23+L10+L8+L5+L12+L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="230"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="230"/>
+      <c r="D30" s="230"/>
+      <c r="E30" s="230"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="346"/>
+      <c r="H30" s="347"/>
+      <c r="I30" s="347"/>
+      <c r="J30" s="347"/>
+      <c r="K30" s="347"/>
+      <c r="L30" s="347"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="230"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="230"/>
+      <c r="D31" s="230"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="346"/>
+      <c r="H31" s="347"/>
+      <c r="I31" s="347"/>
+      <c r="J31" s="347"/>
+      <c r="K31" s="347"/>
+      <c r="L31" s="347"/>
+    </row>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="447" t="s">
         <v>236</v>
       </c>
-      <c r="B28" s="448"/>
-      <c r="C28" s="448"/>
-      <c r="D28" s="448"/>
-      <c r="E28" s="448"/>
-      <c r="F28" s="448"/>
-      <c r="G28" s="448"/>
-      <c r="H28" s="355"/>
-      <c r="I28" s="355"/>
-      <c r="J28" s="355"/>
-      <c r="K28" s="355"/>
-      <c r="L28" s="355"/>
-    </row>
-    <row r="29" spans="1:12" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="447"/>
-      <c r="B29" s="448"/>
-      <c r="C29" s="448"/>
-      <c r="D29" s="448"/>
-      <c r="E29" s="448"/>
-      <c r="F29" s="448"/>
-      <c r="G29" s="448"/>
-      <c r="H29" s="355"/>
-      <c r="I29" s="355"/>
-      <c r="J29" s="355"/>
-      <c r="K29" s="355"/>
-      <c r="L29" s="355"/>
-    </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54" t="s">
+      <c r="B32" s="448"/>
+      <c r="C32" s="448"/>
+      <c r="D32" s="448"/>
+      <c r="E32" s="448"/>
+      <c r="F32" s="448"/>
+      <c r="G32" s="448"/>
+      <c r="H32" s="355"/>
+      <c r="I32" s="355"/>
+      <c r="J32" s="355"/>
+      <c r="K32" s="355"/>
+      <c r="L32" s="355"/>
+    </row>
+    <row r="33" spans="1:12" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="447"/>
+      <c r="B33" s="448"/>
+      <c r="C33" s="448"/>
+      <c r="D33" s="448"/>
+      <c r="E33" s="448"/>
+      <c r="F33" s="448"/>
+      <c r="G33" s="448"/>
+      <c r="H33" s="355"/>
+      <c r="I33" s="355"/>
+      <c r="J33" s="355"/>
+      <c r="K33" s="355"/>
+      <c r="L33" s="355"/>
+    </row>
+    <row r="34" spans="1:12" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="53"/>
+      <c r="B34" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="215">
+      <c r="C34" s="215">
         <v>554648</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D34" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E34" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F34" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="330" t="s">
+      <c r="G34" s="330" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="358"/>
-      <c r="I30" s="358"/>
-      <c r="J30" s="358"/>
-      <c r="K30" s="358"/>
-      <c r="L30" s="358"/>
-    </row>
-    <row r="31" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="449" t="s">
+      <c r="H34" s="358"/>
+      <c r="I34" s="358"/>
+      <c r="J34" s="358"/>
+      <c r="K34" s="358"/>
+      <c r="L34" s="358"/>
+    </row>
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="453" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="451"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="331"/>
-      <c r="H31" s="333" t="s">
+      <c r="B35" s="455"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="331"/>
+      <c r="H35" s="333" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="333" t="s">
+      <c r="I35" s="333" t="s">
         <v>231</v>
       </c>
-      <c r="J31" s="333" t="s">
+      <c r="J35" s="333" t="s">
         <v>239</v>
       </c>
-      <c r="K31" s="333" t="s">
+      <c r="K35" s="333" t="s">
         <v>255</v>
       </c>
-      <c r="L31" s="333" t="s">
+      <c r="L35" s="333" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="334"/>
-      <c r="H32" s="332">
-        <f t="shared" ref="H32" si="8">SUM(H33:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="332">
-        <f>SUM(I33:I35)</f>
-        <v>4905</v>
-      </c>
-      <c r="J32" s="332">
-        <f>SUM(J33:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="332">
-        <f>SUM(K33:K35)</f>
-        <v>4905</v>
-      </c>
-      <c r="L32" s="332">
-        <f>SUM(L33:L35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="71">
-        <v>1</v>
-      </c>
-      <c r="B33" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="75">
-        <v>1</v>
-      </c>
-      <c r="F33" s="76">
-        <v>4500</v>
-      </c>
-      <c r="G33" s="188">
-        <f>+F33*E33</f>
-        <v>4500</v>
-      </c>
-      <c r="H33" s="335"/>
-      <c r="I33" s="335">
-        <v>4905</v>
-      </c>
-      <c r="J33" s="335"/>
-      <c r="K33" s="335">
-        <v>4905</v>
-      </c>
-      <c r="L33" s="188"/>
-    </row>
-    <row r="34" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="71">
-        <v>2</v>
-      </c>
-      <c r="B34" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D34" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="75">
-        <v>1</v>
-      </c>
-      <c r="F34" s="76">
-        <v>4500</v>
-      </c>
-      <c r="G34" s="188">
-        <f>+F34*E34</f>
-        <v>4500</v>
-      </c>
-      <c r="H34" s="335"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="188"/>
-      <c r="L34" s="188"/>
-    </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
-        <v>3</v>
-      </c>
-      <c r="B35" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="75">
-        <v>1</v>
-      </c>
-      <c r="F35" s="76">
-        <v>3500</v>
-      </c>
-      <c r="G35" s="188">
-        <f>+F35*E35</f>
-        <v>3500</v>
-      </c>
-      <c r="H35" s="197"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="188"/>
-      <c r="L35" s="188"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="334"/>
+      <c r="H36" s="332">
+        <f t="shared" ref="H36" si="7">SUM(H37:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="332">
+        <f>SUM(I37:I39)</f>
+        <v>4905</v>
+      </c>
+      <c r="J36" s="332">
+        <f>SUM(J37:J39)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="332">
+        <f>SUM(K37:K39)</f>
+        <v>4905</v>
+      </c>
+      <c r="L36" s="332">
+        <f>SUM(L37:L39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="71">
+        <v>1</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="75">
+        <v>1</v>
+      </c>
+      <c r="F37" s="76">
+        <v>4500</v>
+      </c>
+      <c r="G37" s="188">
+        <f>+F37*E37</f>
+        <v>4500</v>
+      </c>
+      <c r="H37" s="335"/>
+      <c r="I37" s="335">
+        <v>4905</v>
+      </c>
+      <c r="J37" s="335"/>
+      <c r="K37" s="335">
+        <v>4905</v>
+      </c>
+      <c r="L37" s="188"/>
+    </row>
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="71">
+        <v>2</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="75">
+        <v>1</v>
+      </c>
+      <c r="F38" s="76">
+        <v>4500</v>
+      </c>
+      <c r="G38" s="188">
+        <f>+F38*E38</f>
+        <v>4500</v>
+      </c>
+      <c r="H38" s="335"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="188"/>
+    </row>
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="71">
+        <v>3</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="75">
+        <v>1</v>
+      </c>
+      <c r="F39" s="76">
+        <v>3500</v>
+      </c>
+      <c r="G39" s="188">
+        <f>+F39*E39</f>
+        <v>3500</v>
+      </c>
+      <c r="H39" s="197"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+    </row>
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B40" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="203">
-        <f t="shared" ref="H36:L36" si="9">SUM(H37:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="203">
+      <c r="C40" s="66"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="203">
+        <f t="shared" ref="H40:L40" si="8">SUM(H41:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="203">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="203">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="203">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="203">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="229" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="224">
+        <v>1</v>
+      </c>
+      <c r="B41" s="225" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="226" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="226">
+        <v>2</v>
+      </c>
+      <c r="F41" s="227">
+        <v>50</v>
+      </c>
+      <c r="G41" s="228">
+        <f>+F41*E41</f>
+        <v>100</v>
+      </c>
+      <c r="H41" s="348"/>
+      <c r="I41" s="349"/>
+      <c r="J41" s="349"/>
+      <c r="K41" s="349"/>
+      <c r="L41" s="349"/>
+    </row>
+    <row r="42" spans="1:12" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="340">
+        <f t="shared" ref="H42:L42" si="9">SUM(H43:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="340">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J36" s="203">
+      <c r="J42" s="340">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K36" s="203">
+      <c r="K42" s="340">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L36" s="203">
+      <c r="L42" s="340">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="229" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="224">
+    <row r="43" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="216">
         <v>1</v>
       </c>
-      <c r="B37" s="225" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="73" t="s">
-        <v>354</v>
-      </c>
-      <c r="D37" s="226" t="s">
+      <c r="B43" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="226">
-        <v>2</v>
-      </c>
-      <c r="F37" s="227">
-        <v>50</v>
-      </c>
-      <c r="G37" s="228">
-        <f>+F37*E37</f>
-        <v>100</v>
-      </c>
-      <c r="H37" s="348"/>
-      <c r="I37" s="349"/>
-      <c r="J37" s="349"/>
-      <c r="K37" s="349"/>
-      <c r="L37" s="349"/>
-    </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="198"/>
-      <c r="H38" s="340">
-        <f t="shared" ref="H38:L38" si="10">SUM(H39:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="340">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="340">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="340">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="340">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="216">
+      <c r="E43" s="32">
         <v>1</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="32">
-        <v>1</v>
-      </c>
-      <c r="F39" s="49">
+      <c r="F43" s="49">
         <v>-560</v>
       </c>
-      <c r="G39" s="49">
-        <f>+F39</f>
+      <c r="G43" s="49">
+        <f>+F43</f>
         <v>-560</v>
       </c>
-      <c r="H39" s="337"/>
-      <c r="I39" s="337"/>
-      <c r="J39" s="337"/>
-      <c r="K39" s="338"/>
-      <c r="L39" s="338"/>
-    </row>
-    <row r="40" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="449" t="s">
+      <c r="H43" s="337"/>
+      <c r="I43" s="337"/>
+      <c r="J43" s="337"/>
+      <c r="K43" s="338"/>
+      <c r="L43" s="338"/>
+    </row>
+    <row r="44" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="453" t="s">
         <v>218</v>
       </c>
-      <c r="B40" s="450"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="341"/>
-      <c r="H40" s="342">
-        <f t="shared" ref="H40:L40" si="11">SUM(H41:H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="342">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="342">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="342">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="342">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
-        <v>1</v>
-      </c>
-      <c r="B41" s="92" t="s">
-        <v>333</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>334</v>
-      </c>
-      <c r="D41" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="93">
-        <v>1</v>
-      </c>
-      <c r="F41" s="94">
-        <v>4000</v>
-      </c>
-      <c r="G41" s="343">
-        <f>+F41*E41</f>
-        <v>4000</v>
-      </c>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="188"/>
-    </row>
-    <row r="42" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="449" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="450"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="341"/>
-      <c r="H42" s="342">
-        <f>SUM(H43:H43)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="342">
-        <f>SUM(I43:I43)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="342">
-        <f>SUM(J43:J43)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="342">
-        <f>SUM(K43:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="342">
-        <f>SUM(L43:L43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
-        <v>1</v>
-      </c>
-      <c r="B43" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="D43" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="93">
-        <v>1</v>
-      </c>
-      <c r="F43" s="94">
-        <v>1900</v>
-      </c>
-      <c r="G43" s="343">
-        <f>+F43</f>
-        <v>1900</v>
-      </c>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="188"/>
-      <c r="K43" s="188"/>
-      <c r="L43" s="188"/>
-    </row>
-    <row r="44" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="449" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="450"/>
+      <c r="B44" s="454"/>
       <c r="C44" s="88"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
       <c r="F44" s="61"/>
       <c r="G44" s="341"/>
       <c r="H44" s="342">
-        <f t="shared" ref="H44:L44" si="12">SUM(H45:H45)</f>
+        <f t="shared" ref="H44:L44" si="10">SUM(H52:H52)</f>
         <v>0</v>
       </c>
       <c r="I44" s="342">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="342">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="342">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="342">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="91">
+        <v>1</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>466</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>475</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="93">
+        <v>1</v>
+      </c>
+      <c r="F45" s="532">
+        <v>5000</v>
+      </c>
+      <c r="G45" s="343"/>
+      <c r="I45" s="188"/>
+      <c r="J45" s="537">
+        <v>5000</v>
+      </c>
+      <c r="K45" s="188"/>
+      <c r="L45" s="188"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="91">
+        <v>2</v>
+      </c>
+      <c r="B46" s="92" t="s">
+        <v>468</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>475</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="93">
+        <v>1</v>
+      </c>
+      <c r="F46" s="94">
+        <v>5000</v>
+      </c>
+      <c r="G46" s="343"/>
+      <c r="H46" s="188"/>
+      <c r="K46" s="538">
+        <v>5000</v>
+      </c>
+      <c r="L46" s="188"/>
+    </row>
+    <row r="47" spans="1:12" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="91">
+        <v>3</v>
+      </c>
+      <c r="B47" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="542"/>
+      <c r="D47" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="93">
+        <v>1</v>
+      </c>
+      <c r="F47" s="529">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="530"/>
+      <c r="H47" s="531"/>
+      <c r="I47" s="545"/>
+      <c r="J47" s="531"/>
+      <c r="K47" s="544">
+        <v>2000</v>
+      </c>
+      <c r="L47" s="531"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="91">
+        <v>4</v>
+      </c>
+      <c r="B48" s="92" t="s">
+        <v>467</v>
+      </c>
+      <c r="C48" s="540"/>
+      <c r="D48" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="94">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="343"/>
+      <c r="H48" s="188"/>
+      <c r="K48" s="188">
+        <v>4000</v>
+      </c>
+      <c r="L48" s="188"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="91">
+        <v>5</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>469</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="93">
+        <v>1</v>
+      </c>
+      <c r="F49" s="94">
+        <v>4000</v>
+      </c>
+      <c r="G49" s="343"/>
+      <c r="H49" s="188"/>
+      <c r="K49" s="188">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="91">
+        <v>6</v>
+      </c>
+      <c r="B50" s="92" t="s">
+        <v>470</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="93">
+        <v>1</v>
+      </c>
+      <c r="F50" s="536"/>
+      <c r="G50" s="530"/>
+      <c r="H50" s="531"/>
+      <c r="I50" s="531"/>
+      <c r="J50" s="531"/>
+      <c r="K50" s="531"/>
+      <c r="L50" s="531"/>
+    </row>
+    <row r="51" spans="1:13" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="91">
+        <v>7</v>
+      </c>
+      <c r="B51" s="535" t="s">
+        <v>471</v>
+      </c>
+      <c r="C51" s="543" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="93">
+        <v>2</v>
+      </c>
+      <c r="F51" s="529"/>
+      <c r="G51" s="530"/>
+      <c r="H51" s="531"/>
+      <c r="I51" s="531"/>
+      <c r="J51" s="539"/>
+      <c r="K51" s="531"/>
+      <c r="L51" s="531"/>
+      <c r="M51" s="229" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="91">
+        <v>8</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="92"/>
+      <c r="D52" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="93">
+        <v>1</v>
+      </c>
+      <c r="F52" s="94"/>
+      <c r="G52" s="343"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="188"/>
+      <c r="K52" s="188"/>
+      <c r="L52" s="188"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="91">
+        <v>9</v>
+      </c>
+      <c r="B53" s="534" t="s">
+        <v>477</v>
+      </c>
+      <c r="C53" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" s="75"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="343"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="188"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="188"/>
+    </row>
+    <row r="54" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="453" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="454"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="341"/>
+      <c r="H54" s="342">
+        <f t="shared" ref="H54:L54" si="11">SUM(H55:H55)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="342">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="342">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="342">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="342">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="91">
+        <v>1</v>
+      </c>
+      <c r="B55" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="93">
+        <v>1</v>
+      </c>
+      <c r="F55" s="94">
+        <v>4000</v>
+      </c>
+      <c r="G55" s="343">
+        <f>+F55*E55</f>
+        <v>4000</v>
+      </c>
+      <c r="H55" s="188"/>
+      <c r="I55" s="188"/>
+      <c r="J55" s="188"/>
+      <c r="K55" s="188"/>
+      <c r="L55" s="188"/>
+    </row>
+    <row r="56" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="453" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="454"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="341"/>
+      <c r="H56" s="342">
+        <f>SUM(H57:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="342">
+        <f>SUM(I57:I57)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="342">
+        <f>SUM(J57:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="342">
+        <f>SUM(K57:K57)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="342">
+        <f>SUM(L57:L57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="91">
+        <v>1</v>
+      </c>
+      <c r="B57" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="93">
+        <v>1</v>
+      </c>
+      <c r="F57" s="94">
+        <v>1900</v>
+      </c>
+      <c r="G57" s="343">
+        <f>+F57</f>
+        <v>1900</v>
+      </c>
+      <c r="H57" s="188"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="188"/>
+      <c r="K57" s="188"/>
+      <c r="L57" s="188"/>
+    </row>
+    <row r="58" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="453" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="454"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="341"/>
+      <c r="H58" s="342">
+        <f t="shared" ref="H58:L58" si="12">SUM(H59:H59)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="342">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J44" s="342">
+      <c r="J58" s="342">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K44" s="342">
+      <c r="K58" s="342">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L44" s="342">
+      <c r="L58" s="342">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="187" t="s">
+    <row r="59" spans="1:13" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="132" t="s">
+      <c r="B59" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="132" t="s">
+      <c r="C59" s="132" t="s">
         <v>348</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D59" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="211">
+      <c r="E59" s="211">
         <v>1</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F59" s="40">
         <v>897.22222222200003</v>
       </c>
-      <c r="G45" s="40">
-        <f>+F45*E45</f>
+      <c r="G59" s="40">
+        <f>+F59*E59</f>
         <v>897.22222222200003</v>
       </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="266"/>
-      <c r="J45" s="266"/>
-      <c r="K45" s="266"/>
-      <c r="L45" s="266"/>
-    </row>
-    <row r="46" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="449" t="s">
+      <c r="H59" s="43"/>
+      <c r="I59" s="266"/>
+      <c r="J59" s="266"/>
+      <c r="K59" s="266"/>
+      <c r="L59" s="266"/>
+    </row>
+    <row r="60" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="453" t="s">
         <v>242</v>
       </c>
-      <c r="B46" s="450"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="341"/>
-      <c r="H46" s="342">
-        <f t="shared" ref="H46:L46" si="13">SUM(H47:H47)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="342">
+      <c r="B60" s="454"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="341"/>
+      <c r="H60" s="342">
+        <f t="shared" ref="H60:L60" si="13">SUM(H61:H61)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="342">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J46" s="342">
+      <c r="J60" s="342">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K46" s="342">
+      <c r="K60" s="342">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L46" s="342">
+      <c r="L60" s="342">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="187" t="s">
+    <row r="61" spans="1:13" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="132" t="s">
+      <c r="B61" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="132" t="s">
+      <c r="C61" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D61" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="211">
+      <c r="E61" s="211">
         <v>1</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F61" s="40">
         <v>346.15383500000002</v>
       </c>
-      <c r="G47" s="201">
-        <f>+F47</f>
+      <c r="G61" s="201">
+        <f>+F61</f>
         <v>346.15383500000002</v>
       </c>
-      <c r="H47" s="339"/>
-      <c r="I47" s="339">
-        <v>0</v>
-      </c>
-      <c r="J47" s="339"/>
-      <c r="K47" s="339"/>
-      <c r="L47" s="339"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="452" t="s">
+      <c r="H61" s="339"/>
+      <c r="I61" s="339">
+        <v>0</v>
+      </c>
+      <c r="J61" s="339"/>
+      <c r="K61" s="339"/>
+      <c r="L61" s="339"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="453"/>
-      <c r="C48" s="453"/>
-      <c r="D48" s="453"/>
-      <c r="E48" s="453"/>
-      <c r="F48" s="453"/>
-      <c r="G48" s="345">
-        <f>SUM(H48:L48)</f>
+      <c r="B62" s="452"/>
+      <c r="C62" s="452"/>
+      <c r="D62" s="452"/>
+      <c r="E62" s="452"/>
+      <c r="F62" s="452"/>
+      <c r="G62" s="345">
+        <f>SUM(H62:L62)</f>
         <v>9810</v>
       </c>
-      <c r="H48" s="202">
-        <f t="shared" ref="H48:L48" si="14">+H46+H44+H38+H36+H32+H40+H42</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="202">
+      <c r="H62" s="202">
+        <f t="shared" ref="H62:L62" si="14">+H60+H58+H42+H40+H36+H54+H56</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="202">
         <f t="shared" si="14"/>
         <v>4905</v>
       </c>
-      <c r="J48" s="202">
+      <c r="J62" s="202">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K48" s="202">
+      <c r="K62" s="202">
         <f t="shared" si="14"/>
         <v>4905</v>
       </c>
-      <c r="L48" s="202">
+      <c r="L62" s="202">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="230"/>
-      <c r="B49" s="230"/>
-      <c r="C49" s="230"/>
-      <c r="D49" s="230"/>
-      <c r="E49" s="230"/>
-      <c r="F49" s="230"/>
-      <c r="G49" s="346"/>
-      <c r="H49" s="347"/>
-      <c r="I49" s="347"/>
-      <c r="J49" s="347"/>
-      <c r="K49" s="347"/>
-      <c r="L49" s="347"/>
-    </row>
-    <row r="50" spans="1:12" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="447" t="s">
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="230"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="230"/>
+      <c r="D63" s="230"/>
+      <c r="E63" s="230"/>
+      <c r="F63" s="230"/>
+      <c r="G63" s="346"/>
+      <c r="H63" s="347"/>
+      <c r="I63" s="347"/>
+      <c r="J63" s="347"/>
+      <c r="K63" s="347"/>
+      <c r="L63" s="347"/>
+    </row>
+    <row r="64" spans="1:13" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="447" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="448"/>
-      <c r="C50" s="448"/>
-      <c r="D50" s="448"/>
-      <c r="E50" s="448"/>
-      <c r="F50" s="448"/>
-      <c r="G50" s="448"/>
-      <c r="H50" s="355"/>
-      <c r="I50" s="355"/>
-      <c r="J50" s="355"/>
-      <c r="K50" s="355"/>
-      <c r="L50" s="355"/>
-    </row>
-    <row r="51" spans="1:12" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54" t="s">
+      <c r="B64" s="448"/>
+      <c r="C64" s="448"/>
+      <c r="D64" s="448"/>
+      <c r="E64" s="448"/>
+      <c r="F64" s="448"/>
+      <c r="G64" s="448"/>
+      <c r="H64" s="355"/>
+      <c r="I64" s="355"/>
+      <c r="J64" s="355"/>
+      <c r="K64" s="355"/>
+      <c r="L64" s="355"/>
+    </row>
+    <row r="65" spans="1:13" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="53"/>
+      <c r="B65" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="215">
+      <c r="C65" s="215">
         <v>554648</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D65" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E65" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F65" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="350" t="s">
+      <c r="G65" s="350" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="358"/>
-      <c r="I51" s="358"/>
-      <c r="J51" s="358"/>
-      <c r="K51" s="358"/>
-      <c r="L51" s="358"/>
-    </row>
-    <row r="52" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="449" t="s">
+      <c r="H65" s="358"/>
+      <c r="I65" s="358"/>
+      <c r="J65" s="358"/>
+      <c r="K65" s="358"/>
+      <c r="L65" s="358"/>
+    </row>
+    <row r="66" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="453" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="451"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="331"/>
-      <c r="H52" s="333" t="s">
+      <c r="B66" s="455"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="331"/>
+      <c r="H66" s="333" t="s">
         <v>77</v>
       </c>
-      <c r="I52" s="333" t="s">
+      <c r="I66" s="333" t="s">
         <v>231</v>
       </c>
-      <c r="J52" s="333" t="s">
+      <c r="J66" s="333" t="s">
         <v>239</v>
       </c>
-      <c r="K52" s="333" t="s">
+      <c r="K66" s="333" t="s">
         <v>255</v>
       </c>
-      <c r="L52" s="333" t="s">
+      <c r="L66" s="333" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+    <row r="67" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B67" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C67" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="334"/>
-      <c r="H53" s="332">
-        <f t="shared" ref="H53:L53" si="15">SUM(H54:H54)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="332">
+      <c r="D67" s="67"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="334"/>
+      <c r="H67" s="332">
+        <f t="shared" ref="H67:L67" si="15">SUM(H68:H68)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="332">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J53" s="332">
+      <c r="J67" s="332">
         <f t="shared" si="15"/>
         <v>4905</v>
       </c>
-      <c r="K53" s="332">
+      <c r="K67" s="332">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L53" s="332">
+      <c r="L67" s="332">
         <f t="shared" si="15"/>
         <v>4905</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="71">
+    <row r="68" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="71">
         <v>1</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B68" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="74" t="s">
+      <c r="C68" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="75">
+      <c r="E68" s="75">
         <v>1</v>
       </c>
-      <c r="F54" s="76">
+      <c r="F68" s="76">
         <v>4500</v>
       </c>
-      <c r="G54" s="188">
-        <f>+F54*E54</f>
+      <c r="G68" s="188">
+        <f>+F68*E68</f>
         <v>4500</v>
       </c>
-      <c r="H54" s="335"/>
-      <c r="I54" s="188"/>
-      <c r="J54" s="335">
+      <c r="H68" s="335"/>
+      <c r="I68" s="188"/>
+      <c r="J68" s="335">
         <v>4905</v>
       </c>
-      <c r="K54" s="188"/>
-      <c r="L54" s="335">
+      <c r="K68" s="188"/>
+      <c r="L68" s="335">
         <v>4905</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
+    <row r="69" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B69" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="198"/>
-      <c r="H55" s="203">
-        <f t="shared" ref="H55:L55" si="16">SUM(H56:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="203">
+      <c r="C69" s="66"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="198"/>
+      <c r="H69" s="203">
+        <f t="shared" ref="H69:L69" si="16">SUM(H70:H70)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="203">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J55" s="203">
+      <c r="J69" s="203">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K55" s="203">
+      <c r="K69" s="203">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L55" s="203">
+      <c r="L69" s="203">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="229" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="224">
+    <row r="70" spans="1:13" s="229" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="224">
         <v>1</v>
       </c>
-      <c r="B56" s="225" t="s">
+      <c r="B70" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="226" t="s">
+      <c r="C70" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="226">
+      <c r="E70" s="226">
         <v>2</v>
       </c>
-      <c r="F56" s="227">
+      <c r="F70" s="227">
         <v>140</v>
       </c>
-      <c r="G56" s="228">
-        <f>+F56*E56</f>
+      <c r="G70" s="228">
+        <f>+F70*E70</f>
         <v>280</v>
       </c>
-      <c r="H56" s="348"/>
-      <c r="I56" s="349"/>
-      <c r="J56" s="349"/>
-      <c r="K56" s="349"/>
-      <c r="L56" s="349"/>
-    </row>
-    <row r="57" spans="1:12" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+      <c r="H70" s="348"/>
+      <c r="I70" s="349"/>
+      <c r="J70" s="349"/>
+      <c r="K70" s="349"/>
+      <c r="L70" s="349"/>
+    </row>
+    <row r="71" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B71" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="198"/>
-      <c r="H57" s="340">
-        <f t="shared" ref="H57:L57" si="17">SUM(H58:H58)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="340">
+      <c r="C71" s="66"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="198"/>
+      <c r="H71" s="340">
+        <f t="shared" ref="H71:L71" si="17">SUM(H72:H72)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="340">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J57" s="340">
+      <c r="J71" s="340">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K57" s="340">
+      <c r="K71" s="340">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L57" s="340">
+      <c r="L71" s="340">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="216">
+    <row r="72" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="216">
         <v>1</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B72" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="32" t="s">
+      <c r="C72" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E72" s="32">
         <v>1</v>
       </c>
-      <c r="F58" s="49">
+      <c r="F72" s="49">
         <v>-140</v>
       </c>
-      <c r="G58" s="49">
-        <f>+F58</f>
+      <c r="G72" s="49">
+        <f>+F72</f>
         <v>-140</v>
       </c>
-      <c r="H58" s="337"/>
-      <c r="I58" s="337"/>
-      <c r="J58" s="337"/>
-      <c r="K58" s="337"/>
-      <c r="L58" s="338"/>
-    </row>
-    <row r="59" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="449" t="s">
+      <c r="H72" s="337"/>
+      <c r="I72" s="337"/>
+      <c r="J72" s="337"/>
+      <c r="K72" s="337"/>
+      <c r="L72" s="338"/>
+    </row>
+    <row r="73" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="453" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="450"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="341"/>
-      <c r="H59" s="342">
-        <f t="shared" ref="H59:K59" si="18">SUM(H60:H60)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="342">
+      <c r="B73" s="454"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="341"/>
+      <c r="H73" s="342">
+        <f t="shared" ref="H73:L73" si="18">SUM(H81:H81)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="342">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J59" s="342">
+      <c r="J73" s="342">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K59" s="342">
+      <c r="K73" s="342">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L59" s="342">
-        <f>SUM(L60:L60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="L73" s="342">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="91">
+        <v>1</v>
+      </c>
+      <c r="B74" s="92" t="s">
+        <v>466</v>
+      </c>
+      <c r="C74" s="92" t="s">
+        <v>475</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="93">
+        <v>1</v>
+      </c>
+      <c r="F74" s="532">
+        <v>5000</v>
+      </c>
+      <c r="G74" s="343"/>
+      <c r="H74" s="537">
+        <v>5000</v>
+      </c>
+      <c r="I74" s="188"/>
+      <c r="J74" s="188"/>
+      <c r="K74" s="188"/>
+      <c r="L74" s="188"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="91"/>
+      <c r="B75" s="92" t="s">
+        <v>468</v>
+      </c>
+      <c r="C75" s="92" t="s">
+        <v>475</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="93">
+        <v>1</v>
+      </c>
+      <c r="F75" s="94">
+        <v>5000</v>
+      </c>
+      <c r="G75" s="343"/>
+      <c r="H75" s="188"/>
+      <c r="I75" s="538">
+        <v>5000</v>
+      </c>
+      <c r="J75" s="188"/>
+      <c r="K75" s="188"/>
+      <c r="L75" s="188"/>
+    </row>
+    <row r="76" spans="1:13" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="91">
+        <v>1</v>
+      </c>
+      <c r="B76" s="527" t="s">
+        <v>394</v>
+      </c>
+      <c r="C76" s="542"/>
+      <c r="D76" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="93">
+        <v>1</v>
+      </c>
+      <c r="F76" s="529">
+        <v>2000</v>
+      </c>
+      <c r="G76" s="530"/>
+      <c r="H76" s="531"/>
+      <c r="I76" s="541"/>
+      <c r="J76" s="531"/>
+      <c r="K76" s="531"/>
+      <c r="L76" s="531"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="91">
         <v>2</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B77" s="92" t="s">
+        <v>467</v>
+      </c>
+      <c r="C77" s="540"/>
+      <c r="D77" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="94">
+        <v>4000</v>
+      </c>
+      <c r="G77" s="343"/>
+      <c r="H77" s="188"/>
+      <c r="I77" s="188">
+        <v>4000</v>
+      </c>
+      <c r="J77" s="188"/>
+      <c r="K77" s="188"/>
+      <c r="L77" s="188"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="91">
+        <v>3</v>
+      </c>
+      <c r="B78" s="92" t="s">
+        <v>469</v>
+      </c>
+      <c r="C78" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="93">
+        <v>1</v>
+      </c>
+      <c r="F78" s="94">
+        <v>4000</v>
+      </c>
+      <c r="G78" s="343"/>
+      <c r="H78" s="188"/>
+      <c r="I78" s="188"/>
+      <c r="J78" s="188">
+        <v>4000</v>
+      </c>
+      <c r="K78" s="188"/>
+      <c r="L78" s="188"/>
+    </row>
+    <row r="79" spans="1:13" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="91">
+        <v>4</v>
+      </c>
+      <c r="B79" s="92" t="s">
+        <v>470</v>
+      </c>
+      <c r="C79" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="93">
+        <v>1</v>
+      </c>
+      <c r="F79" s="536"/>
+      <c r="G79" s="530"/>
+      <c r="H79" s="531"/>
+      <c r="I79" s="531"/>
+      <c r="J79" s="531"/>
+      <c r="K79" s="531"/>
+      <c r="L79" s="531"/>
+    </row>
+    <row r="80" spans="1:13" s="229" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="91">
+        <v>5</v>
+      </c>
+      <c r="B80" s="535" t="s">
+        <v>471</v>
+      </c>
+      <c r="C80" s="535" t="s">
+        <v>476</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="93">
+        <v>2</v>
+      </c>
+      <c r="F80" s="529"/>
+      <c r="G80" s="530"/>
+      <c r="H80" s="531"/>
+      <c r="I80" s="531"/>
+      <c r="J80" s="539"/>
+      <c r="K80" s="531"/>
+      <c r="L80" s="531"/>
+      <c r="M80" s="229" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="91">
+        <v>6</v>
+      </c>
+      <c r="B81" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="92"/>
+      <c r="D81" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="93">
+        <v>1</v>
+      </c>
+      <c r="F81" s="94"/>
+      <c r="G81" s="343"/>
+      <c r="H81" s="188"/>
+      <c r="I81" s="188"/>
+      <c r="J81" s="188"/>
+      <c r="K81" s="188"/>
+      <c r="L81" s="188"/>
+    </row>
+    <row r="82" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="453" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" s="454"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="341"/>
+      <c r="H82" s="342">
+        <f>SUM(H85:H85)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="342">
+        <f>SUM(I85:I85)</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="342">
+        <f>SUM(J85:J85)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="342">
+        <f>SUM(K85:K85)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="342">
+        <f>SUM(L85:L85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="91"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="532"/>
+      <c r="G83" s="343"/>
+      <c r="H83" s="533"/>
+      <c r="I83" s="188"/>
+      <c r="J83" s="188"/>
+      <c r="K83" s="188"/>
+      <c r="L83" s="188"/>
+    </row>
+    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="91"/>
+      <c r="B84" s="92" t="s">
+        <v>468</v>
+      </c>
+      <c r="C84" s="92"/>
+      <c r="D84" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="93">
+        <v>1</v>
+      </c>
+      <c r="F84" s="94"/>
+      <c r="G84" s="343"/>
+      <c r="H84" s="188"/>
+      <c r="I84" s="533"/>
+      <c r="J84" s="188"/>
+      <c r="K84" s="188"/>
+      <c r="L84" s="188"/>
+    </row>
+    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="91"/>
+      <c r="B85" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="92"/>
+      <c r="D85" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="93"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="343"/>
+      <c r="H85" s="188"/>
+      <c r="I85" s="188"/>
+      <c r="J85" s="188"/>
+      <c r="K85" s="188"/>
+      <c r="L85" s="188"/>
+    </row>
+    <row r="86" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="453" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" s="454"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="341"/>
+      <c r="H86" s="342">
+        <f t="shared" ref="H86:K86" si="19">SUM(H87:H87)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="342">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="342">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="342">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="342">
+        <f>SUM(L87:L87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="91">
+        <v>2</v>
+      </c>
+      <c r="B87" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="C87" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="75" t="s">
+      <c r="D87" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="93">
+      <c r="E87" s="93">
         <v>1</v>
       </c>
-      <c r="F60" s="94">
+      <c r="F87" s="94">
         <v>2500</v>
       </c>
-      <c r="G60" s="343">
-        <f>+F60*E60</f>
+      <c r="G87" s="343">
+        <f>+F87*E87</f>
         <v>2500</v>
       </c>
-      <c r="H60" s="188"/>
-      <c r="I60" s="188"/>
-      <c r="J60" s="188"/>
-      <c r="K60" s="188"/>
-      <c r="L60" s="188"/>
-    </row>
-    <row r="61" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="449" t="s">
+      <c r="H87" s="188"/>
+      <c r="I87" s="188"/>
+      <c r="J87" s="188"/>
+      <c r="K87" s="188"/>
+      <c r="L87" s="188"/>
+    </row>
+    <row r="88" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="453" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="450"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="341"/>
-      <c r="H61" s="342">
-        <f t="shared" ref="H61:L61" si="19">SUM(H62:H62)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="342">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="342">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="342">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="342">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="B88" s="454"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="341"/>
+      <c r="H88" s="342">
+        <f t="shared" ref="H88:L88" si="20">SUM(H89:H89)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="342">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="342">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="342">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="342">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="91">
         <v>1</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B89" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="C89" s="92" t="s">
         <v>318</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D89" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="E62" s="93">
+      <c r="E89" s="93">
         <v>1</v>
       </c>
-      <c r="F62" s="94">
+      <c r="F89" s="94">
         <v>5000</v>
       </c>
-      <c r="G62" s="344">
-        <f>+F62*E62</f>
+      <c r="G89" s="344">
+        <f>+F89*E89</f>
         <v>5000</v>
       </c>
-      <c r="H62" s="188"/>
-      <c r="I62" s="188"/>
-      <c r="J62" s="188"/>
-      <c r="K62" s="188"/>
-      <c r="L62" s="188"/>
-    </row>
-    <row r="63" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="449" t="s">
+      <c r="H89" s="188"/>
+      <c r="I89" s="188"/>
+      <c r="J89" s="188"/>
+      <c r="K89" s="188"/>
+      <c r="L89" s="188"/>
+    </row>
+    <row r="90" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="453" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="450"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="341"/>
-      <c r="H63" s="342">
-        <f t="shared" ref="H63:L63" si="20">SUM(H64:H64)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="342">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="342">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="342">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="342">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="187" t="s">
+      <c r="B90" s="454"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="341"/>
+      <c r="H90" s="342">
+        <f t="shared" ref="H90:L90" si="21">SUM(H91:H91)</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="342">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="342">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="342">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="342">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="132" t="s">
+      <c r="B91" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="132" t="s">
+      <c r="C91" s="132" t="s">
         <v>348</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D91" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="E64" s="211">
+      <c r="E91" s="211">
         <v>1</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F91" s="40">
         <v>897.22222222200003</v>
       </c>
-      <c r="G64" s="40">
-        <f>+F64*E64</f>
+      <c r="G91" s="40">
+        <f>+F91*E91</f>
         <v>897.22222222200003</v>
       </c>
-      <c r="H64" s="43"/>
-      <c r="I64" s="266"/>
-      <c r="J64" s="266"/>
-      <c r="K64" s="266"/>
-      <c r="L64" s="266"/>
-    </row>
-    <row r="65" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="449" t="s">
+      <c r="H91" s="43"/>
+      <c r="I91" s="266"/>
+      <c r="J91" s="266"/>
+      <c r="K91" s="266"/>
+      <c r="L91" s="266"/>
+    </row>
+    <row r="92" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="453" t="s">
         <v>242</v>
       </c>
-      <c r="B65" s="450"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="341"/>
-      <c r="H65" s="342">
-        <f t="shared" ref="H65:L65" si="21">SUM(H66:H66)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="342">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="342">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="342">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="342">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="187" t="s">
+      <c r="B92" s="454"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="341"/>
+      <c r="H92" s="342">
+        <f t="shared" ref="H92:L92" si="22">SUM(H93:H93)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="342">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="342">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="342">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="342">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="132" t="s">
+      <c r="B93" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="C66" s="132" t="s">
+      <c r="C93" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D93" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="211">
+      <c r="E93" s="211">
         <v>1</v>
       </c>
-      <c r="F66" s="40">
+      <c r="F93" s="40">
         <v>346.15383500000002</v>
       </c>
-      <c r="G66" s="201">
-        <f>+F66</f>
+      <c r="G93" s="201">
+        <f>+F93</f>
         <v>346.15383500000002</v>
       </c>
-      <c r="H66" s="339"/>
-      <c r="I66" s="339"/>
-      <c r="J66" s="339"/>
-      <c r="K66" s="339"/>
-      <c r="L66" s="339"/>
-    </row>
-    <row r="67" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="452" t="s">
+      <c r="H93" s="339"/>
+      <c r="I93" s="339"/>
+      <c r="J93" s="339"/>
+      <c r="K93" s="339"/>
+      <c r="L93" s="339"/>
+    </row>
+    <row r="94" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="453"/>
-      <c r="C67" s="453"/>
-      <c r="D67" s="453"/>
-      <c r="E67" s="453"/>
-      <c r="F67" s="453"/>
-      <c r="G67" s="345">
-        <f>SUM(H67:L67)</f>
+      <c r="B94" s="452"/>
+      <c r="C94" s="452"/>
+      <c r="D94" s="452"/>
+      <c r="E94" s="452"/>
+      <c r="F94" s="452"/>
+      <c r="G94" s="345">
+        <f>SUM(H94:L94)</f>
         <v>9810</v>
       </c>
-      <c r="H67" s="202">
-        <f t="shared" ref="H67:L67" si="22">+H65+H63+H57+H55+H53+H59+H61</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="202">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="202">
-        <f t="shared" si="22"/>
-        <v>4905</v>
-      </c>
-      <c r="K67" s="202">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="202">
-        <f t="shared" si="22"/>
-        <v>4905</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="27" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="438" t="s">
-        <v>237</v>
-      </c>
-      <c r="B68" s="438"/>
-      <c r="C68" s="438"/>
-      <c r="D68" s="438"/>
-      <c r="E68" s="438"/>
-      <c r="F68" s="438"/>
-      <c r="G68" s="195">
-        <f>SUM(H68:L68)</f>
-        <v>24525</v>
-      </c>
-      <c r="H68" s="195">
-        <f>+H67+H48+H25</f>
-        <v>4905</v>
-      </c>
-      <c r="I68" s="195">
-        <f t="shared" ref="I68:L68" si="23">+I67+I48+I25</f>
-        <v>4905</v>
-      </c>
-      <c r="J68" s="195">
+      <c r="H94" s="202">
+        <f t="shared" ref="H94:L94" si="23">+H92+H90+H71+H69+H67+H86+H88</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="202">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="202">
         <f t="shared" si="23"/>
         <v>4905</v>
       </c>
-      <c r="K68" s="195">
+      <c r="K94" s="202">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="202">
         <f t="shared" si="23"/>
         <v>4905</v>
       </c>
-      <c r="L68" s="195">
-        <f t="shared" si="23"/>
+    </row>
+    <row r="95" spans="1:12" s="27" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="444" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="444"/>
+      <c r="C95" s="444"/>
+      <c r="D95" s="444"/>
+      <c r="E95" s="444"/>
+      <c r="F95" s="444"/>
+      <c r="G95" s="195">
+        <f>SUM(H95:L95)</f>
+        <v>24525</v>
+      </c>
+      <c r="H95" s="195">
+        <f>+H94+H62+H29</f>
         <v>4905</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="I95" s="195">
+        <f t="shared" ref="I95:L95" si="24">+I94+I62+I29</f>
+        <v>4905</v>
+      </c>
+      <c r="J95" s="195">
+        <f t="shared" si="24"/>
+        <v>4905</v>
+      </c>
+      <c r="K95" s="195">
+        <f t="shared" si="24"/>
+        <v>4905</v>
+      </c>
+      <c r="L95" s="195">
+        <f t="shared" si="24"/>
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A32:G33"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:G29"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <pageMargins left="0.84" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="9" max="18" man="1"/>
-    <brk id="27" max="18" man="1"/>
+    <brk id="9" max="12" man="1"/>
+    <brk id="31" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -31462,7 +32296,7 @@
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -31480,38 +32314,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="477" t="s">
+      <c r="A1" s="471" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="477"/>
-      <c r="C1" s="477"/>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
+      <c r="B1" s="471"/>
+      <c r="C1" s="471"/>
+      <c r="D1" s="471"/>
+      <c r="E1" s="471"/>
+      <c r="F1" s="471"/>
+      <c r="G1" s="471"/>
+      <c r="H1" s="471"/>
+      <c r="I1" s="471"/>
+      <c r="J1" s="471"/>
+      <c r="K1" s="471"/>
+      <c r="L1" s="471"/>
       <c r="M1" s="400"/>
       <c r="N1" s="116">
         <v>101031.5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="478"/>
-      <c r="B2" s="478"/>
-      <c r="C2" s="478"/>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
-      <c r="K2" s="478"/>
-      <c r="L2" s="478"/>
+      <c r="A2" s="472"/>
+      <c r="B2" s="472"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="472"/>
+      <c r="E2" s="472"/>
+      <c r="F2" s="472"/>
+      <c r="G2" s="472"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="472"/>
+      <c r="J2" s="472"/>
+      <c r="K2" s="472"/>
+      <c r="L2" s="472"/>
       <c r="M2" s="400" t="s">
         <v>400</v>
       </c>
@@ -31562,15 +32396,15 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="473" t="s">
+      <c r="A4" s="475" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="474"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="474"/>
-      <c r="E4" s="474"/>
-      <c r="F4" s="474"/>
-      <c r="G4" s="474"/>
+      <c r="B4" s="476"/>
+      <c r="C4" s="476"/>
+      <c r="D4" s="476"/>
+      <c r="E4" s="476"/>
+      <c r="F4" s="476"/>
+      <c r="G4" s="476"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="118">
@@ -32277,38 +33111,38 @@
       <c r="M30" s="405"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="471" t="s">
+      <c r="A31" s="473" t="s">
         <v>363</v>
       </c>
-      <c r="B31" s="471"/>
-      <c r="C31" s="471"/>
-      <c r="D31" s="471"/>
-      <c r="E31" s="471"/>
-      <c r="F31" s="471"/>
-      <c r="G31" s="471"/>
-      <c r="H31" s="471"/>
-      <c r="I31" s="471"/>
-      <c r="J31" s="471"/>
-      <c r="K31" s="471"/>
-      <c r="L31" s="471"/>
+      <c r="B31" s="473"/>
+      <c r="C31" s="473"/>
+      <c r="D31" s="473"/>
+      <c r="E31" s="473"/>
+      <c r="F31" s="473"/>
+      <c r="G31" s="473"/>
+      <c r="H31" s="473"/>
+      <c r="I31" s="473"/>
+      <c r="J31" s="473"/>
+      <c r="K31" s="473"/>
+      <c r="L31" s="473"/>
       <c r="M31" s="400"/>
       <c r="N31" s="116">
         <v>101031.5</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="472"/>
-      <c r="B32" s="472"/>
-      <c r="C32" s="472"/>
-      <c r="D32" s="472"/>
-      <c r="E32" s="472"/>
-      <c r="F32" s="472"/>
-      <c r="G32" s="472"/>
-      <c r="H32" s="472"/>
-      <c r="I32" s="472"/>
-      <c r="J32" s="472"/>
-      <c r="K32" s="472"/>
-      <c r="L32" s="472"/>
+      <c r="A32" s="474"/>
+      <c r="B32" s="474"/>
+      <c r="C32" s="474"/>
+      <c r="D32" s="474"/>
+      <c r="E32" s="474"/>
+      <c r="F32" s="474"/>
+      <c r="G32" s="474"/>
+      <c r="H32" s="474"/>
+      <c r="I32" s="474"/>
+      <c r="J32" s="474"/>
+      <c r="K32" s="474"/>
+      <c r="L32" s="474"/>
       <c r="M32" s="400"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -32357,15 +33191,15 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="473" t="s">
+      <c r="A34" s="475" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="474"/>
-      <c r="C34" s="474"/>
-      <c r="D34" s="474"/>
-      <c r="E34" s="474"/>
-      <c r="F34" s="474"/>
-      <c r="G34" s="474"/>
+      <c r="B34" s="476"/>
+      <c r="C34" s="476"/>
+      <c r="D34" s="476"/>
+      <c r="E34" s="476"/>
+      <c r="F34" s="476"/>
+      <c r="G34" s="476"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="118">
@@ -32937,14 +33771,14 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="475" t="s">
+      <c r="A56" s="477" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="476"/>
-      <c r="C56" s="476"/>
-      <c r="D56" s="476"/>
-      <c r="E56" s="476"/>
-      <c r="F56" s="476"/>
+      <c r="B56" s="478"/>
+      <c r="C56" s="478"/>
+      <c r="D56" s="478"/>
+      <c r="E56" s="478"/>
+      <c r="F56" s="478"/>
       <c r="G56" s="193">
         <f>SUM(H56:L56)</f>
         <v>9810</v>
@@ -32972,35 +33806,35 @@
       <c r="M56" s="406"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="471" t="s">
+      <c r="A57" s="473" t="s">
         <v>433</v>
       </c>
-      <c r="B57" s="471"/>
-      <c r="C57" s="471"/>
-      <c r="D57" s="471"/>
-      <c r="E57" s="471"/>
-      <c r="F57" s="471"/>
-      <c r="G57" s="471"/>
-      <c r="H57" s="471"/>
-      <c r="I57" s="471"/>
-      <c r="J57" s="471"/>
-      <c r="K57" s="471"/>
-      <c r="L57" s="471"/>
+      <c r="B57" s="473"/>
+      <c r="C57" s="473"/>
+      <c r="D57" s="473"/>
+      <c r="E57" s="473"/>
+      <c r="F57" s="473"/>
+      <c r="G57" s="473"/>
+      <c r="H57" s="473"/>
+      <c r="I57" s="473"/>
+      <c r="J57" s="473"/>
+      <c r="K57" s="473"/>
+      <c r="L57" s="473"/>
       <c r="M57" s="400"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="472"/>
-      <c r="B58" s="472"/>
-      <c r="C58" s="472"/>
-      <c r="D58" s="472"/>
-      <c r="E58" s="472"/>
-      <c r="F58" s="472"/>
-      <c r="G58" s="472"/>
-      <c r="H58" s="472"/>
-      <c r="I58" s="472"/>
-      <c r="J58" s="472"/>
-      <c r="K58" s="472"/>
-      <c r="L58" s="472"/>
+      <c r="A58" s="474"/>
+      <c r="B58" s="474"/>
+      <c r="C58" s="474"/>
+      <c r="D58" s="474"/>
+      <c r="E58" s="474"/>
+      <c r="F58" s="474"/>
+      <c r="G58" s="474"/>
+      <c r="H58" s="474"/>
+      <c r="I58" s="474"/>
+      <c r="J58" s="474"/>
+      <c r="K58" s="474"/>
+      <c r="L58" s="474"/>
       <c r="M58" s="400"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -33041,15 +33875,15 @@
       <c r="M59" s="401"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="473" t="s">
+      <c r="A60" s="475" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="474"/>
-      <c r="C60" s="474"/>
-      <c r="D60" s="474"/>
-      <c r="E60" s="474"/>
-      <c r="F60" s="474"/>
-      <c r="G60" s="474"/>
+      <c r="B60" s="476"/>
+      <c r="C60" s="476"/>
+      <c r="D60" s="476"/>
+      <c r="E60" s="476"/>
+      <c r="F60" s="476"/>
+      <c r="G60" s="476"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="118">
@@ -33715,14 +34549,14 @@
       <c r="M83" s="402"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="475" t="s">
+      <c r="A84" s="477" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="476"/>
-      <c r="C84" s="476"/>
-      <c r="D84" s="476"/>
-      <c r="E84" s="476"/>
-      <c r="F84" s="476"/>
+      <c r="B84" s="478"/>
+      <c r="C84" s="478"/>
+      <c r="D84" s="478"/>
+      <c r="E84" s="478"/>
+      <c r="F84" s="478"/>
       <c r="G84" s="193">
         <f>SUM(H84:L84)</f>
         <v>14715</v>
@@ -33759,14 +34593,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="A31:L32"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A57:L58"/>
     <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="1.07" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39664,15 +40498,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:243" s="137" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="497" t="s">
+      <c r="A1" s="498" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="497"/>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
+      <c r="B1" s="498"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
+      <c r="F1" s="498"/>
+      <c r="G1" s="498"/>
       <c r="H1" s="359"/>
       <c r="I1" s="359"/>
       <c r="J1" s="359"/>
@@ -39911,13 +40745,13 @@
       <c r="II1" s="136"/>
     </row>
     <row r="2" spans="1:243" s="137" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="498"/>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="498"/>
-      <c r="F2" s="498"/>
-      <c r="G2" s="498"/>
+      <c r="A2" s="499"/>
+      <c r="B2" s="499"/>
+      <c r="C2" s="499"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="499"/>
+      <c r="F2" s="499"/>
+      <c r="G2" s="499"/>
       <c r="H2" s="360"/>
       <c r="I2" s="360"/>
       <c r="J2" s="360"/>
@@ -40156,56 +40990,56 @@
       <c r="II2" s="136"/>
     </row>
     <row r="3" spans="1:243" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="439" t="s">
+      <c r="A3" s="433" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="431" t="s">
+      <c r="B3" s="435" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="431" t="s">
+      <c r="C3" s="435" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="431" t="s">
+      <c r="D3" s="435" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="501" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="431" t="s">
+      <c r="F3" s="435" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="431" t="s">
+      <c r="G3" s="435" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="431" t="s">
+      <c r="H3" s="435" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="431" t="s">
+      <c r="I3" s="435" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="431" t="s">
+      <c r="J3" s="435" t="s">
         <v>240</v>
       </c>
-      <c r="K3" s="431" t="s">
+      <c r="K3" s="435" t="s">
         <v>256</v>
       </c>
-      <c r="L3" s="431" t="s">
+      <c r="L3" s="435" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="499"/>
-      <c r="B4" s="500"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
+      <c r="A4" s="500"/>
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
       <c r="E4" s="502"/>
-      <c r="F4" s="500"/>
-      <c r="G4" s="500"/>
-      <c r="H4" s="500"/>
-      <c r="I4" s="500"/>
-      <c r="J4" s="500"/>
-      <c r="K4" s="500"/>
-      <c r="L4" s="500"/>
+      <c r="F4" s="495"/>
+      <c r="G4" s="495"/>
+      <c r="H4" s="495"/>
+      <c r="I4" s="495"/>
+      <c r="J4" s="495"/>
+      <c r="K4" s="495"/>
+      <c r="L4" s="495"/>
     </row>
     <row r="5" spans="1:243" s="217" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="252" t="s">
@@ -40988,14 +41822,14 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="495" t="s">
+      <c r="A34" s="496" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="496"/>
-      <c r="C34" s="496"/>
-      <c r="D34" s="496"/>
-      <c r="E34" s="496"/>
-      <c r="F34" s="496"/>
+      <c r="B34" s="497"/>
+      <c r="C34" s="497"/>
+      <c r="D34" s="497"/>
+      <c r="E34" s="497"/>
+      <c r="F34" s="497"/>
       <c r="G34" s="212">
         <f>SUM(H34:L34)</f>
         <v>10000</v>
@@ -41023,11 +41857,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:A4"/>
@@ -41039,6 +41868,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41701,14 +42535,14 @@
       <c r="G3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="456" t="s">
+      <c r="H3" s="449" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="457"/>
-      <c r="J3" s="457"/>
-      <c r="K3" s="457"/>
-      <c r="L3" s="457"/>
-      <c r="M3" s="457"/>
+      <c r="I3" s="450"/>
+      <c r="J3" s="450"/>
+      <c r="K3" s="450"/>
+      <c r="L3" s="450"/>
+      <c r="M3" s="450"/>
       <c r="N3" s="358"/>
       <c r="O3" s="358"/>
       <c r="P3" s="358"/>
@@ -42365,14 +43199,14 @@
       <c r="S17" s="245"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="452" t="s">
+      <c r="A18" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="453"/>
-      <c r="C18" s="453"/>
-      <c r="D18" s="453"/>
-      <c r="E18" s="453"/>
-      <c r="F18" s="453"/>
+      <c r="B18" s="452"/>
+      <c r="C18" s="452"/>
+      <c r="D18" s="452"/>
+      <c r="E18" s="452"/>
+      <c r="F18" s="452"/>
       <c r="G18" s="96">
         <f>SUM(H18:S18)</f>
         <v>24979.67</v>
@@ -42554,18 +43388,18 @@
       <c r="S1" s="362"/>
     </row>
     <row r="2" spans="1:19" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="478"/>
-      <c r="B2" s="478"/>
-      <c r="C2" s="478"/>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
-      <c r="K2" s="478"/>
-      <c r="L2" s="478"/>
+      <c r="A2" s="472"/>
+      <c r="B2" s="472"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="472"/>
+      <c r="E2" s="472"/>
+      <c r="F2" s="472"/>
+      <c r="G2" s="472"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="472"/>
+      <c r="J2" s="472"/>
+      <c r="K2" s="472"/>
+      <c r="L2" s="472"/>
       <c r="M2" s="362"/>
       <c r="N2" s="362"/>
       <c r="O2" s="362"/>

--- a/Programacion de la Ejecucion de Proyectos/PROYECTADO ORFEI AGOSTO DICIEMBRE.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/PROYECTADO ORFEI AGOSTO DICIEMBRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{761EA0ED-847A-4AED-9376-29090A52224E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA986FA5-41FC-46F5-B250-FE57F7C8AF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="336" windowWidth="14628" windowHeight="16344" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RES X FUN" sheetId="8" r:id="rId1"/>
@@ -3881,56 +3881,68 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3941,62 +3953,56 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="19" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4016,12 +4022,6 @@
     <xf numFmtId="164" fontId="46" fillId="13" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="27" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4073,6 +4073,15 @@
     <xf numFmtId="165" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="20" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="20" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4082,9 +4091,6 @@
     <xf numFmtId="164" fontId="16" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4108,12 +4114,6 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="20" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -17385,16 +17385,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="149" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="480" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
+      <c r="F1" s="481"/>
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
       <c r="I1" s="330"/>
       <c r="J1" s="330"/>
       <c r="K1" s="330"/>
@@ -17408,14 +17408,14 @@
       <c r="S1" s="330"/>
     </row>
     <row r="2" spans="1:19" s="149" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="487"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
+      <c r="A2" s="480"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
       <c r="I2" s="330"/>
       <c r="J2" s="330"/>
       <c r="K2" s="330"/>
@@ -17641,14 +17641,14 @@
       <c r="S7" s="94"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="480" t="s">
+      <c r="A8" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="481"/>
-      <c r="C8" s="481"/>
-      <c r="D8" s="481"/>
-      <c r="E8" s="481"/>
-      <c r="F8" s="481"/>
+      <c r="B8" s="485"/>
+      <c r="C8" s="485"/>
+      <c r="D8" s="485"/>
+      <c r="E8" s="485"/>
+      <c r="F8" s="485"/>
       <c r="G8" s="95">
         <f>SUM(H8:S8)</f>
         <v>0</v>
@@ -17746,21 +17746,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:252" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="478" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
-      <c r="G1" s="463"/>
-      <c r="H1" s="463"/>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
-      <c r="K1" s="463"/>
-      <c r="L1" s="463"/>
-      <c r="M1" s="463"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
+      <c r="K1" s="478"/>
+      <c r="L1" s="478"/>
+      <c r="M1" s="478"/>
       <c r="N1" s="331"/>
       <c r="O1" s="331"/>
       <c r="P1" s="331"/>
@@ -18002,19 +18002,19 @@
       <c r="IR1" s="135"/>
     </row>
     <row r="2" spans="1:252" s="136" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="463"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="463"/>
-      <c r="F2" s="463"/>
-      <c r="G2" s="463"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
-      <c r="K2" s="463"/>
-      <c r="L2" s="463"/>
-      <c r="M2" s="463"/>
+      <c r="A2" s="478"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="478"/>
+      <c r="I2" s="478"/>
+      <c r="J2" s="478"/>
+      <c r="K2" s="478"/>
+      <c r="L2" s="478"/>
+      <c r="M2" s="478"/>
       <c r="N2" s="331"/>
       <c r="O2" s="331"/>
       <c r="P2" s="331"/>
@@ -18256,84 +18256,84 @@
       <c r="IR2" s="135"/>
     </row>
     <row r="3" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="472" t="s">
+      <c r="A3" s="466" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="464" t="s">
+      <c r="B3" s="468" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="464" t="s">
+      <c r="C3" s="468" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="464" t="s">
+      <c r="D3" s="468" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="466" t="s">
+      <c r="E3" s="470" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="464" t="s">
+      <c r="F3" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="464" t="s">
+      <c r="G3" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="468" t="s">
+      <c r="H3" s="475" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="468" t="s">
+      <c r="I3" s="475" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="464" t="s">
+      <c r="J3" s="468" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="464" t="s">
+      <c r="K3" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="464" t="s">
+      <c r="L3" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="464" t="s">
+      <c r="M3" s="468" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="464" t="s">
+      <c r="N3" s="468" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="464" t="s">
+      <c r="O3" s="468" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="464" t="s">
+      <c r="P3" s="468" t="s">
         <v>204</v>
       </c>
-      <c r="Q3" s="464" t="s">
+      <c r="Q3" s="468" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="464" t="s">
+      <c r="R3" s="468" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="464" t="s">
+      <c r="S3" s="468" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="473"/>
-      <c r="B4" s="465"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="465"/>
-      <c r="E4" s="467"/>
-      <c r="F4" s="465"/>
-      <c r="G4" s="465"/>
-      <c r="H4" s="469"/>
-      <c r="I4" s="469"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
-      <c r="N4" s="465"/>
-      <c r="O4" s="465"/>
-      <c r="P4" s="465"/>
-      <c r="Q4" s="465"/>
-      <c r="R4" s="465"/>
-      <c r="S4" s="465"/>
+      <c r="A4" s="467"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="471"/>
+      <c r="F4" s="469"/>
+      <c r="G4" s="469"/>
+      <c r="H4" s="476"/>
+      <c r="I4" s="476"/>
+      <c r="J4" s="469"/>
+      <c r="K4" s="469"/>
+      <c r="L4" s="469"/>
+      <c r="M4" s="469"/>
+      <c r="N4" s="469"/>
+      <c r="O4" s="469"/>
+      <c r="P4" s="469"/>
+      <c r="Q4" s="469"/>
+      <c r="R4" s="469"/>
+      <c r="S4" s="469"/>
     </row>
     <row r="5" spans="1:252" s="130" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="226" t="s">
@@ -18967,11 +18967,11 @@
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="1:252" s="146" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="474" t="s">
+      <c r="A20" s="463" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="475"/>
-      <c r="C20" s="476"/>
+      <c r="B20" s="464"/>
+      <c r="C20" s="465"/>
       <c r="D20" s="190"/>
       <c r="E20" s="190"/>
       <c r="F20" s="190"/>
@@ -19029,21 +19029,21 @@
       </c>
     </row>
     <row r="21" spans="1:252" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="463" t="s">
+      <c r="A21" s="478" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="463"/>
-      <c r="C21" s="463"/>
-      <c r="D21" s="463"/>
-      <c r="E21" s="463"/>
-      <c r="F21" s="463"/>
-      <c r="G21" s="463"/>
-      <c r="H21" s="463"/>
-      <c r="I21" s="463"/>
-      <c r="J21" s="463"/>
-      <c r="K21" s="463"/>
-      <c r="L21" s="463"/>
-      <c r="M21" s="463"/>
+      <c r="B21" s="478"/>
+      <c r="C21" s="478"/>
+      <c r="D21" s="478"/>
+      <c r="E21" s="478"/>
+      <c r="F21" s="478"/>
+      <c r="G21" s="478"/>
+      <c r="H21" s="478"/>
+      <c r="I21" s="478"/>
+      <c r="J21" s="478"/>
+      <c r="K21" s="478"/>
+      <c r="L21" s="478"/>
+      <c r="M21" s="478"/>
       <c r="N21" s="331"/>
       <c r="O21" s="331"/>
       <c r="P21" s="331"/>
@@ -19285,19 +19285,19 @@
       <c r="IR21" s="135"/>
     </row>
     <row r="22" spans="1:252" s="136" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="463"/>
-      <c r="B22" s="463"/>
-      <c r="C22" s="463"/>
-      <c r="D22" s="463"/>
-      <c r="E22" s="463"/>
-      <c r="F22" s="463"/>
-      <c r="G22" s="463"/>
-      <c r="H22" s="463"/>
-      <c r="I22" s="463"/>
-      <c r="J22" s="463"/>
-      <c r="K22" s="463"/>
-      <c r="L22" s="463"/>
-      <c r="M22" s="463"/>
+      <c r="A22" s="478"/>
+      <c r="B22" s="478"/>
+      <c r="C22" s="478"/>
+      <c r="D22" s="478"/>
+      <c r="E22" s="478"/>
+      <c r="F22" s="478"/>
+      <c r="G22" s="478"/>
+      <c r="H22" s="478"/>
+      <c r="I22" s="478"/>
+      <c r="J22" s="478"/>
+      <c r="K22" s="478"/>
+      <c r="L22" s="478"/>
+      <c r="M22" s="478"/>
       <c r="N22" s="331"/>
       <c r="O22" s="331"/>
       <c r="P22" s="331"/>
@@ -19539,84 +19539,84 @@
       <c r="IR22" s="135"/>
     </row>
     <row r="23" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="472" t="s">
+      <c r="A23" s="466" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="464" t="s">
+      <c r="B23" s="468" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="464" t="s">
+      <c r="C23" s="468" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="464" t="s">
+      <c r="D23" s="468" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="466" t="s">
+      <c r="E23" s="470" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="464" t="s">
+      <c r="F23" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="464" t="s">
+      <c r="G23" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="468" t="s">
+      <c r="H23" s="475" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="468" t="s">
+      <c r="I23" s="475" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="464" t="s">
+      <c r="J23" s="468" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="464" t="s">
+      <c r="K23" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="464" t="s">
+      <c r="L23" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="464" t="s">
+      <c r="M23" s="468" t="s">
         <v>152</v>
       </c>
-      <c r="N23" s="464" t="s">
+      <c r="N23" s="468" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="464" t="s">
+      <c r="O23" s="468" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="464" t="s">
+      <c r="P23" s="468" t="s">
         <v>204</v>
       </c>
-      <c r="Q23" s="464" t="s">
+      <c r="Q23" s="468" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="464" t="s">
+      <c r="R23" s="468" t="s">
         <v>227</v>
       </c>
-      <c r="S23" s="464" t="s">
+      <c r="S23" s="468" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="473"/>
-      <c r="B24" s="465"/>
-      <c r="C24" s="465"/>
-      <c r="D24" s="465"/>
-      <c r="E24" s="467"/>
-      <c r="F24" s="465"/>
-      <c r="G24" s="465"/>
-      <c r="H24" s="469"/>
-      <c r="I24" s="469"/>
-      <c r="J24" s="465"/>
-      <c r="K24" s="465"/>
-      <c r="L24" s="465"/>
-      <c r="M24" s="465"/>
-      <c r="N24" s="465"/>
-      <c r="O24" s="465"/>
-      <c r="P24" s="465"/>
-      <c r="Q24" s="465"/>
-      <c r="R24" s="465"/>
-      <c r="S24" s="465"/>
+      <c r="A24" s="467"/>
+      <c r="B24" s="469"/>
+      <c r="C24" s="469"/>
+      <c r="D24" s="469"/>
+      <c r="E24" s="471"/>
+      <c r="F24" s="469"/>
+      <c r="G24" s="469"/>
+      <c r="H24" s="476"/>
+      <c r="I24" s="476"/>
+      <c r="J24" s="469"/>
+      <c r="K24" s="469"/>
+      <c r="L24" s="469"/>
+      <c r="M24" s="469"/>
+      <c r="N24" s="469"/>
+      <c r="O24" s="469"/>
+      <c r="P24" s="469"/>
+      <c r="Q24" s="469"/>
+      <c r="R24" s="469"/>
+      <c r="S24" s="469"/>
     </row>
     <row r="25" spans="1:252" s="130" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="226" t="s">
@@ -20211,11 +20211,11 @@
       <c r="I38" s="40"/>
     </row>
     <row r="39" spans="1:252" s="146" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="477" t="s">
+      <c r="A39" s="472" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="478"/>
-      <c r="C39" s="479"/>
+      <c r="B39" s="473"/>
+      <c r="C39" s="474"/>
       <c r="D39" s="222"/>
       <c r="E39" s="222"/>
       <c r="F39" s="222"/>
@@ -20273,21 +20273,21 @@
       </c>
     </row>
     <row r="40" spans="1:252" s="136" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="470" t="s">
+      <c r="A40" s="479" t="s">
         <v>255</v>
       </c>
-      <c r="B40" s="470"/>
-      <c r="C40" s="470"/>
-      <c r="D40" s="470"/>
-      <c r="E40" s="470"/>
-      <c r="F40" s="470"/>
-      <c r="G40" s="470"/>
-      <c r="H40" s="470"/>
-      <c r="I40" s="470"/>
-      <c r="J40" s="470"/>
-      <c r="K40" s="470"/>
-      <c r="L40" s="470"/>
-      <c r="M40" s="470"/>
+      <c r="B40" s="479"/>
+      <c r="C40" s="479"/>
+      <c r="D40" s="479"/>
+      <c r="E40" s="479"/>
+      <c r="F40" s="479"/>
+      <c r="G40" s="479"/>
+      <c r="H40" s="479"/>
+      <c r="I40" s="479"/>
+      <c r="J40" s="479"/>
+      <c r="K40" s="479"/>
+      <c r="L40" s="479"/>
+      <c r="M40" s="479"/>
       <c r="N40" s="332"/>
       <c r="O40" s="332"/>
       <c r="P40" s="332"/>
@@ -20529,19 +20529,19 @@
       <c r="IR40" s="135"/>
     </row>
     <row r="41" spans="1:252" s="136" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="470"/>
-      <c r="B41" s="470"/>
-      <c r="C41" s="470"/>
-      <c r="D41" s="470"/>
-      <c r="E41" s="470"/>
-      <c r="F41" s="470"/>
-      <c r="G41" s="470"/>
-      <c r="H41" s="470"/>
-      <c r="I41" s="470"/>
-      <c r="J41" s="470"/>
-      <c r="K41" s="470"/>
-      <c r="L41" s="470"/>
-      <c r="M41" s="470"/>
+      <c r="A41" s="479"/>
+      <c r="B41" s="479"/>
+      <c r="C41" s="479"/>
+      <c r="D41" s="479"/>
+      <c r="E41" s="479"/>
+      <c r="F41" s="479"/>
+      <c r="G41" s="479"/>
+      <c r="H41" s="479"/>
+      <c r="I41" s="479"/>
+      <c r="J41" s="479"/>
+      <c r="K41" s="479"/>
+      <c r="L41" s="479"/>
+      <c r="M41" s="479"/>
       <c r="N41" s="332"/>
       <c r="O41" s="332"/>
       <c r="P41" s="332"/>
@@ -20783,84 +20783,84 @@
       <c r="IR41" s="135"/>
     </row>
     <row r="42" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="472" t="s">
+      <c r="A42" s="466" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="464" t="s">
+      <c r="B42" s="468" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="464" t="s">
+      <c r="C42" s="468" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="464" t="s">
+      <c r="D42" s="468" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="466" t="s">
+      <c r="E42" s="470" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="464" t="s">
+      <c r="F42" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="464" t="s">
+      <c r="G42" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="468" t="s">
+      <c r="H42" s="475" t="s">
         <v>108</v>
       </c>
-      <c r="I42" s="468" t="s">
+      <c r="I42" s="475" t="s">
         <v>97</v>
       </c>
-      <c r="J42" s="464" t="s">
+      <c r="J42" s="468" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="464" t="s">
+      <c r="K42" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="464" t="s">
+      <c r="L42" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="M42" s="464" t="s">
+      <c r="M42" s="468" t="s">
         <v>152</v>
       </c>
-      <c r="N42" s="464" t="s">
+      <c r="N42" s="468" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="464" t="s">
+      <c r="O42" s="468" t="s">
         <v>92</v>
       </c>
-      <c r="P42" s="464" t="s">
+      <c r="P42" s="468" t="s">
         <v>204</v>
       </c>
-      <c r="Q42" s="464" t="s">
+      <c r="Q42" s="468" t="s">
         <v>101</v>
       </c>
-      <c r="R42" s="464" t="s">
+      <c r="R42" s="468" t="s">
         <v>227</v>
       </c>
-      <c r="S42" s="464" t="s">
+      <c r="S42" s="468" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="473"/>
-      <c r="B43" s="465"/>
-      <c r="C43" s="465"/>
-      <c r="D43" s="465"/>
-      <c r="E43" s="467"/>
-      <c r="F43" s="465"/>
-      <c r="G43" s="465"/>
-      <c r="H43" s="469"/>
-      <c r="I43" s="469"/>
-      <c r="J43" s="465"/>
-      <c r="K43" s="465"/>
-      <c r="L43" s="465"/>
-      <c r="M43" s="465"/>
-      <c r="N43" s="465"/>
-      <c r="O43" s="465"/>
-      <c r="P43" s="465"/>
-      <c r="Q43" s="465"/>
-      <c r="R43" s="465"/>
-      <c r="S43" s="465"/>
+      <c r="A43" s="467"/>
+      <c r="B43" s="469"/>
+      <c r="C43" s="469"/>
+      <c r="D43" s="469"/>
+      <c r="E43" s="471"/>
+      <c r="F43" s="469"/>
+      <c r="G43" s="469"/>
+      <c r="H43" s="476"/>
+      <c r="I43" s="476"/>
+      <c r="J43" s="469"/>
+      <c r="K43" s="469"/>
+      <c r="L43" s="469"/>
+      <c r="M43" s="469"/>
+      <c r="N43" s="469"/>
+      <c r="O43" s="469"/>
+      <c r="P43" s="469"/>
+      <c r="Q43" s="469"/>
+      <c r="R43" s="469"/>
+      <c r="S43" s="469"/>
     </row>
     <row r="44" spans="1:252" s="130" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="226" t="s">
@@ -21704,11 +21704,11 @@
       <c r="S62" s="43"/>
     </row>
     <row r="63" spans="1:252" s="146" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="474" t="s">
+      <c r="A63" s="463" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="475"/>
-      <c r="C63" s="476"/>
+      <c r="B63" s="464"/>
+      <c r="C63" s="465"/>
       <c r="D63" s="190"/>
       <c r="E63" s="190"/>
       <c r="F63" s="190"/>
@@ -21766,21 +21766,21 @@
       </c>
     </row>
     <row r="64" spans="1:252" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="470" t="s">
+      <c r="A64" s="479" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="470"/>
-      <c r="C64" s="470"/>
-      <c r="D64" s="470"/>
-      <c r="E64" s="470"/>
-      <c r="F64" s="470"/>
-      <c r="G64" s="470"/>
-      <c r="H64" s="470"/>
-      <c r="I64" s="470"/>
-      <c r="J64" s="470"/>
-      <c r="K64" s="470"/>
-      <c r="L64" s="470"/>
-      <c r="M64" s="470"/>
+      <c r="B64" s="479"/>
+      <c r="C64" s="479"/>
+      <c r="D64" s="479"/>
+      <c r="E64" s="479"/>
+      <c r="F64" s="479"/>
+      <c r="G64" s="479"/>
+      <c r="H64" s="479"/>
+      <c r="I64" s="479"/>
+      <c r="J64" s="479"/>
+      <c r="K64" s="479"/>
+      <c r="L64" s="479"/>
+      <c r="M64" s="479"/>
       <c r="N64" s="332"/>
       <c r="O64" s="332"/>
       <c r="P64" s="332"/>
@@ -22022,19 +22022,19 @@
       <c r="IR64" s="135"/>
     </row>
     <row r="65" spans="1:252" s="136" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="470"/>
-      <c r="B65" s="470"/>
-      <c r="C65" s="470"/>
-      <c r="D65" s="470"/>
-      <c r="E65" s="470"/>
-      <c r="F65" s="470"/>
-      <c r="G65" s="470"/>
-      <c r="H65" s="470"/>
-      <c r="I65" s="470"/>
-      <c r="J65" s="470"/>
-      <c r="K65" s="470"/>
-      <c r="L65" s="470"/>
-      <c r="M65" s="470"/>
+      <c r="A65" s="479"/>
+      <c r="B65" s="479"/>
+      <c r="C65" s="479"/>
+      <c r="D65" s="479"/>
+      <c r="E65" s="479"/>
+      <c r="F65" s="479"/>
+      <c r="G65" s="479"/>
+      <c r="H65" s="479"/>
+      <c r="I65" s="479"/>
+      <c r="J65" s="479"/>
+      <c r="K65" s="479"/>
+      <c r="L65" s="479"/>
+      <c r="M65" s="479"/>
       <c r="N65" s="332"/>
       <c r="O65" s="332"/>
       <c r="P65" s="332"/>
@@ -22276,84 +22276,84 @@
       <c r="IR65" s="135"/>
     </row>
     <row r="66" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="472" t="s">
+      <c r="A66" s="466" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="464" t="s">
+      <c r="B66" s="468" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="464" t="s">
+      <c r="C66" s="468" t="s">
         <v>111</v>
       </c>
-      <c r="D66" s="464" t="s">
+      <c r="D66" s="468" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="466" t="s">
+      <c r="E66" s="470" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="464" t="s">
+      <c r="F66" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="G66" s="464" t="s">
+      <c r="G66" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="468" t="s">
+      <c r="H66" s="475" t="s">
         <v>108</v>
       </c>
-      <c r="I66" s="468" t="s">
+      <c r="I66" s="475" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="464" t="s">
+      <c r="J66" s="468" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="464" t="s">
+      <c r="K66" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="L66" s="464" t="s">
+      <c r="L66" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="M66" s="464" t="s">
+      <c r="M66" s="468" t="s">
         <v>152</v>
       </c>
-      <c r="N66" s="464" t="s">
+      <c r="N66" s="468" t="s">
         <v>8</v>
       </c>
-      <c r="O66" s="464" t="s">
+      <c r="O66" s="468" t="s">
         <v>92</v>
       </c>
-      <c r="P66" s="464" t="s">
+      <c r="P66" s="468" t="s">
         <v>204</v>
       </c>
-      <c r="Q66" s="464" t="s">
+      <c r="Q66" s="468" t="s">
         <v>101</v>
       </c>
-      <c r="R66" s="464" t="s">
+      <c r="R66" s="468" t="s">
         <v>227</v>
       </c>
-      <c r="S66" s="464" t="s">
+      <c r="S66" s="468" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="473"/>
-      <c r="B67" s="465"/>
-      <c r="C67" s="465"/>
-      <c r="D67" s="465"/>
-      <c r="E67" s="467"/>
-      <c r="F67" s="465"/>
-      <c r="G67" s="465"/>
-      <c r="H67" s="469"/>
-      <c r="I67" s="469"/>
-      <c r="J67" s="465"/>
-      <c r="K67" s="465"/>
-      <c r="L67" s="465"/>
-      <c r="M67" s="465"/>
-      <c r="N67" s="465"/>
-      <c r="O67" s="465"/>
-      <c r="P67" s="465"/>
-      <c r="Q67" s="465"/>
-      <c r="R67" s="465"/>
-      <c r="S67" s="465"/>
+      <c r="A67" s="467"/>
+      <c r="B67" s="469"/>
+      <c r="C67" s="469"/>
+      <c r="D67" s="469"/>
+      <c r="E67" s="471"/>
+      <c r="F67" s="469"/>
+      <c r="G67" s="469"/>
+      <c r="H67" s="476"/>
+      <c r="I67" s="476"/>
+      <c r="J67" s="469"/>
+      <c r="K67" s="469"/>
+      <c r="L67" s="469"/>
+      <c r="M67" s="469"/>
+      <c r="N67" s="469"/>
+      <c r="O67" s="469"/>
+      <c r="P67" s="469"/>
+      <c r="Q67" s="469"/>
+      <c r="R67" s="469"/>
+      <c r="S67" s="469"/>
     </row>
     <row r="68" spans="1:252" s="130" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="226" t="s">
@@ -22969,11 +22969,11 @@
       <c r="S82" s="43"/>
     </row>
     <row r="83" spans="1:19" s="146" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="474" t="s">
+      <c r="A83" s="463" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="475"/>
-      <c r="C83" s="476"/>
+      <c r="B83" s="464"/>
+      <c r="C83" s="465"/>
       <c r="D83" s="190"/>
       <c r="E83" s="190"/>
       <c r="F83" s="190"/>
@@ -23031,14 +23031,14 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="471" t="s">
+      <c r="A84" s="477" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="471"/>
-      <c r="C84" s="471"/>
-      <c r="D84" s="471"/>
-      <c r="E84" s="471"/>
-      <c r="F84" s="471"/>
+      <c r="B84" s="477"/>
+      <c r="C84" s="477"/>
+      <c r="D84" s="477"/>
+      <c r="E84" s="477"/>
+      <c r="F84" s="477"/>
       <c r="G84" s="189">
         <f>SUM(H84:S84)</f>
         <v>72946.222222222001</v>
@@ -23099,42 +23099,39 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="A40:M41"/>
+    <mergeCell ref="A64:M65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="L23:L24"/>
@@ -23151,39 +23148,42 @@
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="A40:M41"/>
-    <mergeCell ref="A64:M65"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="1.01" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
@@ -23202,7 +23202,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -23788,36 +23788,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="480" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
-      <c r="K1" s="488"/>
-      <c r="L1" s="488"/>
-      <c r="M1" s="488"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
+      <c r="F1" s="481"/>
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+      <c r="I1" s="481"/>
+      <c r="J1" s="481"/>
+      <c r="K1" s="481"/>
+      <c r="L1" s="481"/>
+      <c r="M1" s="481"/>
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="487"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
-      <c r="K2" s="488"/>
-      <c r="L2" s="488"/>
-      <c r="M2" s="488"/>
+      <c r="A2" s="480"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
+      <c r="I2" s="481"/>
+      <c r="J2" s="481"/>
+      <c r="K2" s="481"/>
+      <c r="L2" s="481"/>
+      <c r="M2" s="481"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
@@ -23839,13 +23839,13 @@
       <c r="G3" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="489" t="s">
+      <c r="H3" s="482" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="490"/>
-      <c r="J3" s="490"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="490"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
+      <c r="K3" s="483"/>
+      <c r="L3" s="483"/>
       <c r="M3" s="409" t="s">
         <v>320</v>
       </c>
@@ -23855,10 +23855,10 @@
       <c r="Q3" s="410"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="482" t="s">
+      <c r="A4" s="486" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="484"/>
+      <c r="B4" s="487"/>
       <c r="C4" s="59"/>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -24074,10 +24074,10 @@
       <c r="M10" s="411"/>
     </row>
     <row r="11" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="482" t="s">
+      <c r="A11" s="486" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="483"/>
+      <c r="B11" s="488"/>
       <c r="C11" s="87"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -24246,10 +24246,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="482" t="s">
+      <c r="A17" s="486" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="483"/>
+      <c r="B17" s="488"/>
       <c r="C17" s="87"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -24341,10 +24341,10 @@
       <c r="M19" s="414"/>
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="482" t="s">
+      <c r="A20" s="486" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="483"/>
+      <c r="B20" s="488"/>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
@@ -24388,10 +24388,10 @@
       <c r="M21" s="414"/>
     </row>
     <row r="22" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="485" t="s">
+      <c r="A22" s="489" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="486"/>
+      <c r="B22" s="490"/>
       <c r="C22" s="87"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -24437,14 +24437,14 @@
       <c r="M23" s="414"/>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="480" t="s">
+      <c r="A24" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="481"/>
-      <c r="C24" s="481"/>
-      <c r="D24" s="481"/>
-      <c r="E24" s="481"/>
-      <c r="F24" s="481"/>
+      <c r="B24" s="485"/>
+      <c r="C24" s="485"/>
+      <c r="D24" s="485"/>
+      <c r="E24" s="485"/>
+      <c r="F24" s="485"/>
       <c r="G24" s="320">
         <f>SUM(H24:L24)</f>
         <v>58305</v>
@@ -24502,36 +24502,36 @@
       <c r="M26" s="322"/>
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="487" t="s">
+      <c r="A27" s="480" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="488"/>
-      <c r="C27" s="488"/>
-      <c r="D27" s="488"/>
-      <c r="E27" s="488"/>
-      <c r="F27" s="488"/>
-      <c r="G27" s="488"/>
-      <c r="H27" s="488"/>
-      <c r="I27" s="488"/>
-      <c r="J27" s="488"/>
-      <c r="K27" s="488"/>
-      <c r="L27" s="488"/>
-      <c r="M27" s="488"/>
+      <c r="B27" s="481"/>
+      <c r="C27" s="481"/>
+      <c r="D27" s="481"/>
+      <c r="E27" s="481"/>
+      <c r="F27" s="481"/>
+      <c r="G27" s="481"/>
+      <c r="H27" s="481"/>
+      <c r="I27" s="481"/>
+      <c r="J27" s="481"/>
+      <c r="K27" s="481"/>
+      <c r="L27" s="481"/>
+      <c r="M27" s="481"/>
     </row>
     <row r="28" spans="1:13" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="487"/>
-      <c r="B28" s="488"/>
-      <c r="C28" s="488"/>
-      <c r="D28" s="488"/>
-      <c r="E28" s="488"/>
-      <c r="F28" s="488"/>
-      <c r="G28" s="488"/>
-      <c r="H28" s="488"/>
-      <c r="I28" s="488"/>
-      <c r="J28" s="488"/>
-      <c r="K28" s="488"/>
-      <c r="L28" s="488"/>
-      <c r="M28" s="488"/>
+      <c r="A28" s="480"/>
+      <c r="B28" s="481"/>
+      <c r="C28" s="481"/>
+      <c r="D28" s="481"/>
+      <c r="E28" s="481"/>
+      <c r="F28" s="481"/>
+      <c r="G28" s="481"/>
+      <c r="H28" s="481"/>
+      <c r="I28" s="481"/>
+      <c r="J28" s="481"/>
+      <c r="K28" s="481"/>
+      <c r="L28" s="481"/>
+      <c r="M28" s="481"/>
     </row>
     <row r="29" spans="1:13" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
@@ -24553,22 +24553,22 @@
       <c r="G29" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="489" t="s">
+      <c r="H29" s="482" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="490"/>
-      <c r="J29" s="490"/>
-      <c r="K29" s="490"/>
-      <c r="L29" s="490"/>
+      <c r="I29" s="483"/>
+      <c r="J29" s="483"/>
+      <c r="K29" s="483"/>
+      <c r="L29" s="483"/>
       <c r="M29" s="409" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="482" t="s">
+      <c r="A30" s="486" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="484"/>
+      <c r="B30" s="487"/>
       <c r="C30" s="87"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -24802,10 +24802,10 @@
       <c r="M36" s="411"/>
     </row>
     <row r="37" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="482" t="s">
+      <c r="A37" s="486" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="483"/>
+      <c r="B37" s="488"/>
       <c r="C37" s="87"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
@@ -25048,10 +25048,10 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="482" t="s">
+      <c r="A46" s="486" t="s">
         <v>196</v>
       </c>
-      <c r="B46" s="483"/>
+      <c r="B46" s="488"/>
       <c r="C46" s="87"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
@@ -25095,10 +25095,10 @@
       <c r="M47" s="414"/>
     </row>
     <row r="48" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="482" t="s">
+      <c r="A48" s="486" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="483"/>
+      <c r="B48" s="488"/>
       <c r="C48" s="87"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
@@ -25142,10 +25142,10 @@
       <c r="M49" s="43"/>
     </row>
     <row r="50" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="482" t="s">
+      <c r="A50" s="486" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="483"/>
+      <c r="B50" s="488"/>
       <c r="C50" s="87"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
@@ -25189,14 +25189,14 @@
       <c r="M51" s="21"/>
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="480" t="s">
+      <c r="A52" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="481"/>
-      <c r="C52" s="481"/>
-      <c r="D52" s="481"/>
-      <c r="E52" s="481"/>
-      <c r="F52" s="481"/>
+      <c r="B52" s="485"/>
+      <c r="C52" s="485"/>
+      <c r="D52" s="485"/>
+      <c r="E52" s="485"/>
+      <c r="F52" s="485"/>
       <c r="G52" s="320">
         <f>SUM(H52:L52)</f>
         <v>35975</v>
@@ -25239,21 +25239,21 @@
       <c r="M53" s="322"/>
     </row>
     <row r="54" spans="1:13" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="487" t="s">
+      <c r="A54" s="480" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="488"/>
-      <c r="C54" s="488"/>
-      <c r="D54" s="488"/>
-      <c r="E54" s="488"/>
-      <c r="F54" s="488"/>
-      <c r="G54" s="488"/>
-      <c r="H54" s="488"/>
-      <c r="I54" s="488"/>
-      <c r="J54" s="488"/>
-      <c r="K54" s="488"/>
-      <c r="L54" s="488"/>
-      <c r="M54" s="488"/>
+      <c r="B54" s="481"/>
+      <c r="C54" s="481"/>
+      <c r="D54" s="481"/>
+      <c r="E54" s="481"/>
+      <c r="F54" s="481"/>
+      <c r="G54" s="481"/>
+      <c r="H54" s="481"/>
+      <c r="I54" s="481"/>
+      <c r="J54" s="481"/>
+      <c r="K54" s="481"/>
+      <c r="L54" s="481"/>
+      <c r="M54" s="481"/>
     </row>
     <row r="55" spans="1:13" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="53"/>
@@ -25275,22 +25275,22 @@
       <c r="G55" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="489" t="s">
+      <c r="H55" s="482" t="s">
         <v>72</v>
       </c>
-      <c r="I55" s="490"/>
-      <c r="J55" s="490"/>
-      <c r="K55" s="490"/>
-      <c r="L55" s="490"/>
+      <c r="I55" s="483"/>
+      <c r="J55" s="483"/>
+      <c r="K55" s="483"/>
+      <c r="L55" s="483"/>
       <c r="M55" s="409" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="482" t="s">
+      <c r="A56" s="486" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="484"/>
+      <c r="B56" s="487"/>
       <c r="C56" s="87"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
@@ -25525,10 +25525,10 @@
       <c r="M62" s="411"/>
     </row>
     <row r="63" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="482" t="s">
+      <c r="A63" s="486" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="483"/>
+      <c r="B63" s="488"/>
       <c r="C63" s="87"/>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
@@ -25750,10 +25750,10 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="482" t="s">
+      <c r="A71" s="486" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="483"/>
+      <c r="B71" s="488"/>
       <c r="C71" s="87"/>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
@@ -25797,10 +25797,10 @@
       <c r="M72" s="414"/>
     </row>
     <row r="73" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="482" t="s">
+      <c r="A73" s="486" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="483"/>
+      <c r="B73" s="488"/>
       <c r="C73" s="87"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
@@ -25859,14 +25859,14 @@
       <c r="M74" s="43"/>
     </row>
     <row r="75" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="480" t="s">
+      <c r="A75" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="481"/>
-      <c r="C75" s="481"/>
-      <c r="D75" s="481"/>
-      <c r="E75" s="481"/>
-      <c r="F75" s="481"/>
+      <c r="B75" s="485"/>
+      <c r="C75" s="485"/>
+      <c r="D75" s="485"/>
+      <c r="E75" s="485"/>
+      <c r="F75" s="485"/>
       <c r="G75" s="320">
         <f>SUM(H75:L75)</f>
         <v>29810</v>
@@ -25894,14 +25894,14 @@
       <c r="M75" s="414"/>
     </row>
     <row r="76" spans="1:13" s="27" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="471" t="s">
+      <c r="A76" s="477" t="s">
         <v>211</v>
       </c>
-      <c r="B76" s="471"/>
-      <c r="C76" s="471"/>
-      <c r="D76" s="471"/>
-      <c r="E76" s="471"/>
-      <c r="F76" s="471"/>
+      <c r="B76" s="477"/>
+      <c r="C76" s="477"/>
+      <c r="D76" s="477"/>
+      <c r="E76" s="477"/>
+      <c r="F76" s="477"/>
       <c r="G76" s="189">
         <f>SUM(H76:L76)</f>
         <v>124090</v>
@@ -25930,14 +25930,6 @@
     <row r="77" spans="1:13" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A27:M28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="H55:L55"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A73:B73"/>
@@ -25954,6 +25946,14 @@
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A27:M28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="H55:L55"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -25992,21 +25992,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="480" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
-      <c r="K1" s="488"/>
-      <c r="L1" s="488"/>
-      <c r="M1" s="491"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
+      <c r="F1" s="481"/>
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+      <c r="I1" s="481"/>
+      <c r="J1" s="481"/>
+      <c r="K1" s="481"/>
+      <c r="L1" s="481"/>
+      <c r="M1" s="501"/>
       <c r="N1" s="341">
         <v>220040.2</v>
       </c>
@@ -26063,15 +26063,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="492" t="s">
+      <c r="A3" s="491" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="492"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="492"/>
-      <c r="F3" s="492"/>
-      <c r="G3" s="492"/>
+      <c r="B3" s="491"/>
+      <c r="C3" s="491"/>
+      <c r="D3" s="491"/>
+      <c r="E3" s="491"/>
+      <c r="F3" s="491"/>
+      <c r="G3" s="491"/>
       <c r="H3" s="98"/>
       <c r="I3" s="98"/>
       <c r="J3" s="98"/>
@@ -26729,14 +26729,14 @@
       <c r="M23" s="440"/>
     </row>
     <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="493" t="s">
+      <c r="A24" s="498" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="494"/>
-      <c r="C24" s="494"/>
-      <c r="D24" s="494"/>
-      <c r="E24" s="494"/>
-      <c r="F24" s="495"/>
+      <c r="B24" s="499"/>
+      <c r="C24" s="499"/>
+      <c r="D24" s="499"/>
+      <c r="E24" s="499"/>
+      <c r="F24" s="500"/>
       <c r="G24" s="112">
         <f>SUM(H24:L24)</f>
         <v>49525</v>
@@ -26764,21 +26764,21 @@
       <c r="M24" s="361"/>
     </row>
     <row r="25" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="487" t="s">
+      <c r="A25" s="480" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="488"/>
-      <c r="C25" s="488"/>
-      <c r="D25" s="488"/>
-      <c r="E25" s="488"/>
-      <c r="F25" s="488"/>
-      <c r="G25" s="488"/>
-      <c r="H25" s="488"/>
-      <c r="I25" s="488"/>
-      <c r="J25" s="488"/>
-      <c r="K25" s="488"/>
-      <c r="L25" s="488"/>
-      <c r="M25" s="488"/>
+      <c r="B25" s="481"/>
+      <c r="C25" s="481"/>
+      <c r="D25" s="481"/>
+      <c r="E25" s="481"/>
+      <c r="F25" s="481"/>
+      <c r="G25" s="481"/>
+      <c r="H25" s="481"/>
+      <c r="I25" s="481"/>
+      <c r="J25" s="481"/>
+      <c r="K25" s="481"/>
+      <c r="L25" s="481"/>
+      <c r="M25" s="481"/>
       <c r="N25" s="340" t="s">
         <v>285</v>
       </c>
@@ -26838,15 +26838,15 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="492" t="s">
+      <c r="A27" s="491" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="492"/>
-      <c r="C27" s="492"/>
-      <c r="D27" s="492"/>
-      <c r="E27" s="492"/>
-      <c r="F27" s="492"/>
-      <c r="G27" s="492"/>
+      <c r="B27" s="491"/>
+      <c r="C27" s="491"/>
+      <c r="D27" s="491"/>
+      <c r="E27" s="491"/>
+      <c r="F27" s="491"/>
+      <c r="G27" s="491"/>
       <c r="H27" s="98"/>
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
@@ -27510,14 +27510,14 @@
       <c r="M48" s="360"/>
     </row>
     <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="493" t="s">
+      <c r="A49" s="498" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="494"/>
-      <c r="C49" s="494"/>
-      <c r="D49" s="494"/>
-      <c r="E49" s="494"/>
-      <c r="F49" s="495"/>
+      <c r="B49" s="499"/>
+      <c r="C49" s="499"/>
+      <c r="D49" s="499"/>
+      <c r="E49" s="499"/>
+      <c r="F49" s="500"/>
       <c r="G49" s="112">
         <f>SUM(H49:L49)</f>
         <v>75965</v>
@@ -27560,21 +27560,21 @@
       <c r="M50" s="238"/>
     </row>
     <row r="51" spans="1:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="487" t="s">
+      <c r="A51" s="480" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="488"/>
-      <c r="C51" s="488"/>
-      <c r="D51" s="488"/>
-      <c r="E51" s="488"/>
-      <c r="F51" s="488"/>
-      <c r="G51" s="488"/>
-      <c r="H51" s="488"/>
-      <c r="I51" s="488"/>
-      <c r="J51" s="488"/>
-      <c r="K51" s="488"/>
-      <c r="L51" s="488"/>
-      <c r="M51" s="488"/>
+      <c r="B51" s="481"/>
+      <c r="C51" s="481"/>
+      <c r="D51" s="481"/>
+      <c r="E51" s="481"/>
+      <c r="F51" s="481"/>
+      <c r="G51" s="481"/>
+      <c r="H51" s="481"/>
+      <c r="I51" s="481"/>
+      <c r="J51" s="481"/>
+      <c r="K51" s="481"/>
+      <c r="L51" s="481"/>
+      <c r="M51" s="481"/>
     </row>
     <row r="52" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="96" t="s">
@@ -27618,15 +27618,15 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="492" t="s">
+      <c r="A53" s="491" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="492"/>
-      <c r="C53" s="492"/>
-      <c r="D53" s="492"/>
-      <c r="E53" s="492"/>
-      <c r="F53" s="492"/>
-      <c r="G53" s="492"/>
+      <c r="B53" s="491"/>
+      <c r="C53" s="491"/>
+      <c r="D53" s="491"/>
+      <c r="E53" s="491"/>
+      <c r="F53" s="491"/>
+      <c r="G53" s="491"/>
       <c r="H53" s="98"/>
       <c r="I53" s="98"/>
       <c r="J53" s="98"/>
@@ -28153,14 +28153,14 @@
       <c r="M69" s="440"/>
     </row>
     <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A70" s="493" t="s">
+      <c r="A70" s="498" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="494"/>
-      <c r="C70" s="494"/>
-      <c r="D70" s="494"/>
-      <c r="E70" s="494"/>
-      <c r="F70" s="495"/>
+      <c r="B70" s="499"/>
+      <c r="C70" s="499"/>
+      <c r="D70" s="499"/>
+      <c r="E70" s="499"/>
+      <c r="F70" s="500"/>
       <c r="G70" s="112">
         <f>SUM(H70:L70)</f>
         <v>57055</v>
@@ -28188,14 +28188,14 @@
       <c r="M70" s="442"/>
     </row>
     <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="501" t="s">
+      <c r="A71" s="497" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="501"/>
-      <c r="C71" s="501"/>
-      <c r="D71" s="501"/>
-      <c r="E71" s="501"/>
-      <c r="F71" s="501"/>
+      <c r="B71" s="497"/>
+      <c r="C71" s="497"/>
+      <c r="D71" s="497"/>
+      <c r="E71" s="497"/>
+      <c r="F71" s="497"/>
       <c r="G71" s="244">
         <f>SUM(H71:L71)</f>
         <v>182545</v>
@@ -28223,15 +28223,15 @@
       <c r="M71" s="362"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="499" t="s">
+      <c r="A72" s="495" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="500"/>
-      <c r="C72" s="500"/>
-      <c r="D72" s="500"/>
-      <c r="E72" s="500"/>
-      <c r="F72" s="500"/>
-      <c r="G72" s="500"/>
+      <c r="B72" s="496"/>
+      <c r="C72" s="496"/>
+      <c r="D72" s="496"/>
+      <c r="E72" s="496"/>
+      <c r="F72" s="496"/>
+      <c r="G72" s="496"/>
     </row>
     <row r="73" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -28926,29 +28926,29 @@
       <c r="G106" s="12"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="496" t="s">
+      <c r="A107" s="492" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="497"/>
-      <c r="C107" s="497"/>
-      <c r="D107" s="497"/>
-      <c r="E107" s="497"/>
-      <c r="F107" s="498"/>
+      <c r="B107" s="493"/>
+      <c r="C107" s="493"/>
+      <c r="D107" s="493"/>
+      <c r="E107" s="493"/>
+      <c r="F107" s="494"/>
       <c r="G107" s="20">
         <f>SUM(G75:G105)</f>
         <v>222979.7</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="499" t="s">
+      <c r="A109" s="495" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="500"/>
-      <c r="C109" s="500"/>
-      <c r="D109" s="500"/>
-      <c r="E109" s="500"/>
-      <c r="F109" s="500"/>
-      <c r="G109" s="500"/>
+      <c r="B109" s="496"/>
+      <c r="C109" s="496"/>
+      <c r="D109" s="496"/>
+      <c r="E109" s="496"/>
+      <c r="F109" s="496"/>
+      <c r="G109" s="496"/>
     </row>
     <row r="110" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -29618,14 +29618,14 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="496" t="s">
+      <c r="A142" s="492" t="s">
         <v>64</v>
       </c>
-      <c r="B142" s="497"/>
-      <c r="C142" s="497"/>
-      <c r="D142" s="497"/>
-      <c r="E142" s="497"/>
-      <c r="F142" s="498"/>
+      <c r="B142" s="493"/>
+      <c r="C142" s="493"/>
+      <c r="D142" s="493"/>
+      <c r="E142" s="493"/>
+      <c r="F142" s="494"/>
       <c r="G142" s="20">
         <f>SUM(G112:G141)</f>
         <v>220039.7</v>
@@ -29633,6 +29633,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="A51:M51"/>
@@ -29642,11 +29647,6 @@
     <mergeCell ref="A109:G109"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A49:F49"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29682,39 +29682,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="508" t="s">
+      <c r="A1" s="502" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
-      <c r="F1" s="508"/>
-      <c r="G1" s="508"/>
-      <c r="H1" s="508"/>
-      <c r="I1" s="508"/>
-      <c r="J1" s="508"/>
-      <c r="K1" s="508"/>
-      <c r="L1" s="508"/>
-      <c r="M1" s="508"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
+      <c r="H1" s="502"/>
+      <c r="I1" s="502"/>
+      <c r="J1" s="502"/>
+      <c r="K1" s="502"/>
+      <c r="L1" s="502"/>
+      <c r="M1" s="502"/>
       <c r="N1" s="115">
         <v>101031.5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="508"/>
-      <c r="B2" s="508"/>
-      <c r="C2" s="508"/>
-      <c r="D2" s="508"/>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="508"/>
-      <c r="K2" s="508"/>
-      <c r="L2" s="508"/>
-      <c r="M2" s="508"/>
+      <c r="A2" s="502"/>
+      <c r="B2" s="502"/>
+      <c r="C2" s="502"/>
+      <c r="D2" s="502"/>
+      <c r="E2" s="502"/>
+      <c r="F2" s="502"/>
+      <c r="G2" s="502"/>
+      <c r="H2" s="502"/>
+      <c r="I2" s="502"/>
+      <c r="J2" s="502"/>
+      <c r="K2" s="502"/>
+      <c r="L2" s="502"/>
+      <c r="M2" s="502"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="116" t="s">
@@ -29764,15 +29764,15 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="504" t="s">
+      <c r="A4" s="506" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="505"/>
-      <c r="C4" s="505"/>
-      <c r="D4" s="505"/>
-      <c r="E4" s="505"/>
-      <c r="F4" s="505"/>
-      <c r="G4" s="505"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="507"/>
       <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -30414,36 +30414,36 @@
       <c r="M27" s="370"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="509" t="s">
+      <c r="A28" s="503" t="s">
         <v>408</v>
       </c>
-      <c r="B28" s="509"/>
-      <c r="C28" s="509"/>
-      <c r="D28" s="509"/>
-      <c r="E28" s="509"/>
-      <c r="F28" s="509"/>
-      <c r="G28" s="509"/>
-      <c r="H28" s="509"/>
-      <c r="I28" s="509"/>
-      <c r="J28" s="509"/>
-      <c r="K28" s="509"/>
-      <c r="L28" s="509"/>
-      <c r="M28" s="509"/>
+      <c r="B28" s="503"/>
+      <c r="C28" s="503"/>
+      <c r="D28" s="503"/>
+      <c r="E28" s="503"/>
+      <c r="F28" s="503"/>
+      <c r="G28" s="503"/>
+      <c r="H28" s="503"/>
+      <c r="I28" s="503"/>
+      <c r="J28" s="503"/>
+      <c r="K28" s="503"/>
+      <c r="L28" s="503"/>
+      <c r="M28" s="503"/>
     </row>
     <row r="29" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="509"/>
-      <c r="B29" s="509"/>
-      <c r="C29" s="509"/>
-      <c r="D29" s="509"/>
-      <c r="E29" s="509"/>
-      <c r="F29" s="509"/>
-      <c r="G29" s="509"/>
-      <c r="H29" s="509"/>
-      <c r="I29" s="509"/>
-      <c r="J29" s="509"/>
-      <c r="K29" s="509"/>
-      <c r="L29" s="509"/>
-      <c r="M29" s="509"/>
+      <c r="A29" s="503"/>
+      <c r="B29" s="503"/>
+      <c r="C29" s="503"/>
+      <c r="D29" s="503"/>
+      <c r="E29" s="503"/>
+      <c r="F29" s="503"/>
+      <c r="G29" s="503"/>
+      <c r="H29" s="503"/>
+      <c r="I29" s="503"/>
+      <c r="J29" s="503"/>
+      <c r="K29" s="503"/>
+      <c r="L29" s="503"/>
+      <c r="M29" s="503"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="116" t="s">
@@ -30485,15 +30485,15 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="504" t="s">
+      <c r="A31" s="506" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="505"/>
-      <c r="C31" s="505"/>
-      <c r="D31" s="505"/>
-      <c r="E31" s="505"/>
-      <c r="F31" s="505"/>
-      <c r="G31" s="505"/>
+      <c r="B31" s="507"/>
+      <c r="C31" s="507"/>
+      <c r="D31" s="507"/>
+      <c r="E31" s="507"/>
+      <c r="F31" s="507"/>
+      <c r="G31" s="507"/>
       <c r="M31" s="43"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -31146,14 +31146,14 @@
       <c r="M52" s="118"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="502" t="s">
+      <c r="A53" s="504" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="503"/>
-      <c r="C53" s="503"/>
-      <c r="D53" s="503"/>
-      <c r="E53" s="503"/>
-      <c r="F53" s="503"/>
+      <c r="B53" s="505"/>
+      <c r="C53" s="505"/>
+      <c r="D53" s="505"/>
+      <c r="E53" s="505"/>
+      <c r="F53" s="505"/>
       <c r="G53" s="187">
         <f>SUM(H53:L53)</f>
         <v>86065</v>
@@ -31181,38 +31181,38 @@
       <c r="M53" s="371"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="506" t="s">
+      <c r="A54" s="508" t="s">
         <v>289</v>
       </c>
-      <c r="B54" s="506"/>
-      <c r="C54" s="506"/>
-      <c r="D54" s="506"/>
-      <c r="E54" s="506"/>
-      <c r="F54" s="506"/>
-      <c r="G54" s="506"/>
-      <c r="H54" s="506"/>
-      <c r="I54" s="506"/>
-      <c r="J54" s="506"/>
-      <c r="K54" s="506"/>
-      <c r="L54" s="506"/>
+      <c r="B54" s="508"/>
+      <c r="C54" s="508"/>
+      <c r="D54" s="508"/>
+      <c r="E54" s="508"/>
+      <c r="F54" s="508"/>
+      <c r="G54" s="508"/>
+      <c r="H54" s="508"/>
+      <c r="I54" s="508"/>
+      <c r="J54" s="508"/>
+      <c r="K54" s="508"/>
+      <c r="L54" s="508"/>
       <c r="M54" s="365"/>
       <c r="N54" s="115">
         <v>101031.5</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="507"/>
-      <c r="B55" s="507"/>
-      <c r="C55" s="507"/>
-      <c r="D55" s="507"/>
-      <c r="E55" s="507"/>
-      <c r="F55" s="507"/>
-      <c r="G55" s="507"/>
-      <c r="H55" s="507"/>
-      <c r="I55" s="507"/>
-      <c r="J55" s="507"/>
-      <c r="K55" s="507"/>
-      <c r="L55" s="507"/>
+      <c r="A55" s="509"/>
+      <c r="B55" s="509"/>
+      <c r="C55" s="509"/>
+      <c r="D55" s="509"/>
+      <c r="E55" s="509"/>
+      <c r="F55" s="509"/>
+      <c r="G55" s="509"/>
+      <c r="H55" s="509"/>
+      <c r="I55" s="509"/>
+      <c r="J55" s="509"/>
+      <c r="K55" s="509"/>
+      <c r="L55" s="509"/>
       <c r="M55" s="365"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -31261,15 +31261,15 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="504" t="s">
+      <c r="A57" s="506" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="505"/>
-      <c r="C57" s="505"/>
-      <c r="D57" s="505"/>
-      <c r="E57" s="505"/>
-      <c r="F57" s="505"/>
-      <c r="G57" s="505"/>
+      <c r="B57" s="507"/>
+      <c r="C57" s="507"/>
+      <c r="D57" s="507"/>
+      <c r="E57" s="507"/>
+      <c r="F57" s="507"/>
+      <c r="G57" s="507"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="117">
@@ -31841,14 +31841,14 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="502" t="s">
+      <c r="A79" s="504" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="503"/>
-      <c r="C79" s="503"/>
-      <c r="D79" s="503"/>
-      <c r="E79" s="503"/>
-      <c r="F79" s="503"/>
+      <c r="B79" s="505"/>
+      <c r="C79" s="505"/>
+      <c r="D79" s="505"/>
+      <c r="E79" s="505"/>
+      <c r="F79" s="505"/>
       <c r="G79" s="187">
         <f>SUM(H79:L79)</f>
         <v>29710</v>
@@ -37366,21 +37366,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:243" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="539" t="s">
+      <c r="A1" s="528" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="539"/>
-      <c r="C1" s="539"/>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="B1" s="528"/>
+      <c r="C1" s="528"/>
+      <c r="D1" s="528"/>
+      <c r="E1" s="528"/>
+      <c r="F1" s="528"/>
+      <c r="G1" s="528"/>
+      <c r="H1" s="528"/>
+      <c r="I1" s="528"/>
+      <c r="J1" s="528"/>
+      <c r="K1" s="528"/>
+      <c r="L1" s="528"/>
+      <c r="M1" s="528"/>
       <c r="N1" s="334"/>
       <c r="O1" s="334"/>
       <c r="P1" s="334"/>
@@ -37613,19 +37613,19 @@
       <c r="II1" s="135"/>
     </row>
     <row r="2" spans="1:243" s="136" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="540"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="540"/>
-      <c r="M2" s="540"/>
+      <c r="A2" s="529"/>
+      <c r="B2" s="529"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="529"/>
+      <c r="J2" s="529"/>
+      <c r="K2" s="529"/>
+      <c r="L2" s="529"/>
+      <c r="M2" s="529"/>
       <c r="N2" s="335"/>
       <c r="O2" s="335"/>
       <c r="P2" s="335"/>
@@ -37858,60 +37858,60 @@
       <c r="II2" s="135"/>
     </row>
     <row r="3" spans="1:243" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="472" t="s">
+      <c r="A3" s="466" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="464" t="s">
+      <c r="B3" s="468" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="464" t="s">
+      <c r="C3" s="468" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="464" t="s">
+      <c r="D3" s="468" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="531" t="s">
+      <c r="E3" s="533" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="464" t="s">
+      <c r="F3" s="468" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="464" t="s">
+      <c r="G3" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="464" t="s">
+      <c r="H3" s="468" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="464" t="s">
+      <c r="I3" s="468" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="464" t="s">
+      <c r="J3" s="468" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="464" t="s">
+      <c r="K3" s="468" t="s">
         <v>229</v>
       </c>
-      <c r="L3" s="464" t="s">
+      <c r="L3" s="468" t="s">
         <v>236</v>
       </c>
-      <c r="M3" s="464" t="s">
+      <c r="M3" s="468" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="529"/>
-      <c r="B4" s="530"/>
-      <c r="C4" s="530"/>
-      <c r="D4" s="530"/>
-      <c r="E4" s="532"/>
-      <c r="F4" s="530"/>
-      <c r="G4" s="530"/>
-      <c r="H4" s="530"/>
-      <c r="I4" s="530"/>
-      <c r="J4" s="530"/>
-      <c r="K4" s="530"/>
-      <c r="L4" s="530"/>
-      <c r="M4" s="530"/>
+      <c r="A4" s="532"/>
+      <c r="B4" s="527"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="527"/>
+      <c r="E4" s="534"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="527"/>
+      <c r="I4" s="527"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="527"/>
     </row>
     <row r="5" spans="1:243" s="207" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="242" t="s">
@@ -38264,10 +38264,10 @@
       <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:243" x14ac:dyDescent="0.3">
-      <c r="A16" s="533">
+      <c r="A16" s="535">
         <v>4</v>
       </c>
-      <c r="B16" s="536" t="s">
+      <c r="B16" s="538" t="s">
         <v>356</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -38294,8 +38294,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="534"/>
-      <c r="B17" s="537"/>
+      <c r="A17" s="536"/>
+      <c r="B17" s="539"/>
       <c r="C17" s="39" t="s">
         <v>362</v>
       </c>
@@ -38326,8 +38326,8 @@
       <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="535"/>
-      <c r="B18" s="538"/>
+      <c r="A18" s="537"/>
+      <c r="B18" s="540"/>
       <c r="C18" s="39" t="s">
         <v>364</v>
       </c>
@@ -38688,14 +38688,14 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="527" t="s">
+      <c r="A30" s="530" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="528"/>
-      <c r="C30" s="528"/>
-      <c r="D30" s="528"/>
-      <c r="E30" s="528"/>
-      <c r="F30" s="528"/>
+      <c r="B30" s="531"/>
+      <c r="C30" s="531"/>
+      <c r="D30" s="531"/>
+      <c r="E30" s="531"/>
+      <c r="F30" s="531"/>
       <c r="G30" s="202">
         <f>SUM(H30:L30)</f>
         <v>84775</v>
@@ -38723,14 +38723,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -38740,6 +38732,14 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -39312,34 +39312,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="149" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="480" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
-      <c r="K1" s="488"/>
-      <c r="L1" s="488"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
+      <c r="F1" s="481"/>
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+      <c r="I1" s="481"/>
+      <c r="J1" s="481"/>
+      <c r="K1" s="481"/>
+      <c r="L1" s="481"/>
     </row>
     <row r="2" spans="1:12" s="149" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="487"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
-      <c r="K2" s="488"/>
-      <c r="L2" s="488"/>
+      <c r="A2" s="480"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
+      <c r="I2" s="481"/>
+      <c r="J2" s="481"/>
+      <c r="K2" s="481"/>
+      <c r="L2" s="481"/>
     </row>
     <row r="3" spans="1:12" s="137" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
@@ -40067,11 +40067,11 @@
       <c r="L25" s="94"/>
     </row>
     <row r="26" spans="1:12" s="151" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="482" t="s">
+      <c r="A26" s="486" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="483"/>
-      <c r="C26" s="484"/>
+      <c r="B26" s="488"/>
+      <c r="C26" s="487"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="61"/>
@@ -40112,14 +40112,14 @@
       <c r="L27" s="94"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="480" t="s">
+      <c r="A28" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="481"/>
-      <c r="C28" s="481"/>
-      <c r="D28" s="481"/>
-      <c r="E28" s="481"/>
-      <c r="F28" s="481"/>
+      <c r="B28" s="485"/>
+      <c r="C28" s="485"/>
+      <c r="D28" s="485"/>
+      <c r="E28" s="485"/>
+      <c r="F28" s="485"/>
       <c r="G28" s="95">
         <f>SUM(H28:L28)</f>
         <v>134900</v>
@@ -40774,19 +40774,19 @@
       <c r="S1" s="336"/>
     </row>
     <row r="2" spans="1:19" s="149" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="487"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
-      <c r="K2" s="488"/>
-      <c r="L2" s="488"/>
-      <c r="M2" s="488"/>
+      <c r="A2" s="480"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
+      <c r="I2" s="481"/>
+      <c r="J2" s="481"/>
+      <c r="K2" s="481"/>
+      <c r="L2" s="481"/>
+      <c r="M2" s="481"/>
       <c r="N2" s="330"/>
       <c r="O2" s="330"/>
       <c r="P2" s="330"/>
@@ -40812,14 +40812,14 @@
       <c r="G3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="489" t="s">
+      <c r="H3" s="482" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="490"/>
-      <c r="J3" s="490"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="490"/>
-      <c r="M3" s="490"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
+      <c r="K3" s="483"/>
+      <c r="L3" s="483"/>
+      <c r="M3" s="483"/>
       <c r="N3" s="333"/>
       <c r="O3" s="333"/>
       <c r="P3" s="333"/>
@@ -41476,14 +41476,14 @@
       <c r="S17" s="235"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="480" t="s">
+      <c r="A18" s="484" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="481"/>
-      <c r="C18" s="481"/>
-      <c r="D18" s="481"/>
-      <c r="E18" s="481"/>
-      <c r="F18" s="481"/>
+      <c r="B18" s="485"/>
+      <c r="C18" s="485"/>
+      <c r="D18" s="485"/>
+      <c r="E18" s="485"/>
+      <c r="F18" s="485"/>
       <c r="G18" s="95">
         <f>SUM(H18:S18)</f>
         <v>24979.67</v>

--- a/Programacion de la Ejecucion de Proyectos/PROYECTADO ORFEI AGOSTO DICIEMBRE.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/PROYECTADO ORFEI AGOSTO DICIEMBRE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA986FA5-41FC-46F5-B250-FE57F7C8AF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878D2BC-CBEB-4C6C-8BFB-62C68EF1EB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="336" windowWidth="14628" windowHeight="16344" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2400" yWindow="288" windowWidth="12360" windowHeight="12072" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RES X FUN" sheetId="8" r:id="rId1"/>
@@ -3881,6 +3881,39 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="16" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3890,24 +3923,6 @@
     <xf numFmtId="164" fontId="16" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="16" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3917,20 +3932,26 @@
     <xf numFmtId="164" fontId="16" fillId="16" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3944,30 +3965,21 @@
     <xf numFmtId="4" fontId="20" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3986,18 +3998,6 @@
     <xf numFmtId="0" fontId="34" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4073,47 +4073,47 @@
     <xf numFmtId="165" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="20" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="20" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="15" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="15" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="20" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="20" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="20" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="15" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="15" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -17385,16 +17385,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="149" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="487" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="481"/>
-      <c r="G1" s="481"/>
-      <c r="H1" s="481"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
       <c r="I1" s="330"/>
       <c r="J1" s="330"/>
       <c r="K1" s="330"/>
@@ -17408,14 +17408,14 @@
       <c r="S1" s="330"/>
     </row>
     <row r="2" spans="1:19" s="149" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="480"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="481"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
       <c r="I2" s="330"/>
       <c r="J2" s="330"/>
       <c r="K2" s="330"/>
@@ -17641,14 +17641,14 @@
       <c r="S7" s="94"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="484" t="s">
+      <c r="A8" s="480" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="485"/>
-      <c r="C8" s="485"/>
-      <c r="D8" s="485"/>
-      <c r="E8" s="485"/>
-      <c r="F8" s="485"/>
+      <c r="B8" s="481"/>
+      <c r="C8" s="481"/>
+      <c r="D8" s="481"/>
+      <c r="E8" s="481"/>
+      <c r="F8" s="481"/>
       <c r="G8" s="95">
         <f>SUM(H8:S8)</f>
         <v>0</v>
@@ -17746,21 +17746,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:252" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="463" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="478"/>
-      <c r="G1" s="478"/>
-      <c r="H1" s="478"/>
-      <c r="I1" s="478"/>
-      <c r="J1" s="478"/>
-      <c r="K1" s="478"/>
-      <c r="L1" s="478"/>
-      <c r="M1" s="478"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
+      <c r="F1" s="463"/>
+      <c r="G1" s="463"/>
+      <c r="H1" s="463"/>
+      <c r="I1" s="463"/>
+      <c r="J1" s="463"/>
+      <c r="K1" s="463"/>
+      <c r="L1" s="463"/>
+      <c r="M1" s="463"/>
       <c r="N1" s="331"/>
       <c r="O1" s="331"/>
       <c r="P1" s="331"/>
@@ -18002,19 +18002,19 @@
       <c r="IR1" s="135"/>
     </row>
     <row r="2" spans="1:252" s="136" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="478"/>
-      <c r="B2" s="478"/>
-      <c r="C2" s="478"/>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
-      <c r="K2" s="478"/>
-      <c r="L2" s="478"/>
-      <c r="M2" s="478"/>
+      <c r="A2" s="463"/>
+      <c r="B2" s="463"/>
+      <c r="C2" s="463"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="463"/>
+      <c r="F2" s="463"/>
+      <c r="G2" s="463"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="463"/>
+      <c r="J2" s="463"/>
+      <c r="K2" s="463"/>
+      <c r="L2" s="463"/>
+      <c r="M2" s="463"/>
       <c r="N2" s="331"/>
       <c r="O2" s="331"/>
       <c r="P2" s="331"/>
@@ -18256,84 +18256,84 @@
       <c r="IR2" s="135"/>
     </row>
     <row r="3" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="466" t="s">
+      <c r="A3" s="472" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="468" t="s">
+      <c r="B3" s="464" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="468" t="s">
+      <c r="C3" s="464" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="468" t="s">
+      <c r="D3" s="464" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="470" t="s">
+      <c r="E3" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="468" t="s">
+      <c r="F3" s="464" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="468" t="s">
+      <c r="G3" s="464" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="475" t="s">
+      <c r="H3" s="468" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="475" t="s">
+      <c r="I3" s="468" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="468" t="s">
+      <c r="J3" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="468" t="s">
+      <c r="K3" s="464" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="468" t="s">
+      <c r="L3" s="464" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="468" t="s">
+      <c r="M3" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="468" t="s">
+      <c r="N3" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="468" t="s">
+      <c r="O3" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="468" t="s">
+      <c r="P3" s="464" t="s">
         <v>204</v>
       </c>
-      <c r="Q3" s="468" t="s">
+      <c r="Q3" s="464" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="468" t="s">
+      <c r="R3" s="464" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="468" t="s">
+      <c r="S3" s="464" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="467"/>
-      <c r="B4" s="469"/>
-      <c r="C4" s="469"/>
-      <c r="D4" s="469"/>
-      <c r="E4" s="471"/>
-      <c r="F4" s="469"/>
-      <c r="G4" s="469"/>
-      <c r="H4" s="476"/>
-      <c r="I4" s="476"/>
-      <c r="J4" s="469"/>
-      <c r="K4" s="469"/>
-      <c r="L4" s="469"/>
-      <c r="M4" s="469"/>
-      <c r="N4" s="469"/>
-      <c r="O4" s="469"/>
-      <c r="P4" s="469"/>
-      <c r="Q4" s="469"/>
-      <c r="R4" s="469"/>
-      <c r="S4" s="469"/>
+      <c r="A4" s="473"/>
+      <c r="B4" s="465"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="467"/>
+      <c r="F4" s="465"/>
+      <c r="G4" s="465"/>
+      <c r="H4" s="469"/>
+      <c r="I4" s="469"/>
+      <c r="J4" s="465"/>
+      <c r="K4" s="465"/>
+      <c r="L4" s="465"/>
+      <c r="M4" s="465"/>
+      <c r="N4" s="465"/>
+      <c r="O4" s="465"/>
+      <c r="P4" s="465"/>
+      <c r="Q4" s="465"/>
+      <c r="R4" s="465"/>
+      <c r="S4" s="465"/>
     </row>
     <row r="5" spans="1:252" s="130" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="226" t="s">
@@ -18967,11 +18967,11 @@
       <c r="S19" s="43"/>
     </row>
     <row r="20" spans="1:252" s="146" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="463" t="s">
+      <c r="A20" s="474" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="464"/>
-      <c r="C20" s="465"/>
+      <c r="B20" s="475"/>
+      <c r="C20" s="476"/>
       <c r="D20" s="190"/>
       <c r="E20" s="190"/>
       <c r="F20" s="190"/>
@@ -19029,21 +19029,21 @@
       </c>
     </row>
     <row r="21" spans="1:252" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="478" t="s">
+      <c r="A21" s="463" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="478"/>
-      <c r="C21" s="478"/>
-      <c r="D21" s="478"/>
-      <c r="E21" s="478"/>
-      <c r="F21" s="478"/>
-      <c r="G21" s="478"/>
-      <c r="H21" s="478"/>
-      <c r="I21" s="478"/>
-      <c r="J21" s="478"/>
-      <c r="K21" s="478"/>
-      <c r="L21" s="478"/>
-      <c r="M21" s="478"/>
+      <c r="B21" s="463"/>
+      <c r="C21" s="463"/>
+      <c r="D21" s="463"/>
+      <c r="E21" s="463"/>
+      <c r="F21" s="463"/>
+      <c r="G21" s="463"/>
+      <c r="H21" s="463"/>
+      <c r="I21" s="463"/>
+      <c r="J21" s="463"/>
+      <c r="K21" s="463"/>
+      <c r="L21" s="463"/>
+      <c r="M21" s="463"/>
       <c r="N21" s="331"/>
       <c r="O21" s="331"/>
       <c r="P21" s="331"/>
@@ -19285,19 +19285,19 @@
       <c r="IR21" s="135"/>
     </row>
     <row r="22" spans="1:252" s="136" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="478"/>
-      <c r="B22" s="478"/>
-      <c r="C22" s="478"/>
-      <c r="D22" s="478"/>
-      <c r="E22" s="478"/>
-      <c r="F22" s="478"/>
-      <c r="G22" s="478"/>
-      <c r="H22" s="478"/>
-      <c r="I22" s="478"/>
-      <c r="J22" s="478"/>
-      <c r="K22" s="478"/>
-      <c r="L22" s="478"/>
-      <c r="M22" s="478"/>
+      <c r="A22" s="463"/>
+      <c r="B22" s="463"/>
+      <c r="C22" s="463"/>
+      <c r="D22" s="463"/>
+      <c r="E22" s="463"/>
+      <c r="F22" s="463"/>
+      <c r="G22" s="463"/>
+      <c r="H22" s="463"/>
+      <c r="I22" s="463"/>
+      <c r="J22" s="463"/>
+      <c r="K22" s="463"/>
+      <c r="L22" s="463"/>
+      <c r="M22" s="463"/>
       <c r="N22" s="331"/>
       <c r="O22" s="331"/>
       <c r="P22" s="331"/>
@@ -19539,84 +19539,84 @@
       <c r="IR22" s="135"/>
     </row>
     <row r="23" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="466" t="s">
+      <c r="A23" s="472" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="468" t="s">
+      <c r="B23" s="464" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="468" t="s">
+      <c r="C23" s="464" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="468" t="s">
+      <c r="D23" s="464" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="470" t="s">
+      <c r="E23" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="468" t="s">
+      <c r="F23" s="464" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="468" t="s">
+      <c r="G23" s="464" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="475" t="s">
+      <c r="H23" s="468" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="475" t="s">
+      <c r="I23" s="468" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="468" t="s">
+      <c r="J23" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="468" t="s">
+      <c r="K23" s="464" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="468" t="s">
+      <c r="L23" s="464" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="468" t="s">
+      <c r="M23" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N23" s="468" t="s">
+      <c r="N23" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="468" t="s">
+      <c r="O23" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="468" t="s">
+      <c r="P23" s="464" t="s">
         <v>204</v>
       </c>
-      <c r="Q23" s="468" t="s">
+      <c r="Q23" s="464" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="468" t="s">
+      <c r="R23" s="464" t="s">
         <v>227</v>
       </c>
-      <c r="S23" s="468" t="s">
+      <c r="S23" s="464" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="467"/>
-      <c r="B24" s="469"/>
-      <c r="C24" s="469"/>
-      <c r="D24" s="469"/>
-      <c r="E24" s="471"/>
-      <c r="F24" s="469"/>
-      <c r="G24" s="469"/>
-      <c r="H24" s="476"/>
-      <c r="I24" s="476"/>
-      <c r="J24" s="469"/>
-      <c r="K24" s="469"/>
-      <c r="L24" s="469"/>
-      <c r="M24" s="469"/>
-      <c r="N24" s="469"/>
-      <c r="O24" s="469"/>
-      <c r="P24" s="469"/>
-      <c r="Q24" s="469"/>
-      <c r="R24" s="469"/>
-      <c r="S24" s="469"/>
+      <c r="A24" s="473"/>
+      <c r="B24" s="465"/>
+      <c r="C24" s="465"/>
+      <c r="D24" s="465"/>
+      <c r="E24" s="467"/>
+      <c r="F24" s="465"/>
+      <c r="G24" s="465"/>
+      <c r="H24" s="469"/>
+      <c r="I24" s="469"/>
+      <c r="J24" s="465"/>
+      <c r="K24" s="465"/>
+      <c r="L24" s="465"/>
+      <c r="M24" s="465"/>
+      <c r="N24" s="465"/>
+      <c r="O24" s="465"/>
+      <c r="P24" s="465"/>
+      <c r="Q24" s="465"/>
+      <c r="R24" s="465"/>
+      <c r="S24" s="465"/>
     </row>
     <row r="25" spans="1:252" s="130" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="226" t="s">
@@ -20211,11 +20211,11 @@
       <c r="I38" s="40"/>
     </row>
     <row r="39" spans="1:252" s="146" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="472" t="s">
+      <c r="A39" s="477" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="473"/>
-      <c r="C39" s="474"/>
+      <c r="B39" s="478"/>
+      <c r="C39" s="479"/>
       <c r="D39" s="222"/>
       <c r="E39" s="222"/>
       <c r="F39" s="222"/>
@@ -20273,21 +20273,21 @@
       </c>
     </row>
     <row r="40" spans="1:252" s="136" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="479" t="s">
+      <c r="A40" s="470" t="s">
         <v>255</v>
       </c>
-      <c r="B40" s="479"/>
-      <c r="C40" s="479"/>
-      <c r="D40" s="479"/>
-      <c r="E40" s="479"/>
-      <c r="F40" s="479"/>
-      <c r="G40" s="479"/>
-      <c r="H40" s="479"/>
-      <c r="I40" s="479"/>
-      <c r="J40" s="479"/>
-      <c r="K40" s="479"/>
-      <c r="L40" s="479"/>
-      <c r="M40" s="479"/>
+      <c r="B40" s="470"/>
+      <c r="C40" s="470"/>
+      <c r="D40" s="470"/>
+      <c r="E40" s="470"/>
+      <c r="F40" s="470"/>
+      <c r="G40" s="470"/>
+      <c r="H40" s="470"/>
+      <c r="I40" s="470"/>
+      <c r="J40" s="470"/>
+      <c r="K40" s="470"/>
+      <c r="L40" s="470"/>
+      <c r="M40" s="470"/>
       <c r="N40" s="332"/>
       <c r="O40" s="332"/>
       <c r="P40" s="332"/>
@@ -20529,19 +20529,19 @@
       <c r="IR40" s="135"/>
     </row>
     <row r="41" spans="1:252" s="136" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="479"/>
-      <c r="B41" s="479"/>
-      <c r="C41" s="479"/>
-      <c r="D41" s="479"/>
-      <c r="E41" s="479"/>
-      <c r="F41" s="479"/>
-      <c r="G41" s="479"/>
-      <c r="H41" s="479"/>
-      <c r="I41" s="479"/>
-      <c r="J41" s="479"/>
-      <c r="K41" s="479"/>
-      <c r="L41" s="479"/>
-      <c r="M41" s="479"/>
+      <c r="A41" s="470"/>
+      <c r="B41" s="470"/>
+      <c r="C41" s="470"/>
+      <c r="D41" s="470"/>
+      <c r="E41" s="470"/>
+      <c r="F41" s="470"/>
+      <c r="G41" s="470"/>
+      <c r="H41" s="470"/>
+      <c r="I41" s="470"/>
+      <c r="J41" s="470"/>
+      <c r="K41" s="470"/>
+      <c r="L41" s="470"/>
+      <c r="M41" s="470"/>
       <c r="N41" s="332"/>
       <c r="O41" s="332"/>
       <c r="P41" s="332"/>
@@ -20783,84 +20783,84 @@
       <c r="IR41" s="135"/>
     </row>
     <row r="42" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="466" t="s">
+      <c r="A42" s="472" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="468" t="s">
+      <c r="B42" s="464" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="468" t="s">
+      <c r="C42" s="464" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="468" t="s">
+      <c r="D42" s="464" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="470" t="s">
+      <c r="E42" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="468" t="s">
+      <c r="F42" s="464" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="468" t="s">
+      <c r="G42" s="464" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="475" t="s">
+      <c r="H42" s="468" t="s">
         <v>108</v>
       </c>
-      <c r="I42" s="475" t="s">
+      <c r="I42" s="468" t="s">
         <v>97</v>
       </c>
-      <c r="J42" s="468" t="s">
+      <c r="J42" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="468" t="s">
+      <c r="K42" s="464" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="468" t="s">
+      <c r="L42" s="464" t="s">
         <v>7</v>
       </c>
-      <c r="M42" s="468" t="s">
+      <c r="M42" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N42" s="468" t="s">
+      <c r="N42" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="468" t="s">
+      <c r="O42" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="P42" s="468" t="s">
+      <c r="P42" s="464" t="s">
         <v>204</v>
       </c>
-      <c r="Q42" s="468" t="s">
+      <c r="Q42" s="464" t="s">
         <v>101</v>
       </c>
-      <c r="R42" s="468" t="s">
+      <c r="R42" s="464" t="s">
         <v>227</v>
       </c>
-      <c r="S42" s="468" t="s">
+      <c r="S42" s="464" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="467"/>
-      <c r="B43" s="469"/>
-      <c r="C43" s="469"/>
-      <c r="D43" s="469"/>
-      <c r="E43" s="471"/>
-      <c r="F43" s="469"/>
-      <c r="G43" s="469"/>
-      <c r="H43" s="476"/>
-      <c r="I43" s="476"/>
-      <c r="J43" s="469"/>
-      <c r="K43" s="469"/>
-      <c r="L43" s="469"/>
-      <c r="M43" s="469"/>
-      <c r="N43" s="469"/>
-      <c r="O43" s="469"/>
-      <c r="P43" s="469"/>
-      <c r="Q43" s="469"/>
-      <c r="R43" s="469"/>
-      <c r="S43" s="469"/>
+      <c r="A43" s="473"/>
+      <c r="B43" s="465"/>
+      <c r="C43" s="465"/>
+      <c r="D43" s="465"/>
+      <c r="E43" s="467"/>
+      <c r="F43" s="465"/>
+      <c r="G43" s="465"/>
+      <c r="H43" s="469"/>
+      <c r="I43" s="469"/>
+      <c r="J43" s="465"/>
+      <c r="K43" s="465"/>
+      <c r="L43" s="465"/>
+      <c r="M43" s="465"/>
+      <c r="N43" s="465"/>
+      <c r="O43" s="465"/>
+      <c r="P43" s="465"/>
+      <c r="Q43" s="465"/>
+      <c r="R43" s="465"/>
+      <c r="S43" s="465"/>
     </row>
     <row r="44" spans="1:252" s="130" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="226" t="s">
@@ -21704,11 +21704,11 @@
       <c r="S62" s="43"/>
     </row>
     <row r="63" spans="1:252" s="146" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="463" t="s">
+      <c r="A63" s="474" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="464"/>
-      <c r="C63" s="465"/>
+      <c r="B63" s="475"/>
+      <c r="C63" s="476"/>
       <c r="D63" s="190"/>
       <c r="E63" s="190"/>
       <c r="F63" s="190"/>
@@ -21766,21 +21766,21 @@
       </c>
     </row>
     <row r="64" spans="1:252" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="479" t="s">
+      <c r="A64" s="470" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="479"/>
-      <c r="C64" s="479"/>
-      <c r="D64" s="479"/>
-      <c r="E64" s="479"/>
-      <c r="F64" s="479"/>
-      <c r="G64" s="479"/>
-      <c r="H64" s="479"/>
-      <c r="I64" s="479"/>
-      <c r="J64" s="479"/>
-      <c r="K64" s="479"/>
-      <c r="L64" s="479"/>
-      <c r="M64" s="479"/>
+      <c r="B64" s="470"/>
+      <c r="C64" s="470"/>
+      <c r="D64" s="470"/>
+      <c r="E64" s="470"/>
+      <c r="F64" s="470"/>
+      <c r="G64" s="470"/>
+      <c r="H64" s="470"/>
+      <c r="I64" s="470"/>
+      <c r="J64" s="470"/>
+      <c r="K64" s="470"/>
+      <c r="L64" s="470"/>
+      <c r="M64" s="470"/>
       <c r="N64" s="332"/>
       <c r="O64" s="332"/>
       <c r="P64" s="332"/>
@@ -22022,19 +22022,19 @@
       <c r="IR64" s="135"/>
     </row>
     <row r="65" spans="1:252" s="136" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="479"/>
-      <c r="B65" s="479"/>
-      <c r="C65" s="479"/>
-      <c r="D65" s="479"/>
-      <c r="E65" s="479"/>
-      <c r="F65" s="479"/>
-      <c r="G65" s="479"/>
-      <c r="H65" s="479"/>
-      <c r="I65" s="479"/>
-      <c r="J65" s="479"/>
-      <c r="K65" s="479"/>
-      <c r="L65" s="479"/>
-      <c r="M65" s="479"/>
+      <c r="A65" s="470"/>
+      <c r="B65" s="470"/>
+      <c r="C65" s="470"/>
+      <c r="D65" s="470"/>
+      <c r="E65" s="470"/>
+      <c r="F65" s="470"/>
+      <c r="G65" s="470"/>
+      <c r="H65" s="470"/>
+      <c r="I65" s="470"/>
+      <c r="J65" s="470"/>
+      <c r="K65" s="470"/>
+      <c r="L65" s="470"/>
+      <c r="M65" s="470"/>
       <c r="N65" s="332"/>
       <c r="O65" s="332"/>
       <c r="P65" s="332"/>
@@ -22276,84 +22276,84 @@
       <c r="IR65" s="135"/>
     </row>
     <row r="66" spans="1:252" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="466" t="s">
+      <c r="A66" s="472" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="468" t="s">
+      <c r="B66" s="464" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="468" t="s">
+      <c r="C66" s="464" t="s">
         <v>111</v>
       </c>
-      <c r="D66" s="468" t="s">
+      <c r="D66" s="464" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="470" t="s">
+      <c r="E66" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="468" t="s">
+      <c r="F66" s="464" t="s">
         <v>89</v>
       </c>
-      <c r="G66" s="468" t="s">
+      <c r="G66" s="464" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="475" t="s">
+      <c r="H66" s="468" t="s">
         <v>108</v>
       </c>
-      <c r="I66" s="475" t="s">
+      <c r="I66" s="468" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="468" t="s">
+      <c r="J66" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="468" t="s">
+      <c r="K66" s="464" t="s">
         <v>6</v>
       </c>
-      <c r="L66" s="468" t="s">
+      <c r="L66" s="464" t="s">
         <v>7</v>
       </c>
-      <c r="M66" s="468" t="s">
+      <c r="M66" s="464" t="s">
         <v>152</v>
       </c>
-      <c r="N66" s="468" t="s">
+      <c r="N66" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="O66" s="468" t="s">
+      <c r="O66" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="P66" s="468" t="s">
+      <c r="P66" s="464" t="s">
         <v>204</v>
       </c>
-      <c r="Q66" s="468" t="s">
+      <c r="Q66" s="464" t="s">
         <v>101</v>
       </c>
-      <c r="R66" s="468" t="s">
+      <c r="R66" s="464" t="s">
         <v>227</v>
       </c>
-      <c r="S66" s="468" t="s">
+      <c r="S66" s="464" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:252" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="467"/>
-      <c r="B67" s="469"/>
-      <c r="C67" s="469"/>
-      <c r="D67" s="469"/>
-      <c r="E67" s="471"/>
-      <c r="F67" s="469"/>
-      <c r="G67" s="469"/>
-      <c r="H67" s="476"/>
-      <c r="I67" s="476"/>
-      <c r="J67" s="469"/>
-      <c r="K67" s="469"/>
-      <c r="L67" s="469"/>
-      <c r="M67" s="469"/>
-      <c r="N67" s="469"/>
-      <c r="O67" s="469"/>
-      <c r="P67" s="469"/>
-      <c r="Q67" s="469"/>
-      <c r="R67" s="469"/>
-      <c r="S67" s="469"/>
+      <c r="A67" s="473"/>
+      <c r="B67" s="465"/>
+      <c r="C67" s="465"/>
+      <c r="D67" s="465"/>
+      <c r="E67" s="467"/>
+      <c r="F67" s="465"/>
+      <c r="G67" s="465"/>
+      <c r="H67" s="469"/>
+      <c r="I67" s="469"/>
+      <c r="J67" s="465"/>
+      <c r="K67" s="465"/>
+      <c r="L67" s="465"/>
+      <c r="M67" s="465"/>
+      <c r="N67" s="465"/>
+      <c r="O67" s="465"/>
+      <c r="P67" s="465"/>
+      <c r="Q67" s="465"/>
+      <c r="R67" s="465"/>
+      <c r="S67" s="465"/>
     </row>
     <row r="68" spans="1:252" s="130" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="226" t="s">
@@ -22969,11 +22969,11 @@
       <c r="S82" s="43"/>
     </row>
     <row r="83" spans="1:19" s="146" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="463" t="s">
+      <c r="A83" s="474" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="464"/>
-      <c r="C83" s="465"/>
+      <c r="B83" s="475"/>
+      <c r="C83" s="476"/>
       <c r="D83" s="190"/>
       <c r="E83" s="190"/>
       <c r="F83" s="190"/>
@@ -23031,14 +23031,14 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="477" t="s">
+      <c r="A84" s="471" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="477"/>
-      <c r="C84" s="477"/>
-      <c r="D84" s="477"/>
-      <c r="E84" s="477"/>
-      <c r="F84" s="477"/>
+      <c r="B84" s="471"/>
+      <c r="C84" s="471"/>
+      <c r="D84" s="471"/>
+      <c r="E84" s="471"/>
+      <c r="F84" s="471"/>
       <c r="G84" s="189">
         <f>SUM(H84:S84)</f>
         <v>72946.222222222001</v>
@@ -23099,23 +23099,58 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A21:M22"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
@@ -23132,58 +23167,23 @@
     <mergeCell ref="P42:P43"/>
     <mergeCell ref="A40:M41"/>
     <mergeCell ref="A64:M65"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A21:M22"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="1.01" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
@@ -23201,8 +23201,8 @@
   </sheetPr>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A51" zoomScale="85" zoomScaleNormal="110" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -23788,36 +23788,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="487" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="481"/>
-      <c r="G1" s="481"/>
-      <c r="H1" s="481"/>
-      <c r="I1" s="481"/>
-      <c r="J1" s="481"/>
-      <c r="K1" s="481"/>
-      <c r="L1" s="481"/>
-      <c r="M1" s="481"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
+      <c r="K1" s="488"/>
+      <c r="L1" s="488"/>
+      <c r="M1" s="488"/>
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="480"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="481"/>
-      <c r="I2" s="481"/>
-      <c r="J2" s="481"/>
-      <c r="K2" s="481"/>
-      <c r="L2" s="481"/>
-      <c r="M2" s="481"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
+      <c r="K2" s="488"/>
+      <c r="L2" s="488"/>
+      <c r="M2" s="488"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
@@ -23839,13 +23839,13 @@
       <c r="G3" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="489" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="483"/>
-      <c r="J3" s="483"/>
-      <c r="K3" s="483"/>
-      <c r="L3" s="483"/>
+      <c r="I3" s="490"/>
+      <c r="J3" s="490"/>
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
       <c r="M3" s="409" t="s">
         <v>320</v>
       </c>
@@ -23855,10 +23855,10 @@
       <c r="Q3" s="410"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="486" t="s">
+      <c r="A4" s="482" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="487"/>
+      <c r="B4" s="484"/>
       <c r="C4" s="59"/>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -24074,10 +24074,10 @@
       <c r="M10" s="411"/>
     </row>
     <row r="11" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="486" t="s">
+      <c r="A11" s="482" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="488"/>
+      <c r="B11" s="483"/>
       <c r="C11" s="87"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -24246,10 +24246,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="486" t="s">
+      <c r="A17" s="482" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="488"/>
+      <c r="B17" s="483"/>
       <c r="C17" s="87"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -24341,10 +24341,10 @@
       <c r="M19" s="414"/>
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="486" t="s">
+      <c r="A20" s="482" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="488"/>
+      <c r="B20" s="483"/>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
@@ -24388,10 +24388,10 @@
       <c r="M21" s="414"/>
     </row>
     <row r="22" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="489" t="s">
+      <c r="A22" s="485" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="490"/>
+      <c r="B22" s="486"/>
       <c r="C22" s="87"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -24437,14 +24437,14 @@
       <c r="M23" s="414"/>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="484" t="s">
+      <c r="A24" s="480" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="485"/>
-      <c r="C24" s="485"/>
-      <c r="D24" s="485"/>
-      <c r="E24" s="485"/>
-      <c r="F24" s="485"/>
+      <c r="B24" s="481"/>
+      <c r="C24" s="481"/>
+      <c r="D24" s="481"/>
+      <c r="E24" s="481"/>
+      <c r="F24" s="481"/>
       <c r="G24" s="320">
         <f>SUM(H24:L24)</f>
         <v>58305</v>
@@ -24502,36 +24502,36 @@
       <c r="M26" s="322"/>
     </row>
     <row r="27" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="480" t="s">
+      <c r="A27" s="487" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="481"/>
-      <c r="C27" s="481"/>
-      <c r="D27" s="481"/>
-      <c r="E27" s="481"/>
-      <c r="F27" s="481"/>
-      <c r="G27" s="481"/>
-      <c r="H27" s="481"/>
-      <c r="I27" s="481"/>
-      <c r="J27" s="481"/>
-      <c r="K27" s="481"/>
-      <c r="L27" s="481"/>
-      <c r="M27" s="481"/>
+      <c r="B27" s="488"/>
+      <c r="C27" s="488"/>
+      <c r="D27" s="488"/>
+      <c r="E27" s="488"/>
+      <c r="F27" s="488"/>
+      <c r="G27" s="488"/>
+      <c r="H27" s="488"/>
+      <c r="I27" s="488"/>
+      <c r="J27" s="488"/>
+      <c r="K27" s="488"/>
+      <c r="L27" s="488"/>
+      <c r="M27" s="488"/>
     </row>
     <row r="28" spans="1:13" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="480"/>
-      <c r="B28" s="481"/>
-      <c r="C28" s="481"/>
-      <c r="D28" s="481"/>
-      <c r="E28" s="481"/>
-      <c r="F28" s="481"/>
-      <c r="G28" s="481"/>
-      <c r="H28" s="481"/>
-      <c r="I28" s="481"/>
-      <c r="J28" s="481"/>
-      <c r="K28" s="481"/>
-      <c r="L28" s="481"/>
-      <c r="M28" s="481"/>
+      <c r="A28" s="487"/>
+      <c r="B28" s="488"/>
+      <c r="C28" s="488"/>
+      <c r="D28" s="488"/>
+      <c r="E28" s="488"/>
+      <c r="F28" s="488"/>
+      <c r="G28" s="488"/>
+      <c r="H28" s="488"/>
+      <c r="I28" s="488"/>
+      <c r="J28" s="488"/>
+      <c r="K28" s="488"/>
+      <c r="L28" s="488"/>
+      <c r="M28" s="488"/>
     </row>
     <row r="29" spans="1:13" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
@@ -24553,22 +24553,22 @@
       <c r="G29" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="482" t="s">
+      <c r="H29" s="489" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="483"/>
-      <c r="J29" s="483"/>
-      <c r="K29" s="483"/>
-      <c r="L29" s="483"/>
+      <c r="I29" s="490"/>
+      <c r="J29" s="490"/>
+      <c r="K29" s="490"/>
+      <c r="L29" s="490"/>
       <c r="M29" s="409" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="486" t="s">
+      <c r="A30" s="482" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="487"/>
+      <c r="B30" s="484"/>
       <c r="C30" s="87"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -24802,10 +24802,10 @@
       <c r="M36" s="411"/>
     </row>
     <row r="37" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="486" t="s">
+      <c r="A37" s="482" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="488"/>
+      <c r="B37" s="483"/>
       <c r="C37" s="87"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
@@ -25048,10 +25048,10 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="486" t="s">
+      <c r="A46" s="482" t="s">
         <v>196</v>
       </c>
-      <c r="B46" s="488"/>
+      <c r="B46" s="483"/>
       <c r="C46" s="87"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
@@ -25095,10 +25095,10 @@
       <c r="M47" s="414"/>
     </row>
     <row r="48" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="486" t="s">
+      <c r="A48" s="482" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="488"/>
+      <c r="B48" s="483"/>
       <c r="C48" s="87"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
@@ -25142,10 +25142,10 @@
       <c r="M49" s="43"/>
     </row>
     <row r="50" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="486" t="s">
+      <c r="A50" s="482" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="488"/>
+      <c r="B50" s="483"/>
       <c r="C50" s="87"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
@@ -25189,14 +25189,14 @@
       <c r="M51" s="21"/>
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="484" t="s">
+      <c r="A52" s="480" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="485"/>
-      <c r="C52" s="485"/>
-      <c r="D52" s="485"/>
-      <c r="E52" s="485"/>
-      <c r="F52" s="485"/>
+      <c r="B52" s="481"/>
+      <c r="C52" s="481"/>
+      <c r="D52" s="481"/>
+      <c r="E52" s="481"/>
+      <c r="F52" s="481"/>
       <c r="G52" s="320">
         <f>SUM(H52:L52)</f>
         <v>35975</v>
@@ -25239,21 +25239,21 @@
       <c r="M53" s="322"/>
     </row>
     <row r="54" spans="1:13" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="480" t="s">
+      <c r="A54" s="487" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="481"/>
-      <c r="C54" s="481"/>
-      <c r="D54" s="481"/>
-      <c r="E54" s="481"/>
-      <c r="F54" s="481"/>
-      <c r="G54" s="481"/>
-      <c r="H54" s="481"/>
-      <c r="I54" s="481"/>
-      <c r="J54" s="481"/>
-      <c r="K54" s="481"/>
-      <c r="L54" s="481"/>
-      <c r="M54" s="481"/>
+      <c r="B54" s="488"/>
+      <c r="C54" s="488"/>
+      <c r="D54" s="488"/>
+      <c r="E54" s="488"/>
+      <c r="F54" s="488"/>
+      <c r="G54" s="488"/>
+      <c r="H54" s="488"/>
+      <c r="I54" s="488"/>
+      <c r="J54" s="488"/>
+      <c r="K54" s="488"/>
+      <c r="L54" s="488"/>
+      <c r="M54" s="488"/>
     </row>
     <row r="55" spans="1:13" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="53"/>
@@ -25275,22 +25275,22 @@
       <c r="G55" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="482" t="s">
+      <c r="H55" s="489" t="s">
         <v>72</v>
       </c>
-      <c r="I55" s="483"/>
-      <c r="J55" s="483"/>
-      <c r="K55" s="483"/>
-      <c r="L55" s="483"/>
+      <c r="I55" s="490"/>
+      <c r="J55" s="490"/>
+      <c r="K55" s="490"/>
+      <c r="L55" s="490"/>
       <c r="M55" s="409" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="486" t="s">
+      <c r="A56" s="482" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="487"/>
+      <c r="B56" s="484"/>
       <c r="C56" s="87"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
@@ -25525,10 +25525,10 @@
       <c r="M62" s="411"/>
     </row>
     <row r="63" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="486" t="s">
+      <c r="A63" s="482" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="488"/>
+      <c r="B63" s="483"/>
       <c r="C63" s="87"/>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
@@ -25750,10 +25750,10 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="486" t="s">
+      <c r="A71" s="482" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="488"/>
+      <c r="B71" s="483"/>
       <c r="C71" s="87"/>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
@@ -25797,10 +25797,10 @@
       <c r="M72" s="414"/>
     </row>
     <row r="73" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="486" t="s">
+      <c r="A73" s="482" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="488"/>
+      <c r="B73" s="483"/>
       <c r="C73" s="87"/>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
@@ -25859,14 +25859,14 @@
       <c r="M74" s="43"/>
     </row>
     <row r="75" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="484" t="s">
+      <c r="A75" s="480" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="485"/>
-      <c r="C75" s="485"/>
-      <c r="D75" s="485"/>
-      <c r="E75" s="485"/>
-      <c r="F75" s="485"/>
+      <c r="B75" s="481"/>
+      <c r="C75" s="481"/>
+      <c r="D75" s="481"/>
+      <c r="E75" s="481"/>
+      <c r="F75" s="481"/>
       <c r="G75" s="320">
         <f>SUM(H75:L75)</f>
         <v>29810</v>
@@ -25894,14 +25894,14 @@
       <c r="M75" s="414"/>
     </row>
     <row r="76" spans="1:13" s="27" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="477" t="s">
+      <c r="A76" s="471" t="s">
         <v>211</v>
       </c>
-      <c r="B76" s="477"/>
-      <c r="C76" s="477"/>
-      <c r="D76" s="477"/>
-      <c r="E76" s="477"/>
-      <c r="F76" s="477"/>
+      <c r="B76" s="471"/>
+      <c r="C76" s="471"/>
+      <c r="D76" s="471"/>
+      <c r="E76" s="471"/>
+      <c r="F76" s="471"/>
       <c r="G76" s="189">
         <f>SUM(H76:L76)</f>
         <v>124090</v>
@@ -25930,6 +25930,14 @@
     <row r="77" spans="1:13" ht="10.8" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A27:M28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="H55:L55"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A73:B73"/>
@@ -25946,14 +25954,6 @@
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A27:M28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="H55:L55"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -25971,8 +25971,8 @@
   </sheetPr>
   <dimension ref="A1:P142"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C65" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection sqref="A1:M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -25992,21 +25992,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="487" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="481"/>
-      <c r="G1" s="481"/>
-      <c r="H1" s="481"/>
-      <c r="I1" s="481"/>
-      <c r="J1" s="481"/>
-      <c r="K1" s="481"/>
-      <c r="L1" s="481"/>
-      <c r="M1" s="501"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
+      <c r="K1" s="488"/>
+      <c r="L1" s="488"/>
+      <c r="M1" s="491"/>
       <c r="N1" s="341">
         <v>220040.2</v>
       </c>
@@ -26063,15 +26063,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="491" t="s">
+      <c r="A3" s="492" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="491"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="491"/>
-      <c r="F3" s="491"/>
-      <c r="G3" s="491"/>
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="492"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
       <c r="H3" s="98"/>
       <c r="I3" s="98"/>
       <c r="J3" s="98"/>
@@ -26729,14 +26729,14 @@
       <c r="M23" s="440"/>
     </row>
     <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="498" t="s">
+      <c r="A24" s="493" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="499"/>
-      <c r="C24" s="499"/>
-      <c r="D24" s="499"/>
-      <c r="E24" s="499"/>
-      <c r="F24" s="500"/>
+      <c r="B24" s="494"/>
+      <c r="C24" s="494"/>
+      <c r="D24" s="494"/>
+      <c r="E24" s="494"/>
+      <c r="F24" s="495"/>
       <c r="G24" s="112">
         <f>SUM(H24:L24)</f>
         <v>49525</v>
@@ -26764,21 +26764,21 @@
       <c r="M24" s="361"/>
     </row>
     <row r="25" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="480" t="s">
+      <c r="A25" s="487" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="481"/>
-      <c r="C25" s="481"/>
-      <c r="D25" s="481"/>
-      <c r="E25" s="481"/>
-      <c r="F25" s="481"/>
-      <c r="G25" s="481"/>
-      <c r="H25" s="481"/>
-      <c r="I25" s="481"/>
-      <c r="J25" s="481"/>
-      <c r="K25" s="481"/>
-      <c r="L25" s="481"/>
-      <c r="M25" s="481"/>
+      <c r="B25" s="488"/>
+      <c r="C25" s="488"/>
+      <c r="D25" s="488"/>
+      <c r="E25" s="488"/>
+      <c r="F25" s="488"/>
+      <c r="G25" s="488"/>
+      <c r="H25" s="488"/>
+      <c r="I25" s="488"/>
+      <c r="J25" s="488"/>
+      <c r="K25" s="488"/>
+      <c r="L25" s="488"/>
+      <c r="M25" s="488"/>
       <c r="N25" s="340" t="s">
         <v>285</v>
       </c>
@@ -26838,15 +26838,15 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="491" t="s">
+      <c r="A27" s="492" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="491"/>
-      <c r="C27" s="491"/>
-      <c r="D27" s="491"/>
-      <c r="E27" s="491"/>
-      <c r="F27" s="491"/>
-      <c r="G27" s="491"/>
+      <c r="B27" s="492"/>
+      <c r="C27" s="492"/>
+      <c r="D27" s="492"/>
+      <c r="E27" s="492"/>
+      <c r="F27" s="492"/>
+      <c r="G27" s="492"/>
       <c r="H27" s="98"/>
       <c r="I27" s="98"/>
       <c r="J27" s="98"/>
@@ -27510,14 +27510,14 @@
       <c r="M48" s="360"/>
     </row>
     <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="498" t="s">
+      <c r="A49" s="493" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="499"/>
-      <c r="C49" s="499"/>
-      <c r="D49" s="499"/>
-      <c r="E49" s="499"/>
-      <c r="F49" s="500"/>
+      <c r="B49" s="494"/>
+      <c r="C49" s="494"/>
+      <c r="D49" s="494"/>
+      <c r="E49" s="494"/>
+      <c r="F49" s="495"/>
       <c r="G49" s="112">
         <f>SUM(H49:L49)</f>
         <v>75965</v>
@@ -27560,21 +27560,21 @@
       <c r="M50" s="238"/>
     </row>
     <row r="51" spans="1:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="480" t="s">
+      <c r="A51" s="487" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="481"/>
-      <c r="C51" s="481"/>
-      <c r="D51" s="481"/>
-      <c r="E51" s="481"/>
-      <c r="F51" s="481"/>
-      <c r="G51" s="481"/>
-      <c r="H51" s="481"/>
-      <c r="I51" s="481"/>
-      <c r="J51" s="481"/>
-      <c r="K51" s="481"/>
-      <c r="L51" s="481"/>
-      <c r="M51" s="481"/>
+      <c r="B51" s="488"/>
+      <c r="C51" s="488"/>
+      <c r="D51" s="488"/>
+      <c r="E51" s="488"/>
+      <c r="F51" s="488"/>
+      <c r="G51" s="488"/>
+      <c r="H51" s="488"/>
+      <c r="I51" s="488"/>
+      <c r="J51" s="488"/>
+      <c r="K51" s="488"/>
+      <c r="L51" s="488"/>
+      <c r="M51" s="488"/>
     </row>
     <row r="52" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="96" t="s">
@@ -27618,15 +27618,15 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="491" t="s">
+      <c r="A53" s="492" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="491"/>
-      <c r="C53" s="491"/>
-      <c r="D53" s="491"/>
-      <c r="E53" s="491"/>
-      <c r="F53" s="491"/>
-      <c r="G53" s="491"/>
+      <c r="B53" s="492"/>
+      <c r="C53" s="492"/>
+      <c r="D53" s="492"/>
+      <c r="E53" s="492"/>
+      <c r="F53" s="492"/>
+      <c r="G53" s="492"/>
       <c r="H53" s="98"/>
       <c r="I53" s="98"/>
       <c r="J53" s="98"/>
@@ -28153,14 +28153,14 @@
       <c r="M69" s="440"/>
     </row>
     <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A70" s="498" t="s">
+      <c r="A70" s="493" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="499"/>
-      <c r="C70" s="499"/>
-      <c r="D70" s="499"/>
-      <c r="E70" s="499"/>
-      <c r="F70" s="500"/>
+      <c r="B70" s="494"/>
+      <c r="C70" s="494"/>
+      <c r="D70" s="494"/>
+      <c r="E70" s="494"/>
+      <c r="F70" s="495"/>
       <c r="G70" s="112">
         <f>SUM(H70:L70)</f>
         <v>57055</v>
@@ -28188,14 +28188,14 @@
       <c r="M70" s="442"/>
     </row>
     <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="497" t="s">
+      <c r="A71" s="501" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="497"/>
-      <c r="C71" s="497"/>
-      <c r="D71" s="497"/>
-      <c r="E71" s="497"/>
-      <c r="F71" s="497"/>
+      <c r="B71" s="501"/>
+      <c r="C71" s="501"/>
+      <c r="D71" s="501"/>
+      <c r="E71" s="501"/>
+      <c r="F71" s="501"/>
       <c r="G71" s="244">
         <f>SUM(H71:L71)</f>
         <v>182545</v>
@@ -28223,15 +28223,15 @@
       <c r="M71" s="362"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="495" t="s">
+      <c r="A72" s="499" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="496"/>
-      <c r="C72" s="496"/>
-      <c r="D72" s="496"/>
-      <c r="E72" s="496"/>
-      <c r="F72" s="496"/>
-      <c r="G72" s="496"/>
+      <c r="B72" s="500"/>
+      <c r="C72" s="500"/>
+      <c r="D72" s="500"/>
+      <c r="E72" s="500"/>
+      <c r="F72" s="500"/>
+      <c r="G72" s="500"/>
     </row>
     <row r="73" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -28926,29 +28926,29 @@
       <c r="G106" s="12"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="492" t="s">
+      <c r="A107" s="496" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="493"/>
-      <c r="C107" s="493"/>
-      <c r="D107" s="493"/>
-      <c r="E107" s="493"/>
-      <c r="F107" s="494"/>
+      <c r="B107" s="497"/>
+      <c r="C107" s="497"/>
+      <c r="D107" s="497"/>
+      <c r="E107" s="497"/>
+      <c r="F107" s="498"/>
       <c r="G107" s="20">
         <f>SUM(G75:G105)</f>
         <v>222979.7</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="495" t="s">
+      <c r="A109" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="496"/>
-      <c r="C109" s="496"/>
-      <c r="D109" s="496"/>
-      <c r="E109" s="496"/>
-      <c r="F109" s="496"/>
-      <c r="G109" s="496"/>
+      <c r="B109" s="500"/>
+      <c r="C109" s="500"/>
+      <c r="D109" s="500"/>
+      <c r="E109" s="500"/>
+      <c r="F109" s="500"/>
+      <c r="G109" s="500"/>
     </row>
     <row r="110" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -29618,14 +29618,14 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="492" t="s">
+      <c r="A142" s="496" t="s">
         <v>64</v>
       </c>
-      <c r="B142" s="493"/>
-      <c r="C142" s="493"/>
-      <c r="D142" s="493"/>
-      <c r="E142" s="493"/>
-      <c r="F142" s="494"/>
+      <c r="B142" s="497"/>
+      <c r="C142" s="497"/>
+      <c r="D142" s="497"/>
+      <c r="E142" s="497"/>
+      <c r="F142" s="498"/>
       <c r="G142" s="20">
         <f>SUM(G112:G141)</f>
         <v>220039.7</v>
@@ -29633,11 +29633,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="A51:M51"/>
@@ -29647,6 +29642,11 @@
     <mergeCell ref="A109:G109"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A49:F49"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29664,8 +29664,8 @@
   </sheetPr>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A60" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -31910,8 +31910,8 @@
   </sheetPr>
   <dimension ref="A1:IF27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C8" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection sqref="A1:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -37345,8 +37345,8 @@
   </sheetPr>
   <dimension ref="A1:II30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -37366,21 +37366,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:243" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="528" t="s">
+      <c r="A1" s="539" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="528"/>
-      <c r="C1" s="528"/>
-      <c r="D1" s="528"/>
-      <c r="E1" s="528"/>
-      <c r="F1" s="528"/>
-      <c r="G1" s="528"/>
-      <c r="H1" s="528"/>
-      <c r="I1" s="528"/>
-      <c r="J1" s="528"/>
-      <c r="K1" s="528"/>
-      <c r="L1" s="528"/>
-      <c r="M1" s="528"/>
+      <c r="B1" s="539"/>
+      <c r="C1" s="539"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
       <c r="N1" s="334"/>
       <c r="O1" s="334"/>
       <c r="P1" s="334"/>
@@ -37613,19 +37613,19 @@
       <c r="II1" s="135"/>
     </row>
     <row r="2" spans="1:243" s="136" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="529"/>
-      <c r="B2" s="529"/>
-      <c r="C2" s="529"/>
-      <c r="D2" s="529"/>
-      <c r="E2" s="529"/>
-      <c r="F2" s="529"/>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
-      <c r="I2" s="529"/>
-      <c r="J2" s="529"/>
-      <c r="K2" s="529"/>
-      <c r="L2" s="529"/>
-      <c r="M2" s="529"/>
+      <c r="A2" s="540"/>
+      <c r="B2" s="540"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
+      <c r="G2" s="540"/>
+      <c r="H2" s="540"/>
+      <c r="I2" s="540"/>
+      <c r="J2" s="540"/>
+      <c r="K2" s="540"/>
+      <c r="L2" s="540"/>
+      <c r="M2" s="540"/>
       <c r="N2" s="335"/>
       <c r="O2" s="335"/>
       <c r="P2" s="335"/>
@@ -37858,60 +37858,60 @@
       <c r="II2" s="135"/>
     </row>
     <row r="3" spans="1:243" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="466" t="s">
+      <c r="A3" s="472" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="468" t="s">
+      <c r="B3" s="464" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="468" t="s">
+      <c r="C3" s="464" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="468" t="s">
+      <c r="D3" s="464" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="533" t="s">
+      <c r="E3" s="531" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="468" t="s">
+      <c r="F3" s="464" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="468" t="s">
+      <c r="G3" s="464" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="468" t="s">
+      <c r="H3" s="464" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="468" t="s">
+      <c r="I3" s="464" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="468" t="s">
+      <c r="J3" s="464" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="468" t="s">
+      <c r="K3" s="464" t="s">
         <v>229</v>
       </c>
-      <c r="L3" s="468" t="s">
+      <c r="L3" s="464" t="s">
         <v>236</v>
       </c>
-      <c r="M3" s="468" t="s">
+      <c r="M3" s="464" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="532"/>
-      <c r="B4" s="527"/>
-      <c r="C4" s="527"/>
-      <c r="D4" s="527"/>
-      <c r="E4" s="534"/>
-      <c r="F4" s="527"/>
-      <c r="G4" s="527"/>
-      <c r="H4" s="527"/>
-      <c r="I4" s="527"/>
-      <c r="J4" s="527"/>
-      <c r="K4" s="527"/>
-      <c r="L4" s="527"/>
-      <c r="M4" s="527"/>
+      <c r="A4" s="529"/>
+      <c r="B4" s="530"/>
+      <c r="C4" s="530"/>
+      <c r="D4" s="530"/>
+      <c r="E4" s="532"/>
+      <c r="F4" s="530"/>
+      <c r="G4" s="530"/>
+      <c r="H4" s="530"/>
+      <c r="I4" s="530"/>
+      <c r="J4" s="530"/>
+      <c r="K4" s="530"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="530"/>
     </row>
     <row r="5" spans="1:243" s="207" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="242" t="s">
@@ -38264,10 +38264,10 @@
       <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:243" x14ac:dyDescent="0.3">
-      <c r="A16" s="535">
+      <c r="A16" s="533">
         <v>4</v>
       </c>
-      <c r="B16" s="538" t="s">
+      <c r="B16" s="536" t="s">
         <v>356</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -38294,8 +38294,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="536"/>
-      <c r="B17" s="539"/>
+      <c r="A17" s="534"/>
+      <c r="B17" s="537"/>
       <c r="C17" s="39" t="s">
         <v>362</v>
       </c>
@@ -38326,8 +38326,8 @@
       <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="537"/>
-      <c r="B18" s="540"/>
+      <c r="A18" s="535"/>
+      <c r="B18" s="538"/>
       <c r="C18" s="39" t="s">
         <v>364</v>
       </c>
@@ -38688,14 +38688,14 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="530" t="s">
+      <c r="A30" s="527" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="531"/>
-      <c r="C30" s="531"/>
-      <c r="D30" s="531"/>
-      <c r="E30" s="531"/>
-      <c r="F30" s="531"/>
+      <c r="B30" s="528"/>
+      <c r="C30" s="528"/>
+      <c r="D30" s="528"/>
+      <c r="E30" s="528"/>
+      <c r="F30" s="528"/>
       <c r="G30" s="202">
         <f>SUM(H30:L30)</f>
         <v>84775</v>
@@ -38723,6 +38723,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -38732,14 +38740,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -39312,34 +39312,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="149" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="487" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="481"/>
-      <c r="G1" s="481"/>
-      <c r="H1" s="481"/>
-      <c r="I1" s="481"/>
-      <c r="J1" s="481"/>
-      <c r="K1" s="481"/>
-      <c r="L1" s="481"/>
+      <c r="B1" s="488"/>
+      <c r="C1" s="488"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
+      <c r="F1" s="488"/>
+      <c r="G1" s="488"/>
+      <c r="H1" s="488"/>
+      <c r="I1" s="488"/>
+      <c r="J1" s="488"/>
+      <c r="K1" s="488"/>
+      <c r="L1" s="488"/>
     </row>
     <row r="2" spans="1:12" s="149" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="480"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="481"/>
-      <c r="I2" s="481"/>
-      <c r="J2" s="481"/>
-      <c r="K2" s="481"/>
-      <c r="L2" s="481"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
+      <c r="K2" s="488"/>
+      <c r="L2" s="488"/>
     </row>
     <row r="3" spans="1:12" s="137" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
@@ -40067,11 +40067,11 @@
       <c r="L25" s="94"/>
     </row>
     <row r="26" spans="1:12" s="151" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="486" t="s">
+      <c r="A26" s="482" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="488"/>
-      <c r="C26" s="487"/>
+      <c r="B26" s="483"/>
+      <c r="C26" s="484"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="61"/>
@@ -40112,14 +40112,14 @@
       <c r="L27" s="94"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="484" t="s">
+      <c r="A28" s="480" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="485"/>
-      <c r="C28" s="485"/>
-      <c r="D28" s="485"/>
-      <c r="E28" s="485"/>
-      <c r="F28" s="485"/>
+      <c r="B28" s="481"/>
+      <c r="C28" s="481"/>
+      <c r="D28" s="481"/>
+      <c r="E28" s="481"/>
+      <c r="F28" s="481"/>
       <c r="G28" s="95">
         <f>SUM(H28:L28)</f>
         <v>134900</v>
@@ -40161,7 +40161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:M3"/>
     </sheetView>
   </sheetViews>
@@ -40774,19 +40774,19 @@
       <c r="S1" s="336"/>
     </row>
     <row r="2" spans="1:19" s="149" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="480"/>
-      <c r="B2" s="481"/>
-      <c r="C2" s="481"/>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481"/>
-      <c r="H2" s="481"/>
-      <c r="I2" s="481"/>
-      <c r="J2" s="481"/>
-      <c r="K2" s="481"/>
-      <c r="L2" s="481"/>
-      <c r="M2" s="481"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
+      <c r="K2" s="488"/>
+      <c r="L2" s="488"/>
+      <c r="M2" s="488"/>
       <c r="N2" s="330"/>
       <c r="O2" s="330"/>
       <c r="P2" s="330"/>
@@ -40812,14 +40812,14 @@
       <c r="G3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="482" t="s">
+      <c r="H3" s="489" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="483"/>
-      <c r="J3" s="483"/>
-      <c r="K3" s="483"/>
-      <c r="L3" s="483"/>
-      <c r="M3" s="483"/>
+      <c r="I3" s="490"/>
+      <c r="J3" s="490"/>
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="490"/>
       <c r="N3" s="333"/>
       <c r="O3" s="333"/>
       <c r="P3" s="333"/>
@@ -41476,14 +41476,14 @@
       <c r="S17" s="235"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="484" t="s">
+      <c r="A18" s="480" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="485"/>
-      <c r="C18" s="485"/>
-      <c r="D18" s="485"/>
-      <c r="E18" s="485"/>
-      <c r="F18" s="485"/>
+      <c r="B18" s="481"/>
+      <c r="C18" s="481"/>
+      <c r="D18" s="481"/>
+      <c r="E18" s="481"/>
+      <c r="F18" s="481"/>
       <c r="G18" s="95">
         <f>SUM(H18:S18)</f>
         <v>24979.67</v>
